--- a/src/tools/csv/sku.xlsx
+++ b/src/tools/csv/sku.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:AB14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,6 +489,91 @@
           <t>Option2 Value</t>
         </is>
       </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Variant Grams</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Variant Inventory Tracker</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Variant Inventory Qty</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Variant Inventory Policy</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Variant Fulfillment Service</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Variant Price</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Variant Compare at Price</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Variant Requires Shipping</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Variant Taxable</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>Variant Image</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>Cost per item</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>Variant Barcode</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>Gift Card</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>SEO Title</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>SEO Description</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>Image Alt Text</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -514,11 +599,7 @@
           <t>test mjy</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Bags and Travel(箱包和旅行)&gt;Travel(旅行)&gt;Luggage(行李)&gt;Suitcases(手提箱)</t>
-        </is>
-      </c>
+      <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr">
         <is>
           <t>TRUE</t>
@@ -540,6 +621,55 @@
         </is>
       </c>
       <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>1111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>来赞宝</t>
+        </is>
+      </c>
+      <c r="N2" t="n">
+        <v>9964</v>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>continue</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>manual</t>
+        </is>
+      </c>
+      <c r="Q2" t="n">
+        <v>333</v>
+      </c>
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>https://cbu01.alicdn.com/img/ibank/2020/560/392/20869293065_833961269.400x400.jpg</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr"/>
+      <c r="W2" t="inlineStr"/>
+      <c r="X2" t="inlineStr"/>
+      <c r="Y2" t="inlineStr"/>
+      <c r="Z2" t="inlineStr"/>
+      <c r="AA2" t="inlineStr"/>
+      <c r="AB2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -567,6 +697,55 @@
         </is>
       </c>
       <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>1111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>来赞宝</t>
+        </is>
+      </c>
+      <c r="N3" t="n">
+        <v>9827</v>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>continue</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>manual</t>
+        </is>
+      </c>
+      <c r="Q3" t="n">
+        <v>333</v>
+      </c>
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>https://cbu01.alicdn.com/img/ibank/2020/560/392/20869293065_833961269.400x400.jpg</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr"/>
+      <c r="W3" t="inlineStr"/>
+      <c r="X3" t="inlineStr"/>
+      <c r="Y3" t="inlineStr"/>
+      <c r="Z3" t="inlineStr"/>
+      <c r="AA3" t="inlineStr"/>
+      <c r="AB3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -594,6 +773,55 @@
         </is>
       </c>
       <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>1111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>来赞宝</t>
+        </is>
+      </c>
+      <c r="N4" t="n">
+        <v>9947</v>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>continue</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>manual</t>
+        </is>
+      </c>
+      <c r="Q4" t="n">
+        <v>333</v>
+      </c>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>https://cbu01.alicdn.com/img/ibank/2020/560/392/20869293065_833961269.400x400.jpg</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr"/>
+      <c r="W4" t="inlineStr"/>
+      <c r="X4" t="inlineStr"/>
+      <c r="Y4" t="inlineStr"/>
+      <c r="Z4" t="inlineStr"/>
+      <c r="AA4" t="inlineStr"/>
+      <c r="AB4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -621,6 +849,55 @@
         </is>
       </c>
       <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>1111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>来赞宝</t>
+        </is>
+      </c>
+      <c r="N5" t="n">
+        <v>9992</v>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>continue</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>manual</t>
+        </is>
+      </c>
+      <c r="Q5" t="n">
+        <v>333</v>
+      </c>
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>https://cbu01.alicdn.com/img/ibank/2020/560/392/20869293065_833961269.400x400.jpg</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr"/>
+      <c r="W5" t="inlineStr"/>
+      <c r="X5" t="inlineStr"/>
+      <c r="Y5" t="inlineStr"/>
+      <c r="Z5" t="inlineStr"/>
+      <c r="AA5" t="inlineStr"/>
+      <c r="AB5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -648,6 +925,55 @@
         </is>
       </c>
       <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>1111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>来赞宝</t>
+        </is>
+      </c>
+      <c r="N6" t="n">
+        <v>9824</v>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>continue</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>manual</t>
+        </is>
+      </c>
+      <c r="Q6" t="n">
+        <v>333</v>
+      </c>
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>https://cbu01.alicdn.com/img/ibank/2020/560/392/20869293065_833961269.400x400.jpg</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr"/>
+      <c r="W6" t="inlineStr"/>
+      <c r="X6" t="inlineStr"/>
+      <c r="Y6" t="inlineStr"/>
+      <c r="Z6" t="inlineStr"/>
+      <c r="AA6" t="inlineStr"/>
+      <c r="AB6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -675,6 +1001,55 @@
         </is>
       </c>
       <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>1111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>来赞宝</t>
+        </is>
+      </c>
+      <c r="N7" t="n">
+        <v>9783</v>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>continue</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>manual</t>
+        </is>
+      </c>
+      <c r="Q7" t="n">
+        <v>333</v>
+      </c>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>https://cbu01.alicdn.com/img/ibank/2020/560/392/20869293065_833961269.400x400.jpg</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr"/>
+      <c r="W7" t="inlineStr"/>
+      <c r="X7" t="inlineStr"/>
+      <c r="Y7" t="inlineStr"/>
+      <c r="Z7" t="inlineStr"/>
+      <c r="AA7" t="inlineStr"/>
+      <c r="AB7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -702,6 +1077,55 @@
         </is>
       </c>
       <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>1111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>来赞宝</t>
+        </is>
+      </c>
+      <c r="N8" t="n">
+        <v>9641</v>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>continue</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>manual</t>
+        </is>
+      </c>
+      <c r="Q8" t="n">
+        <v>333</v>
+      </c>
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>https://cbu01.alicdn.com/img/ibank/2020/560/392/20869293065_833961269.400x400.jpg</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr"/>
+      <c r="W8" t="inlineStr"/>
+      <c r="X8" t="inlineStr"/>
+      <c r="Y8" t="inlineStr"/>
+      <c r="Z8" t="inlineStr"/>
+      <c r="AA8" t="inlineStr"/>
+      <c r="AB8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -729,6 +1153,55 @@
         </is>
       </c>
       <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>1111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>来赞宝</t>
+        </is>
+      </c>
+      <c r="N9" t="n">
+        <v>9971</v>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>continue</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>manual</t>
+        </is>
+      </c>
+      <c r="Q9" t="n">
+        <v>333</v>
+      </c>
+      <c r="R9" t="inlineStr"/>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>https://cbu01.alicdn.com/img/ibank/2020/560/392/20869293065_833961269.400x400.jpg</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr"/>
+      <c r="W9" t="inlineStr"/>
+      <c r="X9" t="inlineStr"/>
+      <c r="Y9" t="inlineStr"/>
+      <c r="Z9" t="inlineStr"/>
+      <c r="AA9" t="inlineStr"/>
+      <c r="AB9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -756,6 +1229,55 @@
         </is>
       </c>
       <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>1111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>来赞宝</t>
+        </is>
+      </c>
+      <c r="N10" t="n">
+        <v>9985</v>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>continue</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>manual</t>
+        </is>
+      </c>
+      <c r="Q10" t="n">
+        <v>333</v>
+      </c>
+      <c r="R10" t="inlineStr"/>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>https://cbu01.alicdn.com/img/ibank/2020/560/392/20869293065_833961269.400x400.jpg</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr"/>
+      <c r="W10" t="inlineStr"/>
+      <c r="X10" t="inlineStr"/>
+      <c r="Y10" t="inlineStr"/>
+      <c r="Z10" t="inlineStr"/>
+      <c r="AA10" t="inlineStr"/>
+      <c r="AB10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -783,6 +1305,55 @@
         </is>
       </c>
       <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>1111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>来赞宝</t>
+        </is>
+      </c>
+      <c r="N11" t="n">
+        <v>9970</v>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>continue</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>manual</t>
+        </is>
+      </c>
+      <c r="Q11" t="n">
+        <v>333</v>
+      </c>
+      <c r="R11" t="inlineStr"/>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>https://cbu01.alicdn.com/img/ibank/2020/560/392/20869293065_833961269.400x400.jpg</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr"/>
+      <c r="W11" t="inlineStr"/>
+      <c r="X11" t="inlineStr"/>
+      <c r="Y11" t="inlineStr"/>
+      <c r="Z11" t="inlineStr"/>
+      <c r="AA11" t="inlineStr"/>
+      <c r="AB11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -810,6 +1381,55 @@
         </is>
       </c>
       <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>1111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>来赞宝</t>
+        </is>
+      </c>
+      <c r="N12" t="n">
+        <v>9988</v>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>continue</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>manual</t>
+        </is>
+      </c>
+      <c r="Q12" t="n">
+        <v>333</v>
+      </c>
+      <c r="R12" t="inlineStr"/>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>https://cbu01.alicdn.com/img/ibank/2020/560/392/20869293065_833961269.400x400.jpg</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr"/>
+      <c r="W12" t="inlineStr"/>
+      <c r="X12" t="inlineStr"/>
+      <c r="Y12" t="inlineStr"/>
+      <c r="Z12" t="inlineStr"/>
+      <c r="AA12" t="inlineStr"/>
+      <c r="AB12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -837,6 +1457,55 @@
         </is>
       </c>
       <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>1111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>来赞宝</t>
+        </is>
+      </c>
+      <c r="N13" t="n">
+        <v>9857</v>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>continue</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>manual</t>
+        </is>
+      </c>
+      <c r="Q13" t="n">
+        <v>333</v>
+      </c>
+      <c r="R13" t="inlineStr"/>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>https://cbu01.alicdn.com/img/ibank/2020/560/392/20869293065_833961269.400x400.jpg</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr"/>
+      <c r="W13" t="inlineStr"/>
+      <c r="X13" t="inlineStr"/>
+      <c r="Y13" t="inlineStr"/>
+      <c r="Z13" t="inlineStr"/>
+      <c r="AA13" t="inlineStr"/>
+      <c r="AB13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -864,6 +1533,55 @@
         </is>
       </c>
       <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>1111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>来赞宝</t>
+        </is>
+      </c>
+      <c r="N14" t="n">
+        <v>9883</v>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>continue</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>manual</t>
+        </is>
+      </c>
+      <c r="Q14" t="n">
+        <v>333</v>
+      </c>
+      <c r="R14" t="inlineStr"/>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>https://cbu01.alicdn.com/img/ibank/2020/560/392/20869293065_833961269.400x400.jpg</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr"/>
+      <c r="W14" t="inlineStr"/>
+      <c r="X14" t="inlineStr"/>
+      <c r="Y14" t="inlineStr"/>
+      <c r="Z14" t="inlineStr"/>
+      <c r="AA14" t="inlineStr"/>
+      <c r="AB14" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/src/tools/csv/sku.xlsx
+++ b/src/tools/csv/sku.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB14"/>
+  <dimension ref="A1:AD21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,105 +471,115 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
+          <t>Image Src</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Image Position</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
           <t>Option1 Name</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Option1 Value</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Option2 Name</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Option2 Value</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Variant Grams</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Variant Inventory Tracker</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Variant Inventory Qty</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Variant Inventory Policy</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Variant Fulfillment Service</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Variant Price</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Variant Compare at Price</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Variant Requires Shipping</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Variant Taxable</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>Variant Image</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>Cost per item</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>Status</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>Variant Barcode</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>Gift Card</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>SEO Title</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>SEO Description</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>Image Alt Text</t>
         </is>
@@ -591,12 +601,12 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>test mjy</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>No Brand</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>test mjy</t>
         </is>
       </c>
       <c r="F2" t="inlineStr"/>
@@ -607,69 +617,77 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
+          <t>https://cbu01.alicdn.com/img/ibank/2020/560/392/20869293065_833961269.400x400.jpg</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>color</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>shang xin Vintage Materials Blue</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>size</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr">
         <is>
           <t>1111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>来赞宝</t>
         </is>
       </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>9964</v>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>continue</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="R2" t="inlineStr">
         <is>
           <t>manual</t>
         </is>
       </c>
-      <c r="Q2" t="n">
+      <c r="S2" t="n">
         <v>333</v>
       </c>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
+      <c r="T2" t="inlineStr"/>
       <c r="U2" t="inlineStr">
         <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
           <t>https://cbu01.alicdn.com/img/ibank/2020/560/392/20869293065_833961269.400x400.jpg</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr"/>
-      <c r="W2" t="inlineStr"/>
       <c r="X2" t="inlineStr"/>
       <c r="Y2" t="inlineStr"/>
       <c r="Z2" t="inlineStr"/>
       <c r="AA2" t="inlineStr"/>
       <c r="AB2" t="inlineStr"/>
+      <c r="AC2" t="inlineStr"/>
+      <c r="AD2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -681,71 +699,73 @@
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr">
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
         <is>
           <t>color</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>shang xin Crocodile Green</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>size</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr">
         <is>
           <t>1111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>来赞宝</t>
         </is>
       </c>
-      <c r="N3" t="n">
+      <c r="P3" t="n">
         <v>9827</v>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>continue</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="R3" t="inlineStr">
         <is>
           <t>manual</t>
         </is>
       </c>
-      <c r="Q3" t="n">
+      <c r="S3" t="n">
         <v>333</v>
       </c>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
+      <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr">
         <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
           <t>https://cbu01.alicdn.com/img/ibank/2020/560/392/20869293065_833961269.400x400.jpg</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr"/>
-      <c r="W3" t="inlineStr"/>
       <c r="X3" t="inlineStr"/>
       <c r="Y3" t="inlineStr"/>
       <c r="Z3" t="inlineStr"/>
       <c r="AA3" t="inlineStr"/>
       <c r="AB3" t="inlineStr"/>
+      <c r="AC3" t="inlineStr"/>
+      <c r="AD3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -757,71 +777,73 @@
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr">
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
         <is>
           <t>color</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>shang xin Vintage Material Black</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>size</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr">
         <is>
           <t>1111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>来赞宝</t>
         </is>
       </c>
-      <c r="N4" t="n">
+      <c r="P4" t="n">
         <v>9947</v>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>continue</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="R4" t="inlineStr">
         <is>
           <t>manual</t>
         </is>
       </c>
-      <c r="Q4" t="n">
+      <c r="S4" t="n">
         <v>333</v>
       </c>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
+      <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr">
         <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
           <t>https://cbu01.alicdn.com/img/ibank/2020/560/392/20869293065_833961269.400x400.jpg</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr"/>
       <c r="X4" t="inlineStr"/>
       <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="inlineStr"/>
       <c r="AA4" t="inlineStr"/>
       <c r="AB4" t="inlineStr"/>
+      <c r="AC4" t="inlineStr"/>
+      <c r="AD4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -833,71 +855,73 @@
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr">
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
         <is>
           <t>color</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>shang xin Vintage Material Pink</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>size</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr">
         <is>
           <t>1111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>来赞宝</t>
         </is>
       </c>
-      <c r="N5" t="n">
+      <c r="P5" t="n">
         <v>9992</v>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>continue</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="R5" t="inlineStr">
         <is>
           <t>manual</t>
         </is>
       </c>
-      <c r="Q5" t="n">
+      <c r="S5" t="n">
         <v>333</v>
       </c>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
+      <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr">
         <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
           <t>https://cbu01.alicdn.com/img/ibank/2020/560/392/20869293065_833961269.400x400.jpg</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr"/>
-      <c r="W5" t="inlineStr"/>
       <c r="X5" t="inlineStr"/>
       <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="inlineStr"/>
       <c r="AA5" t="inlineStr"/>
       <c r="AB5" t="inlineStr"/>
+      <c r="AC5" t="inlineStr"/>
+      <c r="AD5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -909,71 +933,73 @@
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr">
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
         <is>
           <t>color</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>shang xin Crocodile Khaki</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>size</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr">
         <is>
           <t>1111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>来赞宝</t>
         </is>
       </c>
-      <c r="N6" t="n">
+      <c r="P6" t="n">
         <v>9824</v>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>continue</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="R6" t="inlineStr">
         <is>
           <t>manual</t>
         </is>
       </c>
-      <c r="Q6" t="n">
+      <c r="S6" t="n">
         <v>333</v>
       </c>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
+      <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr">
         <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
           <t>https://cbu01.alicdn.com/img/ibank/2020/560/392/20869293065_833961269.400x400.jpg</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr"/>
-      <c r="W6" t="inlineStr"/>
       <c r="X6" t="inlineStr"/>
       <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="inlineStr"/>
       <c r="AA6" t="inlineStr"/>
       <c r="AB6" t="inlineStr"/>
+      <c r="AC6" t="inlineStr"/>
+      <c r="AD6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -985,71 +1011,73 @@
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr">
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
         <is>
           <t>color</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>shang xin Crocodile Wine</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>size</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr">
         <is>
           <t>1111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>来赞宝</t>
         </is>
       </c>
-      <c r="N7" t="n">
+      <c r="P7" t="n">
         <v>9783</v>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>continue</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="R7" t="inlineStr">
         <is>
           <t>manual</t>
         </is>
       </c>
-      <c r="Q7" t="n">
+      <c r="S7" t="n">
         <v>333</v>
       </c>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
+      <c r="T7" t="inlineStr"/>
       <c r="U7" t="inlineStr">
         <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
           <t>https://cbu01.alicdn.com/img/ibank/2020/560/392/20869293065_833961269.400x400.jpg</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr"/>
-      <c r="W7" t="inlineStr"/>
       <c r="X7" t="inlineStr"/>
       <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="inlineStr"/>
       <c r="AA7" t="inlineStr"/>
       <c r="AB7" t="inlineStr"/>
+      <c r="AC7" t="inlineStr"/>
+      <c r="AD7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1061,71 +1089,73 @@
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr">
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
         <is>
           <t>color</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>shang xin Crocodile Black</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>size</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr">
         <is>
           <t>1111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="O8" t="inlineStr">
         <is>
           <t>来赞宝</t>
         </is>
       </c>
-      <c r="N8" t="n">
+      <c r="P8" t="n">
         <v>9641</v>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>continue</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
+      <c r="R8" t="inlineStr">
         <is>
           <t>manual</t>
         </is>
       </c>
-      <c r="Q8" t="n">
+      <c r="S8" t="n">
         <v>333</v>
       </c>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
+      <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr">
         <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
           <t>https://cbu01.alicdn.com/img/ibank/2020/560/392/20869293065_833961269.400x400.jpg</t>
         </is>
       </c>
-      <c r="V8" t="inlineStr"/>
-      <c r="W8" t="inlineStr"/>
       <c r="X8" t="inlineStr"/>
       <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="inlineStr"/>
       <c r="AA8" t="inlineStr"/>
       <c r="AB8" t="inlineStr"/>
+      <c r="AC8" t="inlineStr"/>
+      <c r="AD8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1137,71 +1167,73 @@
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr">
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
         <is>
           <t>color</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>shang xin Vintage Material Green</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>size</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr">
         <is>
           <t>1111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>来赞宝</t>
         </is>
       </c>
-      <c r="N9" t="n">
+      <c r="P9" t="n">
         <v>9971</v>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
         <is>
           <t>continue</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
+      <c r="R9" t="inlineStr">
         <is>
           <t>manual</t>
         </is>
       </c>
-      <c r="Q9" t="n">
+      <c r="S9" t="n">
         <v>333</v>
       </c>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
+      <c r="T9" t="inlineStr"/>
       <c r="U9" t="inlineStr">
         <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
           <t>https://cbu01.alicdn.com/img/ibank/2020/560/392/20869293065_833961269.400x400.jpg</t>
         </is>
       </c>
-      <c r="V9" t="inlineStr"/>
-      <c r="W9" t="inlineStr"/>
       <c r="X9" t="inlineStr"/>
       <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="inlineStr"/>
       <c r="AA9" t="inlineStr"/>
       <c r="AB9" t="inlineStr"/>
+      <c r="AC9" t="inlineStr"/>
+      <c r="AD9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1213,71 +1245,73 @@
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr">
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
         <is>
           <t>color</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>shang xin Vintage Materials Brown</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>size</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr">
         <is>
           <t>1111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>来赞宝</t>
         </is>
       </c>
-      <c r="N10" t="n">
+      <c r="P10" t="n">
         <v>9985</v>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="Q10" t="inlineStr">
         <is>
           <t>continue</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
+      <c r="R10" t="inlineStr">
         <is>
           <t>manual</t>
         </is>
       </c>
-      <c r="Q10" t="n">
+      <c r="S10" t="n">
         <v>333</v>
       </c>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
+      <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr">
         <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
           <t>https://cbu01.alicdn.com/img/ibank/2020/560/392/20869293065_833961269.400x400.jpg</t>
         </is>
       </c>
-      <c r="V10" t="inlineStr"/>
-      <c r="W10" t="inlineStr"/>
       <c r="X10" t="inlineStr"/>
       <c r="Y10" t="inlineStr"/>
       <c r="Z10" t="inlineStr"/>
       <c r="AA10" t="inlineStr"/>
       <c r="AB10" t="inlineStr"/>
+      <c r="AC10" t="inlineStr"/>
+      <c r="AD10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1289,71 +1323,73 @@
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr">
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
         <is>
           <t>color</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>shang xin Vintage Material Khaki</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>size</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr">
         <is>
           <t>1111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="O11" t="inlineStr">
         <is>
           <t>来赞宝</t>
         </is>
       </c>
-      <c r="N11" t="n">
+      <c r="P11" t="n">
         <v>9970</v>
       </c>
-      <c r="O11" t="inlineStr">
+      <c r="Q11" t="inlineStr">
         <is>
           <t>continue</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
+      <c r="R11" t="inlineStr">
         <is>
           <t>manual</t>
         </is>
       </c>
-      <c r="Q11" t="n">
+      <c r="S11" t="n">
         <v>333</v>
       </c>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="T11" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
+      <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr">
         <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
           <t>https://cbu01.alicdn.com/img/ibank/2020/560/392/20869293065_833961269.400x400.jpg</t>
         </is>
       </c>
-      <c r="V11" t="inlineStr"/>
-      <c r="W11" t="inlineStr"/>
       <c r="X11" t="inlineStr"/>
       <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="inlineStr"/>
       <c r="AA11" t="inlineStr"/>
       <c r="AB11" t="inlineStr"/>
+      <c r="AC11" t="inlineStr"/>
+      <c r="AD11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1365,71 +1401,73 @@
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr">
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
         <is>
           <t>color</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>shang xin Vintage Material Red</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>size</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr">
         <is>
           <t>1111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="O12" t="inlineStr">
         <is>
           <t>来赞宝</t>
         </is>
       </c>
-      <c r="N12" t="n">
+      <c r="P12" t="n">
         <v>9988</v>
       </c>
-      <c r="O12" t="inlineStr">
+      <c r="Q12" t="inlineStr">
         <is>
           <t>continue</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr">
+      <c r="R12" t="inlineStr">
         <is>
           <t>manual</t>
         </is>
       </c>
-      <c r="Q12" t="n">
+      <c r="S12" t="n">
         <v>333</v>
       </c>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="T12" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
+      <c r="T12" t="inlineStr"/>
       <c r="U12" t="inlineStr">
         <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
           <t>https://cbu01.alicdn.com/img/ibank/2020/560/392/20869293065_833961269.400x400.jpg</t>
         </is>
       </c>
-      <c r="V12" t="inlineStr"/>
-      <c r="W12" t="inlineStr"/>
       <c r="X12" t="inlineStr"/>
       <c r="Y12" t="inlineStr"/>
       <c r="Z12" t="inlineStr"/>
       <c r="AA12" t="inlineStr"/>
       <c r="AB12" t="inlineStr"/>
+      <c r="AC12" t="inlineStr"/>
+      <c r="AD12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1441,71 +1479,73 @@
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr">
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
         <is>
           <t>color</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>shang xin Crocodile Pink</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>size</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr">
         <is>
           <t>1111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="O13" t="inlineStr">
         <is>
           <t>来赞宝</t>
         </is>
       </c>
-      <c r="N13" t="n">
+      <c r="P13" t="n">
         <v>9857</v>
       </c>
-      <c r="O13" t="inlineStr">
+      <c r="Q13" t="inlineStr">
         <is>
           <t>continue</t>
         </is>
       </c>
-      <c r="P13" t="inlineStr">
+      <c r="R13" t="inlineStr">
         <is>
           <t>manual</t>
         </is>
       </c>
-      <c r="Q13" t="n">
+      <c r="S13" t="n">
         <v>333</v>
       </c>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="T13" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
+      <c r="T13" t="inlineStr"/>
       <c r="U13" t="inlineStr">
         <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
           <t>https://cbu01.alicdn.com/img/ibank/2020/560/392/20869293065_833961269.400x400.jpg</t>
         </is>
       </c>
-      <c r="V13" t="inlineStr"/>
-      <c r="W13" t="inlineStr"/>
       <c r="X13" t="inlineStr"/>
       <c r="Y13" t="inlineStr"/>
       <c r="Z13" t="inlineStr"/>
       <c r="AA13" t="inlineStr"/>
       <c r="AB13" t="inlineStr"/>
+      <c r="AC13" t="inlineStr"/>
+      <c r="AD13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1517,71 +1557,353 @@
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr">
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
         <is>
           <t>color</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>shang xin Crocodile Marriage Bed with Its Bright Red Curtains</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
+      <c r="L14" t="inlineStr">
         <is>
           <t>size</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr">
         <is>
           <t>1111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
+      <c r="O14" t="inlineStr">
         <is>
           <t>来赞宝</t>
         </is>
       </c>
-      <c r="N14" t="n">
+      <c r="P14" t="n">
         <v>9883</v>
       </c>
-      <c r="O14" t="inlineStr">
+      <c r="Q14" t="inlineStr">
         <is>
           <t>continue</t>
         </is>
       </c>
-      <c r="P14" t="inlineStr">
+      <c r="R14" t="inlineStr">
         <is>
           <t>manual</t>
         </is>
       </c>
-      <c r="Q14" t="n">
+      <c r="S14" t="n">
         <v>333</v>
       </c>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="T14" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
+      <c r="T14" t="inlineStr"/>
       <c r="U14" t="inlineStr">
         <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
           <t>https://cbu01.alicdn.com/img/ibank/2020/560/392/20869293065_833961269.400x400.jpg</t>
         </is>
       </c>
-      <c r="V14" t="inlineStr"/>
-      <c r="W14" t="inlineStr"/>
       <c r="X14" t="inlineStr"/>
       <c r="Y14" t="inlineStr"/>
       <c r="Z14" t="inlineStr"/>
       <c r="AA14" t="inlineStr"/>
       <c r="AB14" t="inlineStr"/>
+      <c r="AC14" t="inlineStr"/>
+      <c r="AD14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>2208796954</v>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>https://cbu01.alicdn.com/img/ibank/2020/292/914/21027419292_833961269.400x400.jpg</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
+        <v>2</v>
+      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="inlineStr"/>
+      <c r="O15" t="inlineStr"/>
+      <c r="P15" t="inlineStr"/>
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr"/>
+      <c r="S15" t="inlineStr"/>
+      <c r="T15" t="inlineStr"/>
+      <c r="U15" t="inlineStr"/>
+      <c r="V15" t="inlineStr"/>
+      <c r="W15" t="inlineStr"/>
+      <c r="X15" t="inlineStr"/>
+      <c r="Y15" t="inlineStr"/>
+      <c r="Z15" t="inlineStr"/>
+      <c r="AA15" t="inlineStr"/>
+      <c r="AB15" t="inlineStr"/>
+      <c r="AC15" t="inlineStr"/>
+      <c r="AD15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>2208796954</v>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>https://cbu01.alicdn.com/img/ibank/2020/949/662/20869266949_833961269.400x400.jpg</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
+        <v>3</v>
+      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="inlineStr"/>
+      <c r="O16" t="inlineStr"/>
+      <c r="P16" t="inlineStr"/>
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr"/>
+      <c r="S16" t="inlineStr"/>
+      <c r="T16" t="inlineStr"/>
+      <c r="U16" t="inlineStr"/>
+      <c r="V16" t="inlineStr"/>
+      <c r="W16" t="inlineStr"/>
+      <c r="X16" t="inlineStr"/>
+      <c r="Y16" t="inlineStr"/>
+      <c r="Z16" t="inlineStr"/>
+      <c r="AA16" t="inlineStr"/>
+      <c r="AB16" t="inlineStr"/>
+      <c r="AC16" t="inlineStr"/>
+      <c r="AD16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>2208796954</v>
+      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>https://cbu01.alicdn.com/img/ibank/2020/632/824/21027428236_833961269.400x400.jpg</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
+        <v>4</v>
+      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="inlineStr"/>
+      <c r="O17" t="inlineStr"/>
+      <c r="P17" t="inlineStr"/>
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr"/>
+      <c r="S17" t="inlineStr"/>
+      <c r="T17" t="inlineStr"/>
+      <c r="U17" t="inlineStr"/>
+      <c r="V17" t="inlineStr"/>
+      <c r="W17" t="inlineStr"/>
+      <c r="X17" t="inlineStr"/>
+      <c r="Y17" t="inlineStr"/>
+      <c r="Z17" t="inlineStr"/>
+      <c r="AA17" t="inlineStr"/>
+      <c r="AB17" t="inlineStr"/>
+      <c r="AC17" t="inlineStr"/>
+      <c r="AD17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>2208796954</v>
+      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>https://cbu01.alicdn.com/img/ibank/2020/783/235/21726532387_833961269.400x400.jpg</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
+        <v>5</v>
+      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="inlineStr"/>
+      <c r="O18" t="inlineStr"/>
+      <c r="P18" t="inlineStr"/>
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr"/>
+      <c r="S18" t="inlineStr"/>
+      <c r="T18" t="inlineStr"/>
+      <c r="U18" t="inlineStr"/>
+      <c r="V18" t="inlineStr"/>
+      <c r="W18" t="inlineStr"/>
+      <c r="X18" t="inlineStr"/>
+      <c r="Y18" t="inlineStr"/>
+      <c r="Z18" t="inlineStr"/>
+      <c r="AA18" t="inlineStr"/>
+      <c r="AB18" t="inlineStr"/>
+      <c r="AC18" t="inlineStr"/>
+      <c r="AD18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>2208796954</v>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>https://cbu01.alicdn.com/img/ibank/2020/100/445/21726544001_833961269.400x400.jpg</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
+        <v>6</v>
+      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="inlineStr"/>
+      <c r="O19" t="inlineStr"/>
+      <c r="P19" t="inlineStr"/>
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="inlineStr"/>
+      <c r="S19" t="inlineStr"/>
+      <c r="T19" t="inlineStr"/>
+      <c r="U19" t="inlineStr"/>
+      <c r="V19" t="inlineStr"/>
+      <c r="W19" t="inlineStr"/>
+      <c r="X19" t="inlineStr"/>
+      <c r="Y19" t="inlineStr"/>
+      <c r="Z19" t="inlineStr"/>
+      <c r="AA19" t="inlineStr"/>
+      <c r="AB19" t="inlineStr"/>
+      <c r="AC19" t="inlineStr"/>
+      <c r="AD19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>2208796954</v>
+      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>https://cbu01.alicdn.com/img/ibank/2020/268/266/21649662862_833961269.400x400.jpg</t>
+        </is>
+      </c>
+      <c r="I20" t="n">
+        <v>7</v>
+      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="inlineStr"/>
+      <c r="O20" t="inlineStr"/>
+      <c r="P20" t="inlineStr"/>
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="inlineStr"/>
+      <c r="S20" t="inlineStr"/>
+      <c r="T20" t="inlineStr"/>
+      <c r="U20" t="inlineStr"/>
+      <c r="V20" t="inlineStr"/>
+      <c r="W20" t="inlineStr"/>
+      <c r="X20" t="inlineStr"/>
+      <c r="Y20" t="inlineStr"/>
+      <c r="Z20" t="inlineStr"/>
+      <c r="AA20" t="inlineStr"/>
+      <c r="AB20" t="inlineStr"/>
+      <c r="AC20" t="inlineStr"/>
+      <c r="AD20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>2208796954</v>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>https://cbu01.alicdn.com/img/ibank/2020/285/124/21814421582_833961269.400x400.jpg</t>
+        </is>
+      </c>
+      <c r="I21" t="n">
+        <v>8</v>
+      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="inlineStr"/>
+      <c r="O21" t="inlineStr"/>
+      <c r="P21" t="inlineStr"/>
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr"/>
+      <c r="S21" t="inlineStr"/>
+      <c r="T21" t="inlineStr"/>
+      <c r="U21" t="inlineStr"/>
+      <c r="V21" t="inlineStr"/>
+      <c r="W21" t="inlineStr"/>
+      <c r="X21" t="inlineStr"/>
+      <c r="Y21" t="inlineStr"/>
+      <c r="Z21" t="inlineStr"/>
+      <c r="AA21" t="inlineStr"/>
+      <c r="AB21" t="inlineStr"/>
+      <c r="AC21" t="inlineStr"/>
+      <c r="AD21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/src/tools/csv/sku.xlsx
+++ b/src/tools/csv/sku.xlsx
@@ -263,8 +263,11 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -570,758 +573,758 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" customWidth="1"/>
-    <col min="3" max="3" width="40.7109375" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" customWidth="1"/>
-    <col min="8" max="8" width="86.7109375" customWidth="1"/>
-    <col min="9" max="9" width="19.7109375" customWidth="1"/>
-    <col min="10" max="10" width="17.7109375" customWidth="1"/>
-    <col min="11" max="11" width="66.7109375" customWidth="1"/>
-    <col min="12" max="12" width="17.7109375" customWidth="1"/>
-    <col min="13" max="13" width="18.7109375" customWidth="1"/>
-    <col min="14" max="14" width="18.7109375" customWidth="1"/>
-    <col min="15" max="15" width="30.7109375" customWidth="1"/>
-    <col min="16" max="16" width="26.7109375" customWidth="1"/>
-    <col min="17" max="17" width="29.7109375" customWidth="1"/>
-    <col min="18" max="18" width="32.7109375" customWidth="1"/>
-    <col min="19" max="19" width="18.7109375" customWidth="1"/>
-    <col min="20" max="20" width="29.7109375" customWidth="1"/>
-    <col min="21" max="21" width="30.7109375" customWidth="1"/>
-    <col min="22" max="22" width="20.7109375" customWidth="1"/>
-    <col min="23" max="23" width="86.7109375" customWidth="1"/>
-    <col min="24" max="24" width="18.7109375" customWidth="1"/>
-    <col min="25" max="25" width="11.7109375" customWidth="1"/>
-    <col min="26" max="26" width="20.7109375" customWidth="1"/>
-    <col min="27" max="27" width="14.7109375" customWidth="1"/>
-    <col min="28" max="28" width="14.7109375" customWidth="1"/>
-    <col min="29" max="29" width="20.7109375" customWidth="1"/>
-    <col min="30" max="30" width="19.7109375" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="50.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="85.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="18.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="16.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="65.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="16.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="17.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="17.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="29.7109375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="25.7109375" style="1" customWidth="1"/>
+    <col min="17" max="17" width="28.7109375" style="1" customWidth="1"/>
+    <col min="18" max="18" width="31.7109375" style="1" customWidth="1"/>
+    <col min="19" max="19" width="17.7109375" style="1" customWidth="1"/>
+    <col min="20" max="20" width="28.7109375" style="1" customWidth="1"/>
+    <col min="21" max="21" width="29.7109375" style="1" customWidth="1"/>
+    <col min="22" max="22" width="19.7109375" style="1" customWidth="1"/>
+    <col min="23" max="23" width="85.7109375" style="1" customWidth="1"/>
+    <col min="24" max="24" width="17.7109375" style="1" customWidth="1"/>
+    <col min="25" max="25" width="10.7109375" style="1" customWidth="1"/>
+    <col min="26" max="26" width="19.7109375" style="1" customWidth="1"/>
+    <col min="27" max="27" width="13.7109375" style="1" customWidth="1"/>
+    <col min="28" max="28" width="13.7109375" style="1" customWidth="1"/>
+    <col min="29" max="29" width="19.7109375" style="1" customWidth="1"/>
+    <col min="30" max="30" width="18.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AA1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AB1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AC1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AD1" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:30">
-      <c r="A2">
-        <v>2208796954</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="A2" s="1">
+        <v>2208796954</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H2" s="2" t="s">
+      <c r="G2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="1">
         <v>1</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="N2">
+      <c r="N2" s="1">
         <v>1000</v>
       </c>
-      <c r="O2" t="s">
+      <c r="O2" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="P2">
+      <c r="P2" s="1">
         <v>9964</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="Q2" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="R2" t="s">
+      <c r="R2" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="S2">
+      <c r="S2" s="1">
         <v>333</v>
       </c>
-      <c r="U2" t="s">
-        <v>33</v>
-      </c>
-      <c r="V2" t="s">
-        <v>33</v>
-      </c>
-      <c r="W2" s="2" t="s">
+      <c r="U2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="W2" s="3" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:30">
-      <c r="A3">
-        <v>2208796954</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="A3" s="1">
+        <v>2208796954</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="N3">
+      <c r="N3" s="1">
         <v>1000</v>
       </c>
-      <c r="O3" t="s">
+      <c r="O3" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="P3">
+      <c r="P3" s="1">
         <v>9827</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="Q3" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="R3" t="s">
+      <c r="R3" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="S3">
+      <c r="S3" s="1">
         <v>333</v>
       </c>
-      <c r="U3" t="s">
-        <v>33</v>
-      </c>
-      <c r="V3" t="s">
-        <v>33</v>
-      </c>
-      <c r="W3" s="2" t="s">
+      <c r="U3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="W3" s="3" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:30">
-      <c r="A4">
-        <v>2208796954</v>
-      </c>
-      <c r="J4" t="s">
+      <c r="A4" s="1">
+        <v>2208796954</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L4" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="1">
         <v>1000</v>
       </c>
-      <c r="O4" t="s">
+      <c r="O4" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="P4">
+      <c r="P4" s="1">
         <v>9947</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="Q4" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="R4" t="s">
+      <c r="R4" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="S4">
+      <c r="S4" s="1">
         <v>333</v>
       </c>
-      <c r="U4" t="s">
-        <v>33</v>
-      </c>
-      <c r="V4" t="s">
-        <v>33</v>
-      </c>
-      <c r="W4" s="2" t="s">
+      <c r="U4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="W4" s="3" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:30">
-      <c r="A5">
-        <v>2208796954</v>
-      </c>
-      <c r="J5" t="s">
+      <c r="A5" s="1">
+        <v>2208796954</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K5" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="L5" t="s">
+      <c r="L5" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="1">
         <v>1000</v>
       </c>
-      <c r="O5" t="s">
+      <c r="O5" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="P5">
+      <c r="P5" s="1">
         <v>9992</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="Q5" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="R5" t="s">
+      <c r="R5" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="S5">
+      <c r="S5" s="1">
         <v>333</v>
       </c>
-      <c r="U5" t="s">
-        <v>33</v>
-      </c>
-      <c r="V5" t="s">
-        <v>33</v>
-      </c>
-      <c r="W5" s="2" t="s">
+      <c r="U5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="W5" s="3" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:30">
-      <c r="A6">
-        <v>2208796954</v>
-      </c>
-      <c r="J6" t="s">
+      <c r="A6" s="1">
+        <v>2208796954</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="K6" t="s">
+      <c r="K6" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="L6" t="s">
+      <c r="L6" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="N6">
+      <c r="N6" s="1">
         <v>1000</v>
       </c>
-      <c r="O6" t="s">
+      <c r="O6" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="P6">
+      <c r="P6" s="1">
         <v>9824</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="Q6" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="R6" t="s">
+      <c r="R6" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="S6">
+      <c r="S6" s="1">
         <v>333</v>
       </c>
-      <c r="U6" t="s">
-        <v>33</v>
-      </c>
-      <c r="V6" t="s">
-        <v>33</v>
-      </c>
-      <c r="W6" s="2" t="s">
+      <c r="U6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="W6" s="3" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:30">
-      <c r="A7">
-        <v>2208796954</v>
-      </c>
-      <c r="J7" t="s">
+      <c r="A7" s="1">
+        <v>2208796954</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K7" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="L7" t="s">
+      <c r="L7" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="N7">
+      <c r="N7" s="1">
         <v>1000</v>
       </c>
-      <c r="O7" t="s">
+      <c r="O7" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="P7">
+      <c r="P7" s="1">
         <v>9783</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="Q7" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="R7" t="s">
+      <c r="R7" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="S7">
+      <c r="S7" s="1">
         <v>333</v>
       </c>
-      <c r="U7" t="s">
-        <v>33</v>
-      </c>
-      <c r="V7" t="s">
-        <v>33</v>
-      </c>
-      <c r="W7" s="2" t="s">
+      <c r="U7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="W7" s="3" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:30">
-      <c r="A8">
-        <v>2208796954</v>
-      </c>
-      <c r="J8" t="s">
+      <c r="A8" s="1">
+        <v>2208796954</v>
+      </c>
+      <c r="J8" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="K8" t="s">
+      <c r="K8" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="L8" t="s">
+      <c r="L8" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="N8">
+      <c r="N8" s="1">
         <v>1000</v>
       </c>
-      <c r="O8" t="s">
+      <c r="O8" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="P8">
+      <c r="P8" s="1">
         <v>9641</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="Q8" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="R8" t="s">
+      <c r="R8" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="S8">
+      <c r="S8" s="1">
         <v>333</v>
       </c>
-      <c r="U8" t="s">
-        <v>33</v>
-      </c>
-      <c r="V8" t="s">
-        <v>33</v>
-      </c>
-      <c r="W8" s="2" t="s">
+      <c r="U8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="W8" s="3" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:30">
-      <c r="A9">
-        <v>2208796954</v>
-      </c>
-      <c r="J9" t="s">
+      <c r="A9" s="1">
+        <v>2208796954</v>
+      </c>
+      <c r="J9" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="K9" t="s">
+      <c r="K9" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="L9" t="s">
+      <c r="L9" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="N9">
+      <c r="N9" s="1">
         <v>1000</v>
       </c>
-      <c r="O9" t="s">
+      <c r="O9" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="P9">
+      <c r="P9" s="1">
         <v>9971</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="Q9" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="R9" t="s">
+      <c r="R9" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="S9">
+      <c r="S9" s="1">
         <v>333</v>
       </c>
-      <c r="U9" t="s">
-        <v>33</v>
-      </c>
-      <c r="V9" t="s">
-        <v>33</v>
-      </c>
-      <c r="W9" s="2" t="s">
+      <c r="U9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="W9" s="3" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:30">
-      <c r="A10">
-        <v>2208796954</v>
-      </c>
-      <c r="J10" t="s">
+      <c r="A10" s="1">
+        <v>2208796954</v>
+      </c>
+      <c r="J10" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="K10" t="s">
+      <c r="K10" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="L10" t="s">
+      <c r="L10" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="N10">
+      <c r="N10" s="1">
         <v>1000</v>
       </c>
-      <c r="O10" t="s">
+      <c r="O10" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="P10">
+      <c r="P10" s="1">
         <v>9985</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="Q10" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="R10" t="s">
+      <c r="R10" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="S10">
+      <c r="S10" s="1">
         <v>333</v>
       </c>
-      <c r="U10" t="s">
-        <v>33</v>
-      </c>
-      <c r="V10" t="s">
-        <v>33</v>
-      </c>
-      <c r="W10" s="2" t="s">
+      <c r="U10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="W10" s="3" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:30">
-      <c r="A11">
-        <v>2208796954</v>
-      </c>
-      <c r="J11" t="s">
+      <c r="A11" s="1">
+        <v>2208796954</v>
+      </c>
+      <c r="J11" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="K11" t="s">
+      <c r="K11" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="L11" t="s">
+      <c r="L11" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="N11">
+      <c r="N11" s="1">
         <v>1000</v>
       </c>
-      <c r="O11" t="s">
+      <c r="O11" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="P11">
+      <c r="P11" s="1">
         <v>9970</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="Q11" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="R11" t="s">
+      <c r="R11" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="S11">
+      <c r="S11" s="1">
         <v>333</v>
       </c>
-      <c r="U11" t="s">
-        <v>33</v>
-      </c>
-      <c r="V11" t="s">
-        <v>33</v>
-      </c>
-      <c r="W11" s="2" t="s">
+      <c r="U11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="W11" s="3" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:30">
-      <c r="A12">
-        <v>2208796954</v>
-      </c>
-      <c r="J12" t="s">
+      <c r="A12" s="1">
+        <v>2208796954</v>
+      </c>
+      <c r="J12" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="K12" t="s">
+      <c r="K12" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="L12" t="s">
+      <c r="L12" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="N12">
+      <c r="N12" s="1">
         <v>1000</v>
       </c>
-      <c r="O12" t="s">
+      <c r="O12" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="P12">
+      <c r="P12" s="1">
         <v>9988</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="Q12" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="R12" t="s">
+      <c r="R12" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="S12">
+      <c r="S12" s="1">
         <v>333</v>
       </c>
-      <c r="U12" t="s">
-        <v>33</v>
-      </c>
-      <c r="V12" t="s">
-        <v>33</v>
-      </c>
-      <c r="W12" s="2" t="s">
+      <c r="U12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="W12" s="3" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:30">
-      <c r="A13">
-        <v>2208796954</v>
-      </c>
-      <c r="J13" t="s">
+      <c r="A13" s="1">
+        <v>2208796954</v>
+      </c>
+      <c r="J13" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="K13" t="s">
+      <c r="K13" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="L13" t="s">
+      <c r="L13" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="N13">
+      <c r="N13" s="1">
         <v>1000</v>
       </c>
-      <c r="O13" t="s">
+      <c r="O13" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="P13">
+      <c r="P13" s="1">
         <v>9857</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="Q13" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="R13" t="s">
+      <c r="R13" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="S13">
+      <c r="S13" s="1">
         <v>333</v>
       </c>
-      <c r="U13" t="s">
-        <v>33</v>
-      </c>
-      <c r="V13" t="s">
-        <v>33</v>
-      </c>
-      <c r="W13" s="2" t="s">
+      <c r="U13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="W13" s="3" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:30">
-      <c r="A14">
-        <v>2208796954</v>
-      </c>
-      <c r="J14" t="s">
+      <c r="A14" s="1">
+        <v>2208796954</v>
+      </c>
+      <c r="J14" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="K14" t="s">
+      <c r="K14" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="L14" t="s">
+      <c r="L14" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="N14">
+      <c r="N14" s="1">
         <v>1000</v>
       </c>
-      <c r="O14" t="s">
+      <c r="O14" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="P14">
+      <c r="P14" s="1">
         <v>9883</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="Q14" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="R14" t="s">
+      <c r="R14" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="S14">
+      <c r="S14" s="1">
         <v>333</v>
       </c>
-      <c r="U14" t="s">
-        <v>33</v>
-      </c>
-      <c r="V14" t="s">
-        <v>33</v>
-      </c>
-      <c r="W14" s="2" t="s">
+      <c r="U14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="W14" s="3" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:30">
-      <c r="A15">
-        <v>2208796954</v>
-      </c>
-      <c r="H15" s="2" t="s">
+      <c r="A15" s="1">
+        <v>2208796954</v>
+      </c>
+      <c r="H15" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:30">
-      <c r="A16">
-        <v>2208796954</v>
-      </c>
-      <c r="H16" s="2" t="s">
+      <c r="A16" s="1">
+        <v>2208796954</v>
+      </c>
+      <c r="H16" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17">
-        <v>2208796954</v>
-      </c>
-      <c r="H17" s="2" t="s">
+      <c r="A17" s="1">
+        <v>2208796954</v>
+      </c>
+      <c r="H17" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18">
-        <v>2208796954</v>
-      </c>
-      <c r="H18" s="2" t="s">
+      <c r="A18" s="1">
+        <v>2208796954</v>
+      </c>
+      <c r="H18" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="1">
         <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19">
-        <v>2208796954</v>
-      </c>
-      <c r="H19" s="2" t="s">
+      <c r="A19" s="1">
+        <v>2208796954</v>
+      </c>
+      <c r="H19" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="1">
         <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20">
-        <v>2208796954</v>
-      </c>
-      <c r="H20" s="2" t="s">
+      <c r="A20" s="1">
+        <v>2208796954</v>
+      </c>
+      <c r="H20" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="1">
         <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21">
-        <v>2208796954</v>
-      </c>
-      <c r="H21" s="2" t="s">
+      <c r="A21" s="1">
+        <v>2208796954</v>
+      </c>
+      <c r="H21" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="1">
         <v>8</v>
       </c>
     </row>

--- a/src/tools/csv/sku.xlsx
+++ b/src/tools/csv/sku.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1425" uniqueCount="268">
   <si>
     <t>Handle</t>
   </si>
@@ -106,15 +106,150 @@
     <t>Image Alt Text</t>
   </si>
   <si>
+    <t>2069824859</t>
+  </si>
+  <si>
+    <t>2044244689</t>
+  </si>
+  <si>
+    <t>2044268652</t>
+  </si>
+  <si>
+    <t>2044240537</t>
+  </si>
+  <si>
+    <t>2044262140</t>
+  </si>
+  <si>
+    <t>2044184838</t>
+  </si>
+  <si>
+    <t>2044180714</t>
+  </si>
+  <si>
+    <t>2044224147</t>
+  </si>
+  <si>
+    <t>2044126914</t>
+  </si>
+  <si>
+    <t>2044134666</t>
+  </si>
+  <si>
     <t>test mjy</t>
   </si>
   <si>
+    <t>test-mjy1</t>
+  </si>
+  <si>
+    <t>test-mjy2</t>
+  </si>
+  <si>
+    <t>黄氏/粉坛桃花酒500ml花果酒原浆酒水果酒低度酒水果酒贴牌批发</t>
+  </si>
+  <si>
+    <t>🔥นิยมสวมใส่🔥 ถุงเท้าข้อเว้า ถุงเท้าข้อสั้นผู้หญิง ถุงเท้าข้อสั้น ถุงเท้าแฟชั่น น่า</t>
+  </si>
+  <si>
+    <t>zeze小羊垫猫垫子睡觉用狗垫子宠物垫子地垫猫咪垫子睡垫棉垫</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>北欧创意树脂摆件</t>
+  </si>
+  <si>
+    <t>IBS656 กระเป๋าหญิง 2021 ใหม่กระเป๋าผ้าแคนวาสนักเรียนหญิงเวอร์ชั่นเกาหลีของ Messenger ins สาวป่ากระเป๋านักเรียนสะพายไหล่ขนาดใหญ่</t>
+  </si>
+  <si>
+    <t>IBS654 ฤดูใบไม้ร่วงและฤดูหนาวแฟชั่นใหม่กระเป๋าสะพายความจุขนาดใหญ่หญิง 2021 ใหม่น้ำสีแดงสดแฟชั่นกระเป๋าหิ้วแบบพกพา</t>
+  </si>
+  <si>
+    <t>IBS655 ความรู้สึกสูงของแฟชั่นกระเป๋าสะพายหญิง 2021 ฤดูใบไม้ร่วงและฤดูหนาวอารมณ์อินเทรนด์ใหม่ที่เรียบง่ายถุงใต้วงแขนถุงหิ้วสีแดงสุทธิ</t>
+  </si>
+  <si>
+    <t>IBS653 กระเป๋า 2021 ใหม่อินเทรนด์กระเป๋าสะพายขนาดใหญ่กระเป๋าผ้าใบผู้หญิงกระเป๋าแฟชั่นฤดูใบไม้ร่วงและฤดูหนาว 2021 กระเป๋าโท้ท</t>
+  </si>
+  <si>
+    <t>IBS652 กระเป๋าเล็กกระเป๋าหญิงใหม่ 2021 สุทธิดาราแฟชั่นป่าเลดี้สะพายกระเป๋าสะพายโซ่กระเป๋าอินน้ำฤดูใบไม้ร่วงและฤดูหนาว</t>
+  </si>
+  <si>
+    <t>IBS651 สุทธิสีแดงตารางย้อนยุคกระเป๋าเด็ก 2021 เทรนด์ใหม่กระเป๋าสะพายกระเป๋าสะพายข้างหญิงป่าอินกระเป๋าสี่เหลี่ยมขนาดเล็ก</t>
+  </si>
+  <si>
+    <t>IBS650 กระเป๋าพื้นผิวฤดูหนาวฤดูใบไม้ร่วงและฤดูหนาวกระเป๋าผู้หญิงยอดนิยมในปี 2021 กระเป๋าสะพายไหล่ข้างเดียวอินเทรนด์ใหม่สีแดงสุทธิแมสเซนเจอร์</t>
+  </si>
+  <si>
+    <t>IBS649 Summer small bag female bag 2021 new Trendy Korean fashion chain one shoulder Messenger bag ins wild small square bag</t>
+  </si>
+  <si>
+    <t>IBS648 กระเป๋าใบเล็กหญิง 2021 ใหม่อินเทรนด์สไตล์เกาหลีสไตล์ต่างประเทศแบบพกพากระเป๋าสะพายลายจระเข้แฟชั่นกระเป๋าทรงสี่เหลี่ยมใบเล็กทั้งหมด</t>
+  </si>
+  <si>
+    <t>IBS647 พื้นผิวสไตล์ตะวันตกกระเป๋าใบเล็กหญิง 2021 เทรนด์ใหม่ที่นิยมแฟชั่นเกาหลีกระเป๋าสะพายพับระดับไฮเอนด์กระเป๋ารักแร้</t>
+  </si>
+  <si>
     <t>&lt;p&gt;&lt;/p&gt;&lt;div class="media-wrap image-wrap"&gt;&lt;img class="media-wrap image-wrap" src="https://cbu01.alicdn.com/img/ibank/2020/560/392/20869293065_833961269.jpg"/&gt;&lt;/div&gt;&lt;div class="media-wrap image-wrap"&gt;&lt;img class="media-wrap image-wrap" src="https://cbu01.alicdn.com/img/ibank/2020/292/914/21027419292_833961269.jpg"/&gt;&lt;/div&gt;&lt;div class="media-wrap image-wrap"&gt;&lt;img class="media-wrap image-wrap" src="https://cbu01.alicdn.com/img/ibank/2020/949/662/20869266949_833961269.jpg"/&gt;&lt;/div&gt;&lt;div class="media-wrap image-wrap"&gt;&lt;img class="media-wrap image-wrap" src="https://cbu01.alicdn.com/img/ibank/2020/632/824/21027428236_833961269.jpg"/&gt;&lt;/div&gt;&lt;div class="media-wrap image-wrap"&gt;&lt;img class="media-wrap image-wrap" src="https://cbu01.alicdn.com/img/ibank/2020/025/482/20869284520_833961269.jpg"/&gt;&lt;/div&gt;&lt;div class="media-wrap image-wrap"&gt;&lt;img class="media-wrap image-wrap" src="https://cbu01.alicdn.com/img/ibank/2020/502/105/20944501205_833961269.jpg"/&gt;&lt;/div&gt;&lt;div class="media-wrap image-wrap"&gt;&lt;img class="media-wrap image-wrap" src="https://cbu01.alicdn.com/img/ibank/2020/812/405/20944504218_833961269.jpg"/&gt;&lt;/div&gt;&lt;div class="media-wrap image-wrap"&gt;&lt;img class="media-wrap image-wrap" src="https://cbu01.alicdn.com/img/ibank/2020/130/296/21649692031_833961269.jpg"/&gt;&lt;/div&gt;&lt;div class="media-wrap image-wrap"&gt;&lt;img class="media-wrap image-wrap" src="https://cbu01.alicdn.com/img/ibank/2020/783/235/21726532387_833961269.jpg"/&gt;&lt;/div&gt;&lt;div class="media-wrap image-wrap"&gt;&lt;img class="media-wrap image-wrap" src="https://cbu01.alicdn.com/img/ibank/2020/268/266/21649662862_833961269.jpg"/&gt;&lt;/div&gt;&lt;div class="media-wrap image-wrap"&gt;&lt;img class="media-wrap image-wrap" src="https://cbu01.alicdn.com/img/ibank/2020/821/596/21649695128_833961269.jpg"/&gt;&lt;/div&gt;&lt;div class="media-wrap image-wrap"&gt;&lt;img class="media-wrap image-wrap" src="https://cbu01.alicdn.com/img/ibank/2020/285/124/21814421582_833961269.jpg"/&gt;&lt;/div&gt;&lt;div class="media-wrap image-wrap"&gt;&lt;img class="media-wrap image-wrap" src="https://cbu01.alicdn.com/img/ibank/2020/100/445/21726544001_833961269.jpg"/&gt;&lt;/div&gt;&lt;div class="media-wrap image-wrap"&gt;&lt;img class="media-wrap image-wrap" src="https://cbu01.alicdn.com/img/ibank/2020/943/535/21726535349_833961269.jpg"/&gt;&lt;/div&gt;&lt;div class="media-wrap image-wrap"&gt;&lt;img class="media-wrap image-wrap" src="https://cbu01.alicdn.com/img/ibank/2020/463/634/21814436364_833961269.jpg"/&gt;&lt;/div&gt;&lt;p&gt;&lt;/p&gt;</t>
   </si>
   <si>
+    <t>&lt;p&gt;&lt;/p&gt;&lt;div class="media-wrap image-wrap"&gt;&lt;img class="media-wrap image-wrap" src="https://cbu01.alicdn.com/img/ibank/2019/737/744/12745447737_2007401168.jpg"/&gt;&lt;/div&gt;&lt;div class="media-wrap image-wrap"&gt;&lt;img class="media-wrap image-wrap" src="https://cbu01.alicdn.com/img/ibank/2019/963/984/12708489369_2007401168.jpg"/&gt;&lt;/div&gt;&lt;div class="media-wrap image-wrap"&gt;&lt;img class="media-wrap image-wrap" src="https://cbu01.alicdn.com/img/ibank/2019/727/084/12785480727_2007401168.jpg"/&gt;&lt;/div&gt;&lt;div class="media-wrap image-wrap"&gt;&lt;img class="media-wrap image-wrap" src="https://cbu01.alicdn.com/img/ibank/2019/486/054/12745450684_2007401168.jpg"/&gt;&lt;/div&gt;&lt;div class="media-wrap image-wrap"&gt;&lt;img class="media-wrap image-wrap" src="https://cbu01.alicdn.com/img/ibank/2019/110/774/12745477011_2007401168.jpg"/&gt;&lt;/div&gt;&lt;div class="media-wrap image-wrap"&gt;&lt;img class="media-wrap image-wrap" src="https://cbu01.alicdn.com/img/ibank/2019/035/264/12745462530_2007401168.jpg"/&gt;&lt;/div&gt;&lt;div class="media-wrap image-wrap"&gt;&lt;img class="media-wrap image-wrap" src="https://cbu01.alicdn.com/img/ibank/2019/338/654/12708456833_2007401168.jpg"/&gt;&lt;/div&gt;&lt;div class="media-wrap image-wrap"&gt;&lt;img class="media-wrap image-wrap" src="https://cbu01.alicdn.com/img/ibank/2019/046/354/12745453640_2007401168.jpg"/&gt;&lt;/div&gt;&lt;div class="media-wrap image-wrap"&gt;&lt;img class="media-wrap image-wrap" src="https://cbu01.alicdn.com/img/ibank/2019/801/294/12785492108_2007401168.jpg"/&gt;&lt;/div&gt;&lt;div class="media-wrap image-wrap"&gt;&lt;img class="media-wrap image-wrap" src="https://cbu01.alicdn.com/img/ibank/2019/587/474/12785474785_2007401168.jpg"/&gt;&lt;/div&gt;&lt;div class="media-wrap image-wrap"&gt;&lt;img class="media-wrap image-wrap" src="https://cbu01.alicdn.com/img/ibank/2019/878/864/12708468878_2007401168.jpg"/&gt;&lt;/div&gt;&lt;div class="media-wrap image-wrap"&gt;&lt;img class="media-wrap image-wrap" src="https://cbu01.alicdn.com/img/ibank/2019/798/264/12708462897_2007401168.jpg"/&gt;&lt;/div&gt;&lt;div class="media-wrap image-wrap"&gt;&lt;img class="media-wrap image-wrap" src="https://cbu01.alicdn.com/img/ibank/2019/715/984/12785489517_2007401168.jpg"/&gt;&lt;/div&gt;&lt;div class="media-wrap image-wrap"&gt;&lt;img class="media-wrap image-wrap" src="https://cbu01.alicdn.com/img/ibank/2019/232/474/12745474232_2007401168.jpg"/&gt;&lt;/div&gt;&lt;div class="media-wrap image-wrap"&gt;&lt;img class="media-wrap image-wrap" src="https://cbu01.alicdn.com/img/ibank/2019/015/864/12745468510_2007401168.jpg"/&gt;&lt;/div&gt;&lt;div class="media-wrap image-wrap"&gt;&lt;img class="media-wrap image-wrap" src="https://cbu01.alicdn.com/img/ibank/2019/169/444/12745444961_2007401168.jpg"/&gt;&lt;/div&gt;&lt;div class="media-wrap image-wrap"&gt;&lt;img class="media-wrap image-wrap" src="https://cbu01.alicdn.com/img/ibank/2019/472/594/12785495274_2007401168.jpg"/&gt;&lt;/div&gt;&lt;div class="media-wrap image-wrap"&gt;&lt;img class="media-wrap image-wrap" src="https://cbu01.alicdn.com/img/ibank/2019/010/015/12785510010_2007401168.jpg"/&gt;&lt;/div&gt;&lt;div class="media-wrap image-wrap"&gt;&lt;img class="media-wrap image-wrap" src="https://cbu01.alicdn.com/img/ibank/2019/945/592/12707295549_2007401168.jpg"/&gt;&lt;/div&gt;&lt;div class="media-wrap image-wrap"&gt;&lt;img class="media-wrap image-wrap" src="https://cbu01.alicdn.com/img/ibank/2019/107/934/12744439701_2007401168.jpg"/&gt;&lt;/div&gt;&lt;div class="media-wrap image-wrap"&gt;&lt;img class="media-wrap image-wrap" src="https://cbu01.alicdn.com/img/ibank/2019/564/703/12707307465_2007401168.jpg"/&gt;&lt;/div&gt;&lt;div class="media-wrap image-wrap"&gt;&lt;img class="media-wrap image-wrap" src="https://cbu01.alicdn.com/img/ibank/2019/291/454/12744454192_2007401168.jpg"/&gt;&lt;/div&gt;&lt;div class="media-wrap image-wrap"&gt;&lt;img class="media-wrap image-wrap" src="https://cbu01.alicdn.com/img/ibank/2019/585/544/12744445585_2007401168.jpg"/&gt;&lt;/div&gt;&lt;div class="media-wrap image-wrap"&gt;&lt;img class="media-wrap image-wrap" src="https://cbu01.alicdn.com/img/ibank/2019/852/763/12784367258_2007401168.jpg"/&gt;&lt;/div&gt;&lt;div class="media-wrap image-wrap"&gt;&lt;img class="media-wrap image-wrap" src="https://cbu01.alicdn.com/img/ibank/2019/266/292/12707292662_2007401168.jpg"/&gt;&lt;/div&gt;&lt;div class="media-wrap image-wrap"&gt;&lt;img class="media-wrap image-wrap" src="https://cbu01.alicdn.com/img/ibank/2019/382/463/12784364283_2007401168.jpg"/&gt;&lt;/div&gt;&lt;div class="media-wrap image-wrap"&gt;&lt;img class="media-wrap image-wrap" src="https://cbu01.alicdn.com/img/ibank/2019/228/343/12784343822_2007401168.jpg"/&gt;&lt;/div&gt;&lt;div class="media-wrap image-wrap"&gt;&lt;img class="media-wrap image-wrap" src="https://cbu01.alicdn.com/img/ibank/2019/763/154/12744451367_2007401168.jpg"/&gt;&lt;/div&gt;&lt;div class="media-wrap image-wrap"&gt;&lt;img class="media-wrap image-wrap" src="https://cbu01.alicdn.com/img/ibank/2019/603/913/12707319306_2007401168.jpg"/&gt;&lt;/div&gt;&lt;div class="media-wrap image-wrap"&gt;&lt;img class="media-wrap image-wrap" src="https://cbu01.alicdn.com/img/ibank/2019/131/133/12707331131_2007401168.jpg"/&gt;&lt;/div&gt;&lt;div class="media-wrap image-wrap"&gt;&lt;img class="media-wrap image-wrap" src="https://cbu01.alicdn.com/img/ibank/2019/049/844/12744448940_2007401168.jpg"/&gt;&lt;/div&gt;&lt;div class="media-wrap image-wrap"&gt;&lt;img class="media-wrap image-wrap" src="https://cbu01.alicdn.com/img/ibank/2019/539/103/12707301935_2007401168.jpg"/&gt;&lt;/div&gt;&lt;div class="media-wrap image-wrap"&gt;&lt;img class="media-wrap image-wrap" src="https://cbu01.alicdn.com/img/ibank/2019/522/964/12744469225_2007401168.jpg"/&gt;&lt;/div&gt;&lt;div class="media-wrap image-wrap"&gt;&lt;img class="media-wrap image-wrap" src="https://cbu01.alicdn.com/img/ibank/2019/699/892/12707298996_2007401168.jpg"/&gt;&lt;/div&gt;&lt;div class="media-wrap image-wrap"&gt;&lt;img class="media-wrap image-wrap" src="https://cbu01.alicdn.com/img/ibank/2019/484/064/12744460484_2007401168.jpg"/&gt;&lt;/div&gt;&lt;div class="media-wrap image-wrap"&gt;&lt;img class="media-wrap image-wrap" src="https://cbu01.alicdn.com/img/ibank/2019/588/553/12784355885_2007401168.jpg"/&gt;&lt;/div&gt;&lt;div class="media-wrap image-wrap"&gt;&lt;img class="media-wrap image-wrap" src="https://cbu01.alicdn.com/img/ibank/2019/672/823/12707328276_2007401168.jpg"/&gt;&lt;/div&gt;&lt;div class="media-wrap image-wrap"&gt;&lt;img class="media-wrap image-wrap" src="https://cbu01.alicdn.com/img/ibank/2019/661/433/12707334166_2007401168.jpg"/&gt;&lt;/div&gt;&lt;div class="media-wrap image-wrap"&gt;&lt;img class="media-wrap image-wrap" src="https://cbu01.alicdn.com/img/ibank/2019/799/373/12784373997_2007401168.jpg"/&gt;&lt;/div&gt;&lt;div class="media-wrap image-wrap"&gt;&lt;img class="media-wrap image-wrap" src="https://cbu01.alicdn.com/img/ibank/2019/427/664/12744466724_2007401168.jpg"/&gt;&lt;/div&gt;&lt;div class="media-wrap image-wrap"&gt;&lt;img class="media-wrap image-wrap" src="https://cbu01.alicdn.com/img/ibank/2019/003/574/12744475300_2007401168.jpg"/&gt;&lt;/div&gt;&lt;div class="media-wrap image-wrap"&gt;&lt;img class="media-wrap image-wrap" src="https://cbu01.alicdn.com/img/ibank/2019/085/274/12744472580_2007401168.jpg"/&gt;&lt;/div&gt;&lt;div class="media-wrap image-wrap"&gt;&lt;img class="media-wrap image-wrap" src="https://cbu01.alicdn.com/img/ibank/2019/562/874/12744478265_2007401168.jpg"/&gt;&lt;/div&gt;&lt;div class="media-wrap image-wrap"&gt;&lt;img class="media-wrap image-wrap" src="https://cbu01.alicdn.com/img/ibank/2019/800/604/12784406008_2007401168.jpg"/&gt;&lt;/div&gt;&lt;div class="media-wrap image-wrap"&gt;&lt;img class="media-wrap image-wrap" src="https://cbu01.alicdn.com/img/ibank/2019/551/304/12784403155_2007401168.jpg"/&gt;&lt;/div&gt;&lt;div class="media-wrap image-wrap"&gt;&lt;img class="media-wrap image-wrap" src="https://cbu01.alicdn.com/img/ibank/2019/103/853/12707358301_2007401168.jpg"/&gt;&lt;/div&gt;&lt;div class="media-wrap image-wrap"&gt;&lt;img class="media-wrap image-wrap" src="https://cbu01.alicdn.com/img/ibank/2019/789/613/12707316987_2007401168.jpg"/&gt;&lt;/div&gt;&lt;div class="media-wrap image-wrap"&gt;&lt;img class="media-wrap image-wrap" src="https://cbu01.alicdn.com/img/ibank/2019/949/754/12744457949_2007401168.jpg"/&gt;&lt;/div&gt;&lt;p&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;/p&gt;&lt;div class="media-wrap image-wrap"&gt;&lt;img class="media-wrap image-wrap" src="https://cbu01.alicdn.com/img/ibank/2018/664/212/9002212466_833961269.jpg"/&gt;&lt;/div&gt;&lt;div class="media-wrap image-wrap"&gt;&lt;img class="media-wrap image-wrap" src="https://cbu01.alicdn.com/img/ibank/2018/405/302/9002203504_833961269.jpg"/&gt;&lt;/div&gt;&lt;div class="media-wrap image-wrap"&gt;&lt;img class="media-wrap image-wrap" src="https://cbu01.alicdn.com/img/ibank/2018/694/508/9019805496_833961269.jpg"/&gt;&lt;/div&gt;&lt;div class="media-wrap image-wrap"&gt;&lt;img class="media-wrap image-wrap" src="https://cbu01.alicdn.com/img/ibank/2018/929/187/9019781929_833961269.jpg"/&gt;&lt;/div&gt;&lt;div class="media-wrap image-wrap"&gt;&lt;img class="media-wrap image-wrap" src="https://cbu01.alicdn.com/img/ibank/2018/736/679/8981976637_833961269.jpg"/&gt;&lt;/div&gt;&lt;div class="media-wrap image-wrap"&gt;&lt;img class="media-wrap image-wrap" src="https://cbu01.alicdn.com/img/ibank/2018/556/379/8981973655_833961269.jpg"/&gt;&lt;/div&gt;&lt;div class="media-wrap image-wrap"&gt;&lt;img class="media-wrap image-wrap" src="https://cbu01.alicdn.com/img/ibank/2018/970/932/9002239079_833961269.jpg"/&gt;&lt;/div&gt;&lt;div class="media-wrap image-wrap"&gt;&lt;img class="media-wrap image-wrap" src="https://cbu01.alicdn.com/img/ibank/2018/369/671/9002176963_833961269.jpg"/&gt;&lt;/div&gt;&lt;div class="media-wrap image-wrap"&gt;&lt;img class="media-wrap image-wrap" src="https://cbu01.alicdn.com/img/ibank/2018/654/889/8981988456_833961269.jpg"/&gt;&lt;/div&gt;&lt;div class="media-wrap image-wrap"&gt;&lt;img class="media-wrap image-wrap" src="https://cbu01.alicdn.com/img/ibank/2018/494/902/9002209494_833961269.jpg"/&gt;&lt;/div&gt;&lt;div class="media-wrap image-wrap"&gt;&lt;img class="media-wrap image-wrap" src="https://cbu01.alicdn.com/img/ibank/2018/696/097/9019790696_833961269.jpg"/&gt;&lt;/div&gt;&lt;div class="media-wrap image-wrap"&gt;&lt;img class="media-wrap image-wrap" src="https://cbu01.alicdn.com/img/ibank/2018/903/118/9019811309_833961269.jpg"/&gt;&lt;/div&gt;&lt;div class="media-wrap image-wrap"&gt;&lt;img class="media-wrap image-wrap" src="https://cbu01.alicdn.com/img/ibank/2018/023/199/8981991320_833961269.jpg"/&gt;&lt;/div&gt;&lt;div class="media-wrap image-wrap"&gt;&lt;img class="media-wrap image-wrap" src="https://cbu01.alicdn.com/img/ibank/2018/777/787/9019787777_833961269.jpg"/&gt;&lt;/div&gt;&lt;div class="media-wrap image-wrap"&gt;&lt;img class="media-wrap image-wrap" src="https://cbu01.alicdn.com/img/ibank/2018/382/722/9002227283_833961269.jpg"/&gt;&lt;/div&gt;&lt;div class="media-wrap image-wrap"&gt;&lt;img class="media-wrap image-wrap" src="https://cbu01.alicdn.com/img/ibank/2018/331/332/9002233133_833961269.jpg"/&gt;&lt;/div&gt;&lt;div class="media-wrap image-wrap"&gt;&lt;img class="media-wrap image-wrap" src="https://cbu01.alicdn.com/img/ibank/2018/399/581/9002185993_833961269.jpg"/&gt;&lt;/div&gt;&lt;div class="media-wrap image-wrap"&gt;&lt;img class="media-wrap image-wrap" src="https://cbu01.alicdn.com/img/ibank/2018/255/002/9002200552_833961269.jpg"/&gt;&lt;/div&gt;&lt;div class="media-wrap image-wrap"&gt;&lt;img class="media-wrap image-wrap" src="https://cbu01.alicdn.com/img/ibank/2018/931/632/9002236139_833961269.jpg"/&gt;&lt;/div&gt;&lt;div class="media-wrap image-wrap"&gt;&lt;img class="media-wrap image-wrap" src="https://cbu01.alicdn.com/img/ibank/2018/314/491/9002194413_833961269.jpg"/&gt;&lt;/div&gt;&lt;p&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;/p&gt;&lt;div class="media-wrap image-wrap"&gt;&lt;img class="media-wrap image-wrap" src="https://cbu01.alicdn.com/img/ibank/2020/024/670/14494076420_1952125768.jpg"/&gt;&lt;/div&gt;&lt;div class="media-wrap image-wrap"&gt;&lt;img class="media-wrap image-wrap" src="https://cbu01.alicdn.com/img/ibank/2020/193/280/14494082391_1952125768.jpg"/&gt;&lt;/div&gt;&lt;div class="media-wrap image-wrap"&gt;&lt;img class="media-wrap image-wrap" src="https://cbu01.alicdn.com/img/ibank/2020/023/756/14403657320_1952125768.jpg"/&gt;&lt;/div&gt;&lt;div class="media-wrap image-wrap"&gt;&lt;img class="media-wrap image-wrap" src="https://cbu01.alicdn.com/img/ibank/2020/689/460/14494064986_1952125768.jpg"/&gt;&lt;/div&gt;&lt;div class="media-wrap image-wrap"&gt;&lt;img class="media-wrap image-wrap" src="https://cbu01.alicdn.com/img/ibank/2020/573/066/14403660375_1952125768.jpg"/&gt;&lt;/div&gt;&lt;div class="media-wrap image-wrap"&gt;&lt;img class="media-wrap image-wrap" src="https://cbu01.alicdn.com/img/ibank/2020/177/949/14442949771_1952125768.jpg"/&gt;&lt;/div&gt;&lt;div class="media-wrap image-wrap"&gt;&lt;img class="media-wrap image-wrap" src="https://cbu01.alicdn.com/img/ibank/2020/129/246/14403642921_1952125768.jpg"/&gt;&lt;/div&gt;&lt;div class="media-wrap image-wrap"&gt;&lt;img class="media-wrap image-wrap" src="https://cbu01.alicdn.com/img/ibank/2020/106/259/14442952601_1952125768.jpg"/&gt;&lt;/div&gt;&lt;div class="media-wrap image-wrap"&gt;&lt;img class="media-wrap image-wrap" src="https://cbu01.alicdn.com/img/ibank/2020/000/170/14494071000_1952125768.jpg"/&gt;&lt;/div&gt;&lt;div class="media-wrap image-wrap"&gt;&lt;img class="media-wrap image-wrap" src="https://cbu01.alicdn.com/img/ibank/2020/340/979/14442979043_1952125768.jpg"/&gt;&lt;/div&gt;&lt;div class="media-wrap image-wrap"&gt;&lt;img class="media-wrap image-wrap" src="https://cbu01.alicdn.com/img/ibank/2020/063/300/14443003360_1952125768.jpg"/&gt;&lt;/div&gt;&lt;div class="media-wrap image-wrap"&gt;&lt;img class="media-wrap image-wrap" src="https://cbu01.alicdn.com/img/ibank/2020/923/600/14443006329_1952125768.jpg"/&gt;&lt;/div&gt;&lt;div class="media-wrap image-wrap"&gt;&lt;img class="media-wrap image-wrap" src="https://cbu01.alicdn.com/img/ibank/2020/569/379/14442973965_1952125768.jpg"/&gt;&lt;/div&gt;&lt;p&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;/p&gt;&lt;div class="media-wrap image-wrap"&gt;&lt;img class="media-wrap image-wrap" src="https://cbu01.alicdn.com/img/ibank/O1CN01I2CZvy1MIju7gIThN_!!2494311412-0-cib.jpg"/&gt;&lt;/div&gt;&lt;div class="media-wrap image-wrap"&gt;&lt;img class="media-wrap image-wrap" src="https://cbu01.alicdn.com/img/ibank/2020/785/474/19927474587_950636634.jpg"/&gt;&lt;/div&gt;&lt;div class="media-wrap image-wrap"&gt;&lt;img class="media-wrap image-wrap" src="https://cbu01.alicdn.com/img/ibank/2020/160/105/19927501061_950636634.jpg"/&gt;&lt;/div&gt;&lt;div class="media-wrap image-wrap"&gt;&lt;img class="media-wrap image-wrap" src="https://cbu01.alicdn.com/img/ibank/2020/086/125/20007521680_950636634.jpg"/&gt;&lt;/div&gt;&lt;div class="media-wrap image-wrap"&gt;&lt;img class="media-wrap image-wrap" src="https://cbu01.alicdn.com/img/ibank/2020/106/174/19927471601_950636634.jpg"/&gt;&lt;/div&gt;&lt;div class="media-wrap image-wrap"&gt;&lt;img class="media-wrap image-wrap" src="https://cbu01.alicdn.com/img/ibank/2020/512/635/20007536215_950636634.jpg"/&gt;&lt;/div&gt;&lt;div class="media-wrap image-wrap"&gt;&lt;img class="media-wrap image-wrap" src="https://cbu01.alicdn.com/img/ibank/2020/753/684/19927486357_950636634.jpg"/&gt;&lt;/div&gt;&lt;div class="media-wrap image-wrap"&gt;&lt;img class="media-wrap image-wrap" src="https://cbu01.alicdn.com/img/ibank/2020/476/157/19853751674_950636634.jpg"/&gt;&lt;/div&gt;&lt;div class="media-wrap image-wrap"&gt;&lt;img class="media-wrap image-wrap" src="https://cbu01.alicdn.com/img/ibank/2020/423/294/19927492324_950636634.jpg"/&gt;&lt;/div&gt;&lt;div class="media-wrap image-wrap"&gt;&lt;img class="media-wrap image-wrap" src="https://cbu01.alicdn.com/img/ibank/2020/609/564/19927465906_950636634.jpg"/&gt;&lt;/div&gt;&lt;div class="media-wrap image-wrap"&gt;&lt;img class="media-wrap image-wrap" src="https://cbu01.alicdn.com/img/ibank/2020/869/954/19927459968_950636634.jpg"/&gt;&lt;/div&gt;&lt;div class="media-wrap image-wrap"&gt;&lt;img class="media-wrap image-wrap" src="https://cbu01.alicdn.com/img/ibank/2020/033/594/19927495330_950636634.jpg"/&gt;&lt;/div&gt;&lt;div class="media-wrap image-wrap"&gt;&lt;img class="media-wrap image-wrap" src="https://cbu01.alicdn.com/img/ibank/2020/078/774/19927477870_950636634.jpg"/&gt;&lt;/div&gt;&lt;div class="media-wrap image-wrap"&gt;&lt;img class="media-wrap image-wrap" src="https://cbu01.alicdn.com/img/ibank/2020/270/667/19853766072_950636634.jpg"/&gt;&lt;/div&gt;&lt;div class="media-wrap image-wrap"&gt;&lt;img class="media-wrap image-wrap" src="https://cbu01.alicdn.com/img/ibank/2020/865/335/20007533568_950636634.jpg"/&gt;&lt;/div&gt;&lt;div class="media-wrap image-wrap"&gt;&lt;img class="media-wrap image-wrap" src="https://cbu01.alicdn.com/img/ibank/2020/844/067/19853760448_950636634.jpg"/&gt;&lt;/div&gt;&lt;div class="media-wrap image-wrap"&gt;&lt;img class="media-wrap image-wrap" src="https://cbu01.alicdn.com/img/ibank/2020/030/455/20007554030_950636634.jpg"/&gt;&lt;/div&gt;&lt;div class="media-wrap image-wrap"&gt;&lt;img class="media-wrap image-wrap" src="https://cbu01.alicdn.com/img/ibank/2020/180/155/20007551081_950636634.jpg"/&gt;&lt;/div&gt;&lt;div class="media-wrap image-wrap"&gt;&lt;img class="media-wrap image-wrap" src="https://cbu01.alicdn.com/img/ibank/2020/316/984/19927489613_950636634.jpg"/&gt;&lt;/div&gt;&lt;div class="media-wrap image-wrap"&gt;&lt;img class="media-wrap image-wrap" src="https://cbu01.alicdn.com/img/ibank/2020/415/935/20007539514_950636634.jpg"/&gt;&lt;/div&gt;&lt;div class="media-wrap image-wrap"&gt;&lt;img class="media-wrap image-wrap" src="https://cbu01.alicdn.com/img/ibank/2020/648/084/19927480846_950636634.jpg"/&gt;&lt;/div&gt;&lt;div class="media-wrap image-wrap"&gt;&lt;img class="media-wrap image-wrap" src="https://cbu01.alicdn.com/img/ibank/2020/130/225/19927522031_950636634.jpg"/&gt;&lt;/div&gt;&lt;div class="media-wrap image-wrap"&gt;&lt;img class="media-wrap image-wrap" src="https://cbu01.alicdn.com/img/ibank/2020/613/705/19927507316_950636634.jpg"/&gt;&lt;/div&gt;&lt;div class="media-wrap image-wrap"&gt;&lt;img class="media-wrap image-wrap" src="https://cbu01.alicdn.com/img/ibank/2020/168/384/19927483861_950636634.jpg"/&gt;&lt;/div&gt;&lt;div class="media-wrap image-wrap"&gt;&lt;img class="media-wrap image-wrap" src="https://cbu01.alicdn.com/img/ibank/2020/725/545/20007545527_950636634.jpg"/&gt;&lt;/div&gt;&lt;div class="media-wrap image-wrap"&gt;&lt;img class="media-wrap image-wrap" src="https://cbu01.alicdn.com/img/ibank/2020/426/405/19927504624_950636634.jpg"/&gt;&lt;/div&gt;&lt;div class="media-wrap image-wrap"&gt;&lt;img class="media-wrap image-wrap" src="https://cbu01.alicdn.com/img/ibank/2020/043/577/19853775340_950636634.jpg"/&gt;&lt;/div&gt;&lt;div class="media-wrap image-wrap"&gt;&lt;img class="media-wrap image-wrap" src="https://cbu01.alicdn.com/img/ibank/2020/793/845/20007548397_950636634.jpg"/&gt;&lt;/div&gt;&lt;div class="media-wrap image-wrap"&gt;&lt;img class="media-wrap image-wrap" src="https://cbu01.alicdn.com/img/ibank/2020/108/594/19927495801_950636634.jpg"/&gt;&lt;/div&gt;&lt;div class="media-wrap image-wrap"&gt;&lt;img class="media-wrap image-wrap" src="https://cbu01.alicdn.com/img/ibank/2020/918/935/20007539819_950636634.jpg"/&gt;&lt;/div&gt;&lt;div class="media-wrap image-wrap"&gt;&lt;img class="media-wrap image-wrap" src="https://cbu01.alicdn.com/img/ibank/2020/281/135/19927531182_950636634.jpg"/&gt;&lt;/div&gt;&lt;div class="media-wrap image-wrap"&gt;&lt;img class="media-wrap image-wrap" src="https://cbu01.alicdn.com/img/ibank/2020/613/225/19927522316_950636634.jpg"/&gt;&lt;/div&gt;&lt;div class="media-wrap image-wrap"&gt;&lt;img class="media-wrap image-wrap" src="https://cbu01.alicdn.com/img/ibank/2020/926/705/19927507629_950636634.jpg"/&gt;&lt;/div&gt;&lt;div class="media-wrap image-wrap"&gt;&lt;img class="media-wrap image-wrap" src="https://cbu01.alicdn.com/img/ibank/2020/591/097/19853790195_950636634.jpg"/&gt;&lt;/div&gt;&lt;div class="media-wrap image-wrap"&gt;&lt;img class="media-wrap image-wrap" src="https://cbu01.alicdn.com/img/ibank/2020/878/545/20007545878_950636634.jpg"/&gt;&lt;/div&gt;&lt;div class="media-wrap image-wrap"&gt;&lt;img class="media-wrap image-wrap" src="https://cbu01.alicdn.com/img/ibank/2019/108/239/13125932801_950636634.jpg"/&gt;&lt;/div&gt;&lt;div class="media-wrap image-wrap"&gt;&lt;img class="media-wrap image-wrap" src="https://cbu01.alicdn.com/img/ibank/2019/731/220/13046022137_950636634.jpg"/&gt;&lt;/div&gt;&lt;div class="media-wrap image-wrap"&gt;&lt;img class="media-wrap image-wrap" src="https://cbu01.alicdn.com/img/ibank/2019/673/269/13125962376_950636634.jpg"/&gt;&lt;/div&gt;&lt;div class="media-wrap image-wrap"&gt;&lt;img class="media-wrap image-wrap" src="https://cbu01.alicdn.com/img/ibank/2019/938/096/13084690839_950636634.jpg"/&gt;&lt;/div&gt;&lt;div class="media-wrap image-wrap"&gt;&lt;img class="media-wrap image-wrap" src="https://cbu01.alicdn.com/img/ibank/2019/042/179/13125971240_950636634.jpg"/&gt;&lt;/div&gt;&lt;div class="media-wrap image-wrap"&gt;&lt;img class="media-wrap image-wrap" src="https://cbu01.alicdn.com/img/ibank/2019/380/807/13084708083_950636634.jpg"/&gt;&lt;/div&gt;&lt;div class="media-wrap image-wrap"&gt;&lt;img class="media-wrap image-wrap" src="https://cbu01.alicdn.com/img/ibank/2019/304/569/13125965403_950636634.jpg"/&gt;&lt;/div&gt;&lt;div class="media-wrap image-wrap"&gt;&lt;img class="media-wrap image-wrap" src="https://cbu01.alicdn.com/img/ibank/2019/634/959/13125959436_950636634.jpg"/&gt;&lt;/div&gt;&lt;div class="media-wrap image-wrap"&gt;&lt;img class="media-wrap image-wrap" src="https://cbu01.alicdn.com/img/ibank/2019/996/100/13046001699_950636634.jpg"/&gt;&lt;/div&gt;&lt;div class="media-wrap image-wrap"&gt;&lt;img class="media-wrap image-wrap" src="https://cbu01.alicdn.com/img/ibank/2019/764/207/13084702467_950636634.jpg"/&gt;&lt;/div&gt;&lt;div class="media-wrap image-wrap"&gt;&lt;img class="media-wrap image-wrap" src="https://cbu01.alicdn.com/img/ibank/2019/842/479/13125974248_950636634.jpg"/&gt;&lt;/div&gt;&lt;div class="media-wrap image-wrap"&gt;&lt;img class="media-wrap image-wrap" src="https://cbu01.alicdn.com/img/ibank/2019/110/779/13125977011_950636634.jpg"/&gt;&lt;/div&gt;&lt;div class="media-wrap image-wrap"&gt;&lt;img class="media-wrap image-wrap" src="https://cbu01.alicdn.com/img/ibank/2019/336/996/13084699633_950636634.jpg"/&gt;&lt;/div&gt;&lt;div class="media-wrap image-wrap"&gt;&lt;img class="media-wrap image-wrap" src="https://cbu01.alicdn.com/img/ibank/2019/288/539/13125935882_950636634.jpg"/&gt;&lt;/div&gt;&lt;div class="media-wrap image-wrap"&gt;&lt;img class="media-wrap image-wrap" src="https://cbu01.alicdn.com/img/ibank/2019/511/117/13084711115_950636634.jpg"/&gt;&lt;/div&gt;&lt;div class="media-wrap image-wrap"&gt;&lt;img class="media-wrap image-wrap" src="https://cbu01.alicdn.com/img/ibank/2019/418/899/13045998814_950636634.jpg"/&gt;&lt;/div&gt;&lt;div class="media-wrap image-wrap"&gt;&lt;img class="media-wrap image-wrap" src="https://cbu01.alicdn.com/img/ibank/2019/194/659/13125956491_950636634.jpg"/&gt;&lt;/div&gt;&lt;div class="media-wrap image-wrap"&gt;&lt;img class="media-wrap image-wrap" src="https://cbu01.alicdn.com/img/ibank/2019/376/749/13125947673_950636634.jpg"/&gt;&lt;/div&gt;&lt;div class="media-wrap image-wrap"&gt;&lt;img class="media-wrap image-wrap" src="https://cbu01.alicdn.com/img/ibank/2019/499/599/13045995994_950636634.jpg"/&gt;&lt;/div&gt;&lt;div class="media-wrap image-wrap"&gt;&lt;img class="media-wrap image-wrap" src="https://cbu01.alicdn.com/img/ibank/2019/994/869/13125968499_950636634.jpg"/&gt;&lt;/div&gt;&lt;p&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;/p&gt;&lt;div class="media-wrap image-wrap"&gt;&lt;img class="media-wrap image-wrap" src="https://cbu01.alicdn.com/img/ibank/O1CN01Jt0Bpo2940K0ZsOEu_!!6000000008013-0-cib.jpg"/&gt;&lt;/div&gt;&lt;div class="media-wrap image-wrap"&gt;&lt;img class="media-wrap image-wrap" src="https://cbu01.alicdn.com/img/ibank/O1CN01hR2C4O1g6BLbKQyP1_!!6000000004092-0-cib.jpg"/&gt;&lt;/div&gt;&lt;div class="media-wrap image-wrap"&gt;&lt;img class="media-wrap image-wrap" src="https://cbu01.alicdn.com/img/ibank/O1CN01dShhhT1lP1itEbHiH_!!6000000004810-0-cib.jpg"/&gt;&lt;/div&gt;&lt;div class="media-wrap image-wrap"&gt;&lt;img class="media-wrap image-wrap" src="https://cbu01.alicdn.com/img/ibank/O1CN01sDHpz51slebE17zot_!!6000000005807-0-cib.jpg"/&gt;&lt;/div&gt;&lt;div class="media-wrap image-wrap"&gt;&lt;img class="media-wrap image-wrap" src="https://cbu01.alicdn.com/img/ibank/O1CN01Tn23ZY1evMNABt4ms_!!6000000003933-0-cib.jpg"/&gt;&lt;/div&gt;&lt;div class="media-wrap image-wrap"&gt;&lt;img class="media-wrap image-wrap" src="https://cbu01.alicdn.com/img/ibank/O1CN01W2jbUM1yAuWKAw6Lw_!!6000000006539-0-cib.jpg"/&gt;&lt;/div&gt;&lt;div class="media-wrap image-wrap"&gt;&lt;img class="media-wrap image-wrap" src="https://cbu01.alicdn.com/img/ibank/O1CN01ePLlwZ1iXK2u5Q4iI_!!6000000004422-0-cib.jpg"/&gt;&lt;/div&gt;&lt;div class="media-wrap image-wrap"&gt;&lt;img class="media-wrap image-wrap" src="https://cbu01.alicdn.com/img/ibank/O1CN01jqqBru25Hxvm20V16_!!6000000007502-0-cib.jpg"/&gt;&lt;/div&gt;&lt;p&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;/p&gt;&lt;div class="media-wrap image-wrap"&gt;&lt;img class="media-wrap image-wrap" src="https://cbu01.alicdn.com/img/ibank/2019/880/866/13002668088_1645473898.jpg"/&gt;&lt;/div&gt;&lt;div class="media-wrap image-wrap"&gt;&lt;img class="media-wrap image-wrap" src="https://cbu01.alicdn.com/img/ibank/2020/585/442/13181244585_1645473898.jpg"/&gt;&lt;/div&gt;&lt;div class="media-wrap image-wrap"&gt;&lt;img class="media-wrap image-wrap" src="https://cbu01.alicdn.com/img/ibank/2019/436/805/11987508634_1645473898.jpg"/&gt;&lt;/div&gt;&lt;div class="media-wrap image-wrap"&gt;&lt;img class="media-wrap image-wrap" src="https://cbu01.alicdn.com/img/ibank/2019/843/058/12923850348_1645473898.jpg"/&gt;&lt;/div&gt;&lt;div class="media-wrap image-wrap"&gt;&lt;img class="media-wrap image-wrap" src="https://cbu01.alicdn.com/img/ibank/2019/542/828/12961828245_1645473898.jpg"/&gt;&lt;/div&gt;&lt;div class="media-wrap image-wrap"&gt;&lt;img class="media-wrap image-wrap" src="https://cbu01.alicdn.com/img/ibank/2019/257/524/12057425752_1645473898.jpg"/&gt;&lt;/div&gt;&lt;div class="media-wrap image-wrap"&gt;&lt;img class="media-wrap image-wrap" src="https://cbu01.alicdn.com/img/ibank/2019/219/614/12057416912_1645473898.jpg"/&gt;&lt;/div&gt;&lt;div class="media-wrap image-wrap"&gt;&lt;img class="media-wrap image-wrap" src="https://cbu01.alicdn.com/img/ibank/2019/563/044/12057440365_1645473898.jpg"/&gt;&lt;/div&gt;&lt;div class="media-wrap image-wrap"&gt;&lt;img class="media-wrap image-wrap" src="https://cbu01.alicdn.com/img/ibank/2019/040/554/12057455040_1645473898.jpg"/&gt;&lt;/div&gt;&lt;div class="media-wrap image-wrap"&gt;&lt;img class="media-wrap image-wrap" src="https://cbu01.alicdn.com/img/ibank/2019/167/994/11987499761_1645473898.jpg"/&gt;&lt;/div&gt;&lt;div class="media-wrap image-wrap"&gt;&lt;img class="media-wrap image-wrap" src="https://cbu01.alicdn.com/img/ibank/2019/741/944/12057449147_1645473898.jpg"/&gt;&lt;/div&gt;&lt;div class="media-wrap image-wrap"&gt;&lt;img class="media-wrap image-wrap" src="https://cbu01.alicdn.com/img/ibank/2019/884/134/12057431488_1645473898.jpg"/&gt;&lt;/div&gt;&lt;div class="media-wrap image-wrap"&gt;&lt;img class="media-wrap image-wrap" src="https://cbu01.alicdn.com/img/ibank/2019/454/479/12023974454_1645473898.jpg"/&gt;&lt;/div&gt;&lt;div class="media-wrap image-wrap"&gt;&lt;img class="media-wrap image-wrap" src="https://cbu01.alicdn.com/img/ibank/2019/371/599/12023995173_1645473898.jpg"/&gt;&lt;/div&gt;&lt;div class="media-wrap image-wrap"&gt;&lt;img class="media-wrap image-wrap" src="https://cbu01.alicdn.com/img/ibank/2019/002/299/12023992200_1645473898.jpg"/&gt;&lt;/div&gt;&lt;div class="media-wrap image-wrap"&gt;&lt;img class="media-wrap image-wrap" src="https://cbu01.alicdn.com/img/ibank/2019/790/625/11987526097_1645473898.jpg"/&gt;&lt;/div&gt;&lt;div class="media-wrap image-wrap"&gt;&lt;img class="media-wrap image-wrap" src="https://cbu01.alicdn.com/img/ibank/2019/996/505/11987505699_1645473898.jpg"/&gt;&lt;/div&gt;&lt;div class="media-wrap image-wrap"&gt;&lt;img class="media-wrap image-wrap" src="https://cbu01.alicdn.com/img/ibank/2019/358/094/11987490853_1645473898.jpg"/&gt;&lt;/div&gt;&lt;div class="media-wrap image-wrap"&gt;&lt;img class="media-wrap image-wrap" src="https://cbu01.alicdn.com/img/ibank/2019/567/656/13002656765_1645473898.jpg"/&gt;&lt;/div&gt;&lt;div class="media-wrap image-wrap"&gt;&lt;img class="media-wrap image-wrap" src="https://cbu01.alicdn.com/img/ibank/2020/083/866/13843668380_1645473898.jpg"/&gt;&lt;/div&gt;&lt;div class="media-wrap image-wrap"&gt;&lt;img class="media-wrap image-wrap" src="https://cbu01.alicdn.com/img/ibank/2020/617/656/13843656716_1645473898.jpg"/&gt;&lt;/div&gt;&lt;div class="media-wrap image-wrap"&gt;&lt;img class="media-wrap image-wrap" src="https://cbu01.alicdn.com/img/ibank/2020/024/176/13843671420_1645473898.jpg"/&gt;&lt;/div&gt;&lt;div class="media-wrap image-wrap"&gt;&lt;img class="media-wrap image-wrap" src="https://cbu01.alicdn.com/img/ibank/2020/237/429/13879924732_1645473898.jpg"/&gt;&lt;/div&gt;&lt;div class="media-wrap image-wrap"&gt;&lt;img class="media-wrap image-wrap" src="https://cbu01.alicdn.com/img/ibank/2020/239/356/13843653932_1645473898.jpg"/&gt;&lt;/div&gt;&lt;div class="media-wrap image-wrap"&gt;&lt;img class="media-wrap image-wrap" src="https://cbu01.alicdn.com/img/ibank/2020/109/229/13927922901_1645473898.jpg"/&gt;&lt;/div&gt;&lt;p&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;img src="https://my-live-01.slatic.net/p/928ea6c5b37293974cb44bc787deb23d.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/f72953bf3bca613b0a86f0016d8f49e6.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/37b8ed0a487fba3951b054ec75fa8ea8.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/b672c8657bd431f6ece843710081a830.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/168c4ec97a31f6d0c21d711a747bd178.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/e311861c0dfd0f2277b1c70352f9fe3b.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/919200efd28e0fabd3cd988c7ab040a3.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/650990dad443a8b9d2eb94a193dcdae6.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/b92fc208c950cb161ce00b9e755ab97a.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/1b2c7ad7e209d076ec82f76c6a8a5ad7.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/55d4a7fe62e63123ea29fc8a817d8012.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/716ec31b6e8fba2e892ae7feacf0258b.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/f0b44359ec160b6bf71e5e9f6e8049e8.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/dddf6e6301d34c7d2159c17ff52ebab7.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/8e17bbe97293b830c318b84281898550.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/f8fa76ec21d596aa4440a51603924cf3.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/e960d6e66d0c8ab56a0f703ff7edc14d.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/4a97e225fb51447f8e5e62428566b0f7.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/0c9e643431fcf4bd9d91b58da0de040a.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/7514d538781437033babd8ca275453b2.jpg"/&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;img src="https://my-live-01.slatic.net/p/e89dcb5a8d197c32339adde88fe9a601.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/29a9f0aa3bfb5eb1f49b94b298329567.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/d37fe6b65208cb3086fba4e443cf6323.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/d0896f37b4998f084593cbcdf96e89b7.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/5d4d115237d2812074e08b5839e7b090.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/f592b1f6b06375fbe2aad074ab73451f.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/54e73cb00614c778113a512210c389d7.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/df15246a4e63e2965e6547560e95eceb.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/84af8fcfb78e138d5fe773388c5214dc.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/73ba1b2527681369ab2a594599c53335.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/74d1eb03e652332b65e4f54d22aa2d17.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/555fcaaa80c4cfd12a83d0429642abbb.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/e716739512c20332709cbce6b79f71b4.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/747a4c76ca8513a66f29e349a7f9621e.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/9c9ce3df004abe0ab57f2733824c6c2a.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/e321c6618c89244f153c81f68db026a1.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/3064cf0cd98726fb80eafdb24230e2a6.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/3311c93933750a065f8960b238ec6300.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/e89dcb5a8d197c32339adde88fe9a601.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/e5c10da3d1867cedd5054a38c454dc08.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/e5c10da3d1867cedd5054a38c454dc08.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/e89dcb5a8d197c32339adde88fe9a601.jpg"/&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;img src="https://my-live-01.slatic.net/p/78e3a2204fa71d410fbb7aeb65209838.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/db4825d901e28728b8eeca12ebce67a3.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/31d46116e175fe9d7e79f491464e11eb.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/96f2bae17523fc968386609e1dfaf767.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/30a7373735c16cfca72736911a988c06.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/ea2409eb330837843844b830257c8209.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/1782150fa3547cb916ed1074444d4a90.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/bf4a71ebb0f6f6d6a7c03839e33f77bc.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/207238f1dc0f6d6e0480dcdd3d70d0d6.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/28a65f5b2d8bce0683d1210017d3e2cd.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/e7953172b1b5368eae2e2f18afd292eb.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/530a4d1b4d8ce13da09e1a06f1bad3fd.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/4ef584c8dd36f6bc31824a30892feab7.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/78e3a2204fa71d410fbb7aeb65209838.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/f2ff58c1e2a2b3f8a89275404677952f.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/52445f525e7be33aa237d719e44d2958.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/9c99daa0c084b635328b20a5771561af.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/35a593dd5234e9074ffb74c75503ebdd.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/0a77f2b3fde65eb665677296485f269d.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/144398ad499e4df3a62afafaa5c3e3ca.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/e37fe19d66dfb64e2da3da215eb39af1.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/da9a9524bb8d5e3ff18e69bc87e070b3.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/5f596c7476bfb44d85b2436e3fca9798.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/b8c3c9155a4b22173c4e7ad45f710866.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/23a8dde61c36a870f66e5a1a9212f99b.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/3a2ca9a425ea460959496de92d9c6f7e.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/d24c17600397ef9506ffd9585ac2402d.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/204540b21ab874b9f83a7fb2fbc847f9.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/948d05466c1b9e84b095082ad0161ac0.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/64b0a091b28c0d3189d35326448e3a1d.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/9b5cc224c9d12f559befc275a18850fb.jpg"/&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;img src="https://img.alicdn.com/imgextra/i1/1102366600/O1CN01jfgayD1ycqf6PUttM_!!1102366600.jpg"/&gt;&lt;img src="https://img.alicdn.com/imgextra/i2/1102366600/O1CN015vvfrd1ycqf3FU8yZ_!!1102366600.jpg"/&gt;&lt;img src="https://img.alicdn.com/imgextra/i4/1102366600/O1CN01LYCv9m1ycqevIr4nI_!!1102366600.jpg"/&gt;&lt;img src="https://img.alicdn.com/imgextra/i2/1102366600/O1CN01yDUSya1ycqf4AC7Ev_!!1102366600.jpg"/&gt;&lt;img src="https://img.alicdn.com/imgextra/i1/1102366600/O1CN01UJzodR1ycqf64gZg9_!!1102366600.jpg"/&gt;&lt;img src="https://img.alicdn.com/imgextra/i3/1102366600/O1CN01MJ69Eu1ycqf7ti8pm_!!1102366600.jpg"/&gt;&lt;img src="https://img.alicdn.com/imgextra/i3/1102366600/O1CN014mKICO1ycqezxglnP_!!1102366600.jpg"/&gt;&lt;img src="https://img.alicdn.com/imgextra/i3/1102366600/O1CN019VZci81ycqezxhRMS_!!1102366600.jpg"/&gt;&lt;img src="https://img.alicdn.com/imgextra/i1/1102366600/O1CN011Ph6jN1ycqf95q6Ot_!!1102366600.jpg"/&gt;&lt;img src="https://img.alicdn.com/imgextra/i2/1102366600/O1CN01prg3n71ycqf3cUglh_!!1102366600.jpg"/&gt;&lt;img src="https://img.alicdn.com/imgextra/i3/1102366600/O1CN01nj4Evq1ycqf5PaxMK_!!1102366600.jpg"/&gt;&lt;img src="https://img.alicdn.com/imgextra/i4/1102366600/O1CN01KkUbYP1ycqf64kXCH_!!1102366600.jpg"/&gt;&lt;img src="https://img.alicdn.com/imgextra/i2/1102366600/O1CN01kRmxZF1ycqevIwiG3_!!1102366600.jpg"/&gt;&lt;img src="https://img.alicdn.com/imgextra/i4/1102366600/O1CN01bisq291ycqf5PctxT_!!1102366600.jpg"/&gt;&lt;img src="https://img.alicdn.com/imgextra/i3/1102366600/O1CN01EDfEnx1ycqevIvhtp_!!1102366600.jpg"/&gt;&lt;img src="https://img.alicdn.com/imgextra/i4/1102366600/O1CN01bqassg1ycqf6PZ84A_!!1102366600.jpg"/&gt;&lt;img src="https://img.alicdn.com/imgextra/i2/1102366600/O1CN01WUp1fU1ycqf8j1udo_!!1102366600.jpg"/&gt;&lt;img src="https://img.alicdn.com/imgextra/i3/1102366600/O1CN01gUU4Cg1ycqf4JlWRA_!!1102366600.jpg"/&gt;&lt;img src="https://img.alicdn.com/imgextra/i4/1102366600/O1CN012LrKVq1ycqf6PYOKq_!!1102366600.jpg"/&gt;&lt;img src="https://img.alicdn.com/imgextra/i4/1102366600/O1CN01n9nOAn1ycqf1VX2Z3_!!1102366600.jpg"/&gt;&lt;img src="https://img.alicdn.com/imgextra/i3/1102366600/O1CN01zpHEUV1ycqf3FTwjL_!!1102366600.jpg"/&gt;&lt;img src="https://img.alicdn.com/imgextra/i1/1102366600/O1CN01sYlXYV1ycqf5PbMJ7_!!1102366600.jpg"/&gt;&lt;img src="https://img.alicdn.com/imgextra/i4/1102366600/O1CN01jRriVY1ycqf64lGwF_!!1102366600.jpg"/&gt;&lt;img src="https://img.alicdn.com/imgextra/i1/1102366600/O1CN01yRFT431ycqf8j3rCe_!!1102366600.jpg"/&gt;&lt;img src="https://img.alicdn.com/imgextra/i4/1102366600/O1CN01BhYqAw1ycqf1VUDwu_!!1102366600.jpg"/&gt;&lt;img src="https://img.alicdn.com/imgextra/i4/1102366600/O1CN01gFYCzn1ycqf7GF5cl_!!1102366600.jpg"/&gt;&lt;img src="https://img.alicdn.com/imgextra/i1/1102366600/O1CN01YCZmyM1ycqf8j3zXk_!!1102366600.jpg"/&gt;&lt;img src="https://img.alicdn.com/imgextra/i2/1102366600/O1CN01zU89vR1ycqf3cVMN7_!!1102366600.jpg"/&gt;&lt;img src="https://img.alicdn.com/imgextra/i2/1102366600/O1CN01XSSKIj1ycqf7GGITM_!!1102366600.jpg"/&gt;&lt;img src="https://img.alicdn.com/imgextra/i3/1102366600/O1CN01eRWdAu1ycqezxgu8W_!!1102366600.jpg"/&gt;&lt;img src="https://img.alicdn.com/imgextra/i1/1102366600/O1CN01OHkawq1ycqf3WOJQV_!!1102366600.jpg"/&gt;&lt;img src="https://img.alicdn.com/imgextra/i2/1102366600/O1CN01rbJUcD1ycqf4JosLR_!!1102366600.jpg"/&gt;&lt;img src="https://img.alicdn.com/imgextra/i2/1102366600/O1CN01n8JuXX1ycqf3cXuOP_!!1102366600.jpg"/&gt;&lt;img src="https://img.alicdn.com/imgextra/i2/1102366600/O1CN01635AgD1ycqf4AHHcs_!!1102366600.jpg"/&gt;&lt;img src="https://img.alicdn.com/imgextra/i2/1102366600/O1CN01a3wdRj1ycqevIv2L8_!!1102366600.jpg"/&gt;&lt;img src="https://img.alicdn.com/imgextra/i3/1102366600/O1CN0143PjZR1ycqezxjFhO_!!1102366600.jpg"/&gt;&lt;img src="https://img.alicdn.com/imgextra/i4/1102366600/O1CN01ccIm3A1ycqf7GGy33_!!1102366600.jpg"/&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;img src="https://my-live-01.slatic.net/p/2ca2cbd185a3245b32d43cf8d68e06f5.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/6aea8d78919979efce5ddb0dd358fdfa.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/cf9f94fbd3315766fb567e4c24796f11.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/ab8e743ad9ad78d1ea17ad488c549759.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/0b1d339341f83510125409783d25a21c.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/a0e8a5396a3e0a69475b6b47f94dab57.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/95069339cf515986610a7923b037384a.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/16703a738001531602938e7854cfd986.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/e614b2048f2618d2f4ce30289e817fd2.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/86680e19210b419041e2b3397ea2183b.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/5104a5d9a8094722fd4fb0e28ff40069.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/b6d79cbe12d0b3b626277c0d17a2ce01.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/0adba9f34b08d60fb8368072268272d5.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/aa14f3c661833bda65acb4fdd4ed57f4.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/8bd67f1d5a9fbf8e0715e11485f8d206.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/8c6394cf0ee83d642e19b32be30bc6ff.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/c4d3a1063d7ed973764d78d4b793ffcd.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/ce615bfe3a8eef3ea1e53e11a34aa4a6.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/645f4689a669dfb9776c9e1be6429a01.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/0df39bd58b298ef8ddabc50811d45336.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/7d417785a013e1daad8ae5bcad34b9a7.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/2ca2cbd185a3245b32d43cf8d68e06f5.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/ad43db14244c670cfdfc15a234ae23c7.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/ad43db14244c670cfdfc15a234ae23c7.jpg"/&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;img src="https://my-live-01.slatic.net/p/6762364e1093aa873babe53de7c3041a.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/3a23670e331e75d959c3e03c5e29c1c7.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/2b6a8ae32e5908ff34096221ccd78b28.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/49d5967226dd3b5383f99b5a4770e204.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/7c6d27876e4485cf6eaeb62b16455c97.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/ac70a871fe58a9dc6f426793d8cf1340.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/7c054edfba321b5feff59c954cc03cfc.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/d13cd4ec144576454be35567f73b542a.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/83974d9dadc16f4c61869bcff9bef18a.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/fb0ffa2024e58153c766308616598d80.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/ee95d87606129b0120c7042025f82d1b.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/d1dac8837abe9c0ea65e94100d8a121b.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/5ef1c9a802a40e8aae3e1d61d12a735a.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/e64efab8f4d0990df9059cace1dae557.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/e82643ce7f9cad9132268862253c5b87.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/9232813116f07a45a9ed09652ea65be4.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/892b02d580af80205257f5dc198536bf.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/740d714e6c02cdeab2bed5a91586a008.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/f3cc6bfd9cde7e28833d1df7498b0a09.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/2cb3d9065a1288b9bc4c5b5b629c4c25.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/cc392a7a53dc2fdb496fba1c4edf8340.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/6762364e1093aa873babe53de7c3041a.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/27f76ef77a423318520e90dc55636d2e.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/27f76ef77a423318520e90dc55636d2e.jpg"/&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;img src="https://my-live-01.slatic.net/p/eea167b3da872de027446805fd5b4026.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/2c14fb64d75ac5e7f071012a4276ae31.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/81cbd91f0b41163d1255c12a36557a82.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/2c73ebc7f1f37f67d6788a6e812e2e5b.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/624c4cbed6dd8ee801ed761f00735275.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/fd26804f8d125be89ed2a3785be8b792.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/70c97bc7ff34c9ad86ffcb90d1f15535.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/7c726cc05393b2f59f290b7a6fd28368.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/c9a3ceba4cd79ed99238da4a710751e9.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/a7b4d072d86c428d799e1b08145f594d.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/e37455d1e40ebc13d193bdab01543344.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/534c2929d4a3103d22243a2355a38744.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/3935df19744ffc0a716401b3d6e85fde.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/a91dded5d85c098bf71b526ee6ee55b0.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/6f54c6994af0c3725d823511b37bc0e0.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/bdc6c25cc207b7fbe70f8a26a5ad3382.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/b57c2711f5375047f721c99981ee942a.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/716664b3c965b601b9dc2a9b92a84591.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/af918117a36a558e6e70f6355281eac7.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/1c25622afbebca56d704966b00e9ec77.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/c8252652bcbf682dca1140ea98456a90.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/f977f84805fe8e47a2dc521dbfad88e9.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/eea167b3da872de027446805fd5b4026.jpg"/&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p style="margin: 0;padding: 8.0px 0;white-space: pre-wrap;"&gt;&lt;/p&gt;&lt;div style="width: 100.0%;font-family: none;"&gt;&lt;img src="https://my-live-01.slatic.net/p/9ce3630ab700af12e933c16d7d6b3f73.jpg" style="width: 100.0%;font-family: none;display: block;"/&gt;&lt;/div&gt;&lt;div style="width: 100.0%;"&gt;&lt;img src="https://my-live-01.slatic.net/p/0417a0e1ca682629d4445442b422614c.jpg" style="width: 100.0%;display: block;"/&gt;&lt;/div&gt;&lt;div style="width: 100.0%;"&gt;&lt;img src="https://my-live-01.slatic.net/p/f91970fd4f027e01bab2585a2fb9750c.jpg" style="width: 100.0%;display: block;"/&gt;&lt;/div&gt;&lt;div style="width: 100.0%;"&gt;&lt;img src="https://my-live-01.slatic.net/p/b2bb2f94bcfa768319fdeb40c4f02d94.jpg" style="width: 100.0%;display: block;"/&gt;&lt;/div&gt;&lt;div style="width: 100.0%;"&gt;&lt;img src="https://my-live-01.slatic.net/p/9b76002b63523ffe99f95b0d6a18d684.jpg" style="width: 100.0%;display: block;"/&gt;&lt;/div&gt;&lt;div style="width: 100.0%;"&gt;&lt;img src="https://my-live-01.slatic.net/p/4ac7c8109ec0c21df86edf19030d6c22.jpg" style="width: 100.0%;display: block;"/&gt;&lt;/div&gt;&lt;div style="width: 100.0%;"&gt;&lt;img src="https://my-live-01.slatic.net/p/2d3b289e73d3c7b6debf3c5c58592096.jpg" style="width: 100.0%;display: block;"/&gt;&lt;/div&gt;&lt;div style="width: 100.0%;"&gt;&lt;img src="https://my-live-01.slatic.net/p/df4127b733fad6788134fa6b4fc01c49.jpg" style="width: 100.0%;display: block;"/&gt;&lt;/div&gt;&lt;div style="width: 100.0%;"&gt;&lt;img src="https://my-live-01.slatic.net/p/58104e057a9903915c61ea3545aa5f93.jpg" style="width: 100.0%;display: block;"/&gt;&lt;/div&gt;&lt;div style="width: 100.0%;"&gt;&lt;img src="https://my-live-01.slatic.net/p/43807752e503c4b7234ba939511b3b78.jpg" style="width: 100.0%;display: block;"/&gt;&lt;/div&gt;&lt;div style="width: 100.0%;"&gt;&lt;img src="https://my-live-01.slatic.net/p/d05fb4e01e08b5f8d8506577ea22cf62.jpg" style="width: 100.0%;display: block;"/&gt;&lt;/div&gt;&lt;div style="width: 100.0%;"&gt;&lt;img src="https://my-live-01.slatic.net/p/14054a0327f17b93d5e757752b319a5f.jpg" style="width: 100.0%;display: block;"/&gt;&lt;/div&gt;&lt;div style="width: 100.0%;"&gt;&lt;img src="https://my-live-01.slatic.net/p/39734b6966d293dec7f2150f89807085.jpg" style="width: 100.0%;display: block;"/&gt;&lt;/div&gt;&lt;div style="width: 100.0%;"&gt;&lt;img src="https://my-live-01.slatic.net/p/c88d60b79174b4d7a6b830120341f641.jpg" style="width: 100.0%;display: block;"/&gt;&lt;/div&gt;&lt;div style="width: 100.0%;"&gt;&lt;img src="https://my-live-01.slatic.net/p/968dd148c4e5fe0cb746b455afe29214.jpg" style="width: 100.0%;display: block;"/&gt;&lt;/div&gt;&lt;div style="width: 100.0%;"&gt;&lt;img src="https://my-live-01.slatic.net/p/ef010001b67f78be79d244fe759ca27c.jpg" style="width: 100.0%;display: block;"/&gt;&lt;/div&gt;&lt;div style="width: 100.0%;"&gt;&lt;img src="https://my-live-01.slatic.net/p/b5d6112942307e3304aa80c042afa559.jpg" style="width: 100.0%;display: block;"/&gt;&lt;/div&gt;&lt;div style="width: 100.0%;"&gt;&lt;img src="https://my-live-01.slatic.net/p/d703edf513ebe42c46a4584b26e1c03f.jpg" style="width: 100.0%;display: block;"/&gt;&lt;/div&gt;&lt;div style="width: 100.0%;"&gt;&lt;img src="https://my-live-01.slatic.net/p/ff1eb2790de43e5ba75acfcce92041eb.jpg" style="width: 100.0%;display: block;"/&gt;&lt;/div&gt;&lt;div style="width: 100.0%;"&gt;&lt;img src="https://my-live-01.slatic.net/p/1b088f3604fe91ef37ac012e2aa6cf23.jpg" style="width: 100.0%;display: block;"/&gt;&lt;/div&gt;&lt;div style="width: 100.0%;"&gt;&lt;img src="https://my-live-01.slatic.net/p/2aeb06e2330f94084a0bdd13e886a5b9.jpg" style="width: 100.0%;display: block;"/&gt;&lt;/div&gt;&lt;div style="width: 100.0%;"&gt;&lt;img src="https://my-live-01.slatic.net/p/e375fee23badd8b2726a2ea0c4034d3f.jpg" style="width: 100.0%;display: block;"/&gt;&lt;/div&gt;&lt;div style="width: 100.0%;"&gt;&lt;img src="https://my-live-01.slatic.net/p/8e4d1630b2902409b30fbb029a26e155.jpg" style="width: 100.0%;display: block;"/&gt;&lt;/div&gt;&lt;div style="width: 100.0%;"&gt;&lt;img src="https://my-live-01.slatic.net/p/edf86727c45d2deca38f9d4c435a8633.jpg" style="width: 100.0%;display: block;"/&gt;&lt;/div&gt;&lt;div style="width: 100.0%;"&gt;&lt;img src="https://my-live-01.slatic.net/p/235cbd7996586e262c1be23e2b976c12.jpg" style="width: 100.0%;display: block;"/&gt;&lt;/div&gt;&lt;div style="width: 100.0%;"&gt;&lt;img src="https://my-live-01.slatic.net/p/5e19bf6db5754482f00439be4cbdc16d.jpg" style="width: 100.0%;display: block;"/&gt;&lt;/div&gt;&lt;div style="width: 100.0%;"&gt;&lt;img src="https://my-live-01.slatic.net/p/13c28e5d56d673fe0bbbbbaa27b70916.jpg" style="width: 100.0%;display: block;"/&gt;&lt;/div&gt;&lt;div style="width: 100.0%;"&gt;&lt;img src="https://my-live-01.slatic.net/p/fce9d73630586ba6fb91cdd3e2758d31.jpg" style="width: 100.0%;display: block;"/&gt;&lt;/div&gt;&lt;div style="width: 100.0%;"&gt;&lt;img src="https://my-live-01.slatic.net/p/f886e4f685c6aec3349d1e3c6ccff1d9.jpg" style="width: 100.0%;display: block;"/&gt;&lt;/div&gt;&lt;div style="width: 100.0%;"&gt;&lt;img src="https://my-live-01.slatic.net/p/89b423810e6f7ee24df5eb5b7f48a499.jpg" style="width: 100.0%;display: block;"/&gt;&lt;/div&gt;&lt;div style="width: 100.0%;"&gt;&lt;img src="https://my-live-01.slatic.net/p/123f3579cab3a8fc6b7a7b17748b955b.jpg" style="width: 100.0%;display: block;"/&gt;&lt;/div&gt;&lt;div style="width: 100.0%;"&gt;&lt;img src="https://my-live-01.slatic.net/p/057eac0b25999339a0fc653835059169.jpg" style="width: 100.0%;display: block;"/&gt;&lt;/div&gt;&lt;div style="width: 100.0%;"&gt;&lt;img src="https://my-live-01.slatic.net/p/f186d7ac725ff87fff45e5d5fc4ab5c4.jpg" style="width: 100.0%;display: block;"/&gt;&lt;/div&gt;&lt;div style="width: 100.0%;"&gt;&lt;img src="https://my-live-01.slatic.net/p/0892ac537b4c83aedac8f38c442beac3.jpg" style="width: 100.0%;display: block;"/&gt;&lt;/div&gt;&lt;div style="width: 100.0%;"&gt;&lt;img src="https://my-live-01.slatic.net/p/69cbc5da6cd77372e03881f81cfd0dde.jpg" style="width: 100.0%;display: block;"/&gt;&lt;/div&gt;&lt;div style="width: 100.0%;"&gt;&lt;img src="https://my-live-01.slatic.net/p/27c35d5ec5467facf5cd3343171efa67.jpg" style="width: 100.0%;display: block;"/&gt;&lt;/div&gt;&lt;div style="width: 100.0%;"&gt;&lt;img src="https://my-live-01.slatic.net/p/57d0a5ab7d78dae70e14281c86463615.jpg" style="width: 100.0%;display: block;"/&gt;&lt;/div&gt;&lt;div style="width: 100.0%;"&gt;&lt;img src="https://my-live-01.slatic.net/p/8f7d173be65292c96d5d1dc04e930f60.jpg" style="width: 100.0%;display: block;"/&gt;&lt;/div&gt;&lt;div style="width: 100.0%;"&gt;&lt;img src="https://my-live-01.slatic.net/p/8c0021da81ba6fb1dcd3008fd5dcfd44.jpg" style="width: 100.0%;display: block;"/&gt;&lt;/div&gt;&lt;div style="width: 100.0%;"&gt;&lt;img src="https://my-live-01.slatic.net/p/da5979f4d07f9f6f35a844c755625db7.jpg" style="width: 100.0%;display: block;"/&gt;&lt;/div&gt;&lt;div style="width: 100.0%;"&gt;&lt;img src="https://my-live-01.slatic.net/p/344baa813746bdd3b5daf093eeb2c74e.jpg" style="width: 100.0%;display: block;"/&gt;&lt;/div&gt;&lt;div style="width: 100.0%;"&gt;&lt;img src="https://my-live-01.slatic.net/p/0e4548fce32f68808c105d08254b613b.jpg" style="width: 100.0%;display: block;"/&gt;&lt;/div&gt;&lt;div style="width: 100.0%;"&gt;&lt;img src="https://my-live-01.slatic.net/p/c69e165ea6ccd5887f79d776e33c84f9.jpg" style="width: 100.0%;display: block;"/&gt;&lt;/div&gt;&lt;div style="width: 100.0%;"&gt;&lt;img src="https://my-live-01.slatic.net/p/2f9f27ac1b2f4ea898cfbaa688bcc607.jpg" style="width: 100.0%;display: block;"/&gt;&lt;/div&gt;&lt;div style="width: 100.0%;"&gt;&lt;img src="https://my-live-01.slatic.net/p/318cf244c6ec7bc1f1e31e0240bd7d2a.jpg" style="width: 100.0%;display: block;"/&gt;&lt;/div&gt;&lt;div style="width: 100.0%;"&gt;&lt;img src="https://my-live-01.slatic.net/p/39b980a809b5015fa6f7a306a55c34b9.jpg" style="width: 100.0%;display: block;"/&gt;&lt;/div&gt;&lt;div style="width: 100.0%;"&gt;&lt;img src="https://my-live-01.slatic.net/p/c3526513fc15594b13d4dbbf84c5c72c.jpg" style="width: 100.0%;display: block;"/&gt;&lt;/div&gt;&lt;div style="width: 100.0%;"&gt;&lt;img src="https://my-live-01.slatic.net/p/6d4d39297cdfc91e34df031d37e33bc9.jpg" style="width: 100.0%;display: block;"/&gt;&lt;/div&gt;&lt;div style="width: 100.0%;"&gt;&lt;img src="https://my-live-01.slatic.net/p/f175a144fc4357988407d4f38d9ed5bc.jpg" style="width: 100.0%;display: block;"/&gt;&lt;/div&gt;&lt;div style="width: 100.0%;"&gt;&lt;img src="https://my-live-01.slatic.net/p/11a153f27911f21a2cfabd1467134dce.jpg" style="width: 100.0%;display: block;"/&gt;&lt;/div&gt;&lt;div style="width: 100.0%;"&gt;&lt;img src="https://my-live-01.slatic.net/p/d1fe75192ddbe8efda033e8f73471901.jpg" style="width: 100.0%;display: block;"/&gt;&lt;/div&gt;&lt;div style="width: 100.0%;"&gt;&lt;img src="https://my-live-01.slatic.net/p/4a506ded46701a84897cd76246bef8e8.jpg" style="width: 100.0%;display: block;"/&gt;&lt;/div&gt;&lt;div style="width: 100.0%;"&gt;&lt;img src="https://my-live-01.slatic.net/p/e3cc3dbdde1e8209de2cc5975f4c2588.jpg" style="width: 100.0%;display: block;"/&gt;&lt;/div&gt;&lt;div style="width: 100.0%;"&gt;&lt;img src="https://my-live-01.slatic.net/p/07e42ad8f4961b97981fb6f3415ae697.jpg" style="width: 100.0%;display: block;"/&gt;&lt;/div&gt;&lt;div style="width: 100.0%;"&gt;&lt;img src="https://my-live-01.slatic.net/p/7080506f4ae288f320a975ff6e24a654.jpg" style="width: 100.0%;display: block;"/&gt;&lt;/div&gt;&lt;div style="width: 100.0%;"&gt;&lt;img src="https://my-live-01.slatic.net/p/4bec667adcb57f51c7668c3cb93cedbb.jpg" style="width: 100.0%;display: block;"/&gt;&lt;/div&gt;&lt;div style="width: 100.0%;"&gt;&lt;img src="https://my-live-01.slatic.net/p/2d54f5f7c14e5a1564e83d3ab704593a.jpg" style="width: 100.0%;display: block;"/&gt;&lt;/div&gt;&lt;div style="width: 100.0%;"&gt;&lt;img src="https://my-live-01.slatic.net/p/c897782256f4237229613a2133331fc8.jpg" style="width: 100.0%;display: block;"/&gt;&lt;/div&gt;&lt;div style="width: 100.0%;"&gt;&lt;img src="https://my-live-01.slatic.net/p/670cb1fa4168519bd76e9b9c3fc8d755.jpg" style="width: 100.0%;display: block;"/&gt;&lt;/div&gt;&lt;div style="width: 100.0%;"&gt;&lt;img src="https://my-live-01.slatic.net/p/9baac7ed2b3ee3ec048e4801e44b40a6.jpg" style="width: 100.0%;display: block;"/&gt;&lt;/div&gt;&lt;p&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;img src="https://my-live-01.slatic.net/p/b915842779c301fad3c35b8cdefc1ab1.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/cbe050e0fae1dc53ca46529ede9ad214.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/c18bfb54f36af09f037ccbb4d84724c2.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/67c763753bf08865908015433b394a51.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/8b18809ba4b1728fe565aee2d51f17d2.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/ccb5828738ff3432ac09b82a7fb597e4.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/8a36b2117442ad24dd2b3e7f9b01a2a1.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/13f7e61b342ea4b9cf85f48fdd263f40.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/8859d07fb3ebddb959dcc6ce344e681a.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/774de60c6cce3d46e940760557531896.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/785666fd8df957f5458c54dbc339579c.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/f4e4f4edc4b43657c4ba0884edf141d0.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/7d930603db0cefc88c94edb5f362798c.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/119a7a138d61e22f2cf207cd4d300625.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/104b6ecf944b0367a2db4513131860d2.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/a12f882297295e6d76ffc7d2c1003d5c.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/9bcdb4c0a6425360bbbd07be10873449.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/2d524be0fb94e04335df4b4ea34bcc6b.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/210a97c2ed5f3bafa91b5b664aadf735.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/135ce323be376c8d8683d21e1b5951a1.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/9c4cf9f83f3e236b050833ede1575d61.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/195e47171589689a7b619378d8f0472c.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/1ade86375a5b62a5504cb6c08fba5b2a.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/374c50f688763641f5383f2068897154.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/9965417bcdeda2323d82b8b7b515df08.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/25ee672885160b3f5cabf383c9414951.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/cdb927234f64674c72562d212cccb7a9.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/14ab2f771a477ac4f6bc0e3dcb5301b9.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/6bb04204cdeba47b261ae3dce4c79220.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/dadcd1fe1e8edbeb2470ce2e752d555e.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/9ab52e50732d229fe49a58b7a2932f64.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/72aafce8bcfbb68b15c92be9b9604833.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/b5a44b0feed78f604dae8523885eb26f.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/0d6e6a93bd7281b667752995037a18ad.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/b8cfea9311494d8ce6702cbf02fcbad9.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/8d20b5e2b6821b3679d63095f765d12c.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/6399a7939d9a1d1f406715af5e2674c3.jpg"/&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;img src="https://my-live-01.slatic.net/p/d1d7272fdd7bec20dcd743f564068b5f.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/e04ef72c4b079b244b43902d58445cfb.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/7d097caa1162019bf74730e8aea137fa.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/102872950dbcc1472da2f04e272c0f86.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/c25061d5034657e3c2000c9ae780ee97.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/0db9bf3dbaf46aa540337b8948561ad3.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/8468a983c64c2ba35ed72bac55185660.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/81a3c41f07378186bf1394f548df1226.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/a6c4355c0c76c986931c7d3feaf53049.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/1d5bc32c3b9afdab3543bc959bd7327d.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/ac895e9a6df83a420f50f9f5f4b1048c.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/4f9a63cf2d94936a96b145ff597c01c8.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/cff6d288392137a7c85523f86d62dd50.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/c70be07b1564d7ff78994fca5931019a.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/1274656943eaeeb2b5a968f8ca785277.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/2f5a3fb29d446b51c2f140d55c50eb69.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/73e77a11e5769d1936a36dc68e313d93.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/936a1a9a6e0a9e2787bd1dedafabf516.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/e49a48dc509e813a3aeb4fe473e941f2.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/0e0b05d7df6aeee0e5c8f3ec5eb5fb68.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/be7da2416ae60ae2882dfb334401eb83.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/2d0fad2f305447029d410c8d46e9008b.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/4e3e6831d916cac9c0aa68348533325f.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/98928f8a962d3703377bb4f1f919ebb8.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/cd50d140ab4c93f27e1eeb05567d3697.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/dca5c990d402d0e67e958bb141fb064a.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/f1778fd4b4e644e93839f4c01401d0ee.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/d37382a00e9a5458bdc04286bba1fee0.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/fdad0b9f18a3ce007a1c7e3c76e56a45.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/d42fd4a1b67afb5a3a93564c6ccc6620.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/413c96a67e28ade6148831e89269af2a.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/43536579f2d70e2f52717f6d5b3815c2.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/484caf42c3137d1b1398ff460090d4b4.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/83b3653847ff36c82276e69beea84cb0.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/823cb6115b5cc1f13d758c5fffa0a70b.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/9d94ec1ffc0b3c77771e8693d29f9d9c.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/24706e38cebd14e48af8e1aea427ced3.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/79b86ecd419908a50998d547f954a95a.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/3c12e4e1a3ff2a09e1716983e770f0fd.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/598d0e216ebf2857c7db6c4dc425cfca.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/ab1cfe2d49e632fe16560921a2349999.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/d99fb9c677d6a1151494ca06849c16e8.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/3f5fb875cb4c59b097bbd50faaf1de87.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/234ace93654b7990aa77651bf917c4b2.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/03cf2dd2283d426acf71564b1ddfc179.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/29028286009227f2490a39dda4e40367.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/712795820593db2d3ddace77d4518239.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/b17733b332bbd13ecbe78753248a4093.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/6bf2403e0f330556ce755327489dc26f.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/8b94404463ebde0b9c0866b04f39f9d5.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/45aa1ac87e36f75e524fab706587cd07.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/fbdd8fe44e4fe55d76fcc2d1b48c754b.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/154388450497e9f119f9c43976b491e5.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/03176030d0fc7ecb072b885ff84ba4b0.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/a42d05a1d1c82183b95e1481bba639f7.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/50c7b11d7091bbff38419c35e7b9aaba.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/df71472d714062b59262175548925634.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/4ef88e049f862660f7539f2aceaa0042.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/79cc2409366c687a4cc2c59881960ad3.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/64cf6054cbe9778d5d83bd6772c7f0cd.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/be74143f8ab41adcb104fbfd32386efe.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/410c255ba88b229683002b4f5e8ca7d1.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/4864f3f0baf8f7309c4faa2ee03713f9.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/c76a6163d84c78f95e47fdfc25d3fea2.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/f7bac8bf5997a4a2253ff8ea7b1e93e5.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/6abb13103dca44a84f84382751c9b047.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/84d74ad4cfa6c41bca6bf521edb6c8e8.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/cc8bd10ee1959344208ccde57f887ae7.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/396e2e004f1119b7f76b7c15428c67da.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/84bb9eaf8d2e14c1dd9e13d6318db8df.jpg"/&gt;&lt;img src="https://my-live-01.slatic.net/p/878bb6893ef609e6e0704cec2b3dbbc4.jpg"/&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
     <t>No Brand</t>
   </si>
   <si>
+    <t>China OEM</t>
+  </si>
+  <si>
     <t>TRUE</t>
   </si>
   <si>
@@ -142,6 +277,363 @@
     <t>https://cbu01.alicdn.com/img/ibank/2020/285/124/21814421582_833961269.400x400.jpg</t>
   </si>
   <si>
+    <t>https://cbu01.alicdn.com/img/ibank/2019/309/958/11516859903_2007401168.400x400.jpg</t>
+  </si>
+  <si>
+    <t>https://cbu01.alicdn.com/img/ibank/2019/355/653/11583356553_2007401168.400x400.jpg</t>
+  </si>
+  <si>
+    <t>https://cbu01.alicdn.com/img/ibank/2019/077/400/11516004770_2007401168.400x400.jpg</t>
+  </si>
+  <si>
+    <t>https://cbu01.alicdn.com/img/ibank/2019/375/310/11516013573_2007401168.400x400.jpg</t>
+  </si>
+  <si>
+    <t>https://cbu01.alicdn.com/img/ibank/2019/353/176/11583671353_2007401168.400x400.jpg</t>
+  </si>
+  <si>
+    <t>http://seaseller.oss-cn-hangzhou.aliyuncs.com/erp/20210301/15204171230a45.jpg</t>
+  </si>
+  <si>
+    <t>https://cbu01.alicdn.com/img/ibank/2018/121/799/8981997121_833961269.400x400.jpg</t>
+  </si>
+  <si>
+    <t>https://cbu01.alicdn.com/img/ibank/2018/058/397/9019793850_833961269.400x400.jpg</t>
+  </si>
+  <si>
+    <t>https://cbu01.alicdn.com/img/ibank/2018/907/997/9019799709_833961269.400x400.jpg</t>
+  </si>
+  <si>
+    <t>https://cbu01.alicdn.com/img/ibank/2018/884/812/9002218488_833961269.400x400.jpg</t>
+  </si>
+  <si>
+    <t>https://cbu01.alicdn.com/img/ibank/2018/202/499/8981994202_833961269.400x400.jpg</t>
+  </si>
+  <si>
+    <t>https://cbu01.alicdn.com/img/ibank/2020/022/261/14000162220_1952125768.400x400.jpg</t>
+  </si>
+  <si>
+    <t>https://cbu01.alicdn.com/img/ibank/2020/354/951/14000159453_1952125768.400x400.jpg</t>
+  </si>
+  <si>
+    <t>https://cbu01.alicdn.com/img/ibank/2020/089/678/13951876980_1952125768.400x400.jpg</t>
+  </si>
+  <si>
+    <t>https://cbu01.alicdn.com/img/ibank/2020/020/081/14000180020_1952125768.400x400.jpg</t>
+  </si>
+  <si>
+    <t>https://cbu01.alicdn.com/img/ibank/2020/396/841/13999148693_1952125768.400x400.jpg</t>
+  </si>
+  <si>
+    <t>https://cbu01.alicdn.com/img/ibank/2020/876/061/13999160678_1952125768.400x400.jpg</t>
+  </si>
+  <si>
+    <t>https://cbu01.alicdn.com/img/ibank/2020/487/150/13914051784_1952125768.400x400.jpg</t>
+  </si>
+  <si>
+    <t>https://cbu01.alicdn.com/img/ibank/2019/772/239/13125932277_950636634.400x400.jpg</t>
+  </si>
+  <si>
+    <t>https://cbu01.alicdn.com/img/ibank/2019/178/119/13125911871_950636634.400x400.jpg</t>
+  </si>
+  <si>
+    <t>https://cbu01.alicdn.com/img/ibank/2019/865/329/13125923568_950636634.400x400.jpg</t>
+  </si>
+  <si>
+    <t>https://cbu01.alicdn.com/img/ibank/2019/401/310/13046013104_950636634.400x400.jpg</t>
+  </si>
+  <si>
+    <t>https://cbu01.alicdn.com/img/ibank/2019/814/839/13125938418_950636634.400x400.jpg</t>
+  </si>
+  <si>
+    <t>https://cbu01.alicdn.com/img/ibank/2020/002/334/19972433200_950636634.400x400.jpg</t>
+  </si>
+  <si>
+    <t>https://cbu01.alicdn.com/img/ibank/2020/726/904/19972409627_950636634.400x400.jpg</t>
+  </si>
+  <si>
+    <t>https://cbu01.alicdn.com/img/ibank/O1CN01hR2C4O1g6BLbKQyP1_!!6000000004092-0-cib.jpg</t>
+  </si>
+  <si>
+    <t>https://cbu01.alicdn.com/img/ibank/O1CN01dShhhT1lP1itEbHiH_!!6000000004810-0-cib.jpg</t>
+  </si>
+  <si>
+    <t>https://cbu01.alicdn.com/img/ibank/O1CN01sDHpz51slebE17zot_!!6000000005807-0-cib.jpg</t>
+  </si>
+  <si>
+    <t>https://cbu01.alicdn.com/img/ibank/O1CN01Tn23ZY1evMNABt4ms_!!6000000003933-0-cib.jpg</t>
+  </si>
+  <si>
+    <t>https://cbu01.alicdn.com/img/ibank/O1CN01XYgcjf1ROImRvYUmW_!!6000000002101-0-cib.400x400.jpg</t>
+  </si>
+  <si>
+    <t>https://cbu01.alicdn.com/img/ibank/O1CN01Y20KTM1Mkg3B7W0Wk_!!6000000001473-0-cib.400x400.jpg</t>
+  </si>
+  <si>
+    <t>https://cbu01.alicdn.com/img/ibank/O1CN01jqqBru25Hxvm20V16_!!6000000007502-0-cib.jpg</t>
+  </si>
+  <si>
+    <t>https://cbu01.alicdn.com/img/ibank/O1CN01zJfNMZ1fm1v2AlzrX_!!6000000004048-0-cib.400x400.jpg</t>
+  </si>
+  <si>
+    <t>https://cbu01.alicdn.com/img/ibank/2019/040/554/12057455040_1645473898.400x400.jpg</t>
+  </si>
+  <si>
+    <t>https://cbu01.alicdn.com/img/ibank/2019/461/275/12867572164_1645473898.400x400.jpg</t>
+  </si>
+  <si>
+    <t>https://cbu01.alicdn.com/img/ibank/2019/958/914/12057419859_1645473898.400x400.jpg</t>
+  </si>
+  <si>
+    <t>https://cbu01.alicdn.com/img/ibank/2019/163/275/13002572361_1645473898.400x400.jpg</t>
+  </si>
+  <si>
+    <t>https://cbu01.alicdn.com/img/ibank/2019/907/824/12057428709_1645473898.400x400.jpg</t>
+  </si>
+  <si>
+    <t>https://cbu01.alicdn.com/img/ibank/2019/508/694/11987496805_1645473898.400x400.jpg</t>
+  </si>
+  <si>
+    <t>https://cbu01.alicdn.com/img/ibank/2020/137/457/23211754731_323136429.400x400.jpg</t>
+  </si>
+  <si>
+    <t>https://cbu01.alicdn.com/img/ibank/2020/126/514/23308415621_323136429.400x400.jpg</t>
+  </si>
+  <si>
+    <t>https://cbu01.alicdn.com/img/ibank/2020/670/634/23308436076_323136429.400x400.jpg</t>
+  </si>
+  <si>
+    <t>https://cbu01.alicdn.com/img/ibank/2020/290/347/23125743092_323136429.400x400.jpg</t>
+  </si>
+  <si>
+    <t>https://cbu01.alicdn.com/img/ibank/2020/451/244/23308442154_323136429.400x400.jpg</t>
+  </si>
+  <si>
+    <t>https://cbu01.alicdn.com/img/ibank/2020/870/257/23125752078_323136429.400x400.jpg</t>
+  </si>
+  <si>
+    <t>https://cbu01.alicdn.com/img/ibank/2020/447/124/23308421744_323136429.400x400.jpg</t>
+  </si>
+  <si>
+    <t>https://cbu01.alicdn.com/img/ibank/2020/368/067/23211760863_323136429.400x400.jpg</t>
+  </si>
+  <si>
+    <t>https://cbu01.alicdn.com/img/ibank/2020/124/270/21876072421_1577751333.400x400.jpg</t>
+  </si>
+  <si>
+    <t>https://cbu01.alicdn.com/img/ibank/2020/992/858/22043858299_1577751333.400x400.jpg</t>
+  </si>
+  <si>
+    <t>https://cbu01.alicdn.com/img/ibank/2020/112/180/21876081211_1577751333.400x400.jpg</t>
+  </si>
+  <si>
+    <t>https://cbu01.alicdn.com/img/ibank/2020/846/750/21876057648_1577751333.400x400.jpg</t>
+  </si>
+  <si>
+    <t>https://cbu01.alicdn.com/img/ibank/2020/283/570/21876075382_1577751333.400x400.jpg</t>
+  </si>
+  <si>
+    <t>https://cbu01.alicdn.com/img/ibank/2020/016/960/21876069610_1577751333.400x400.jpg</t>
+  </si>
+  <si>
+    <t>https://cbu01.alicdn.com/img/ibank/2020/910/589/21954985019_1577751333.400x400.jpg</t>
+  </si>
+  <si>
+    <t>https://cbu01.alicdn.com/img/ibank/2020/128/379/21954973821_1577751333.400x400.jpg</t>
+  </si>
+  <si>
+    <t>https://cbu01.alicdn.com/img/ibank/2020/428/477/23414774824_1892269755.400x400.jpg</t>
+  </si>
+  <si>
+    <t>https://cbu01.alicdn.com/img/ibank/2020/029/737/23230737920_1892269755.400x400.jpg</t>
+  </si>
+  <si>
+    <t>https://cbu01.alicdn.com/img/ibank/2020/658/144/23317441856_1892269755.400x400.jpg</t>
+  </si>
+  <si>
+    <t>https://cbu01.alicdn.com/img/ibank/2020/732/597/23414795237_1892269755.400x400.jpg</t>
+  </si>
+  <si>
+    <t>https://cbu01.alicdn.com/img/ibank/2020/008/047/23230740800_1892269755.400x400.jpg</t>
+  </si>
+  <si>
+    <t>https://cbu01.alicdn.com/img/ibank/2020/783/054/23317450387_1892269755.400x400.jpg</t>
+  </si>
+  <si>
+    <t>https://cbu01.alicdn.com/img/ibank/2020/390/864/23317468093_1892269755.400x400.jpg</t>
+  </si>
+  <si>
+    <t>https://cbu01.alicdn.com/img/ibank/2020/972/297/23414792279_1892269755.400x400.jpg</t>
+  </si>
+  <si>
+    <t>https://cbu01.alicdn.com/img/ibank/2020/245/536/21637635542_203202848.400x400.jpg</t>
+  </si>
+  <si>
+    <t>https://cbu01.alicdn.com/img/ibank/2020/223/607/21714706322_203202848.400x400.jpg</t>
+  </si>
+  <si>
+    <t>https://cbu01.alicdn.com/img/ibank/2020/057/236/21637632750_203202848.400x400.jpg</t>
+  </si>
+  <si>
+    <t>https://cbu01.alicdn.com/img/ibank/2020/344/007/21714700443_203202848.400x400.jpg</t>
+  </si>
+  <si>
+    <t>https://cbu01.alicdn.com/img/ibank/2020/721/373/21802373127_203202848.400x400.jpg</t>
+  </si>
+  <si>
+    <t>https://cbu01.alicdn.com/img/ibank/2020/814/517/21714715418_203202848.400x400.jpg</t>
+  </si>
+  <si>
+    <t>https://cbu01.alicdn.com/img/ibank/2020/446/163/21802361644_203202848.400x400.jpg</t>
+  </si>
+  <si>
+    <t>https://cbu01.alicdn.com/img/ibank/2020/779/976/21714679977_203202848.400x400.jpg</t>
+  </si>
+  <si>
+    <t>https://cbu01.alicdn.com/img/ibank/O1CN01w1c0NA1RJip3CQsz7_!!3867142091-0-cib.400x400.jpg</t>
+  </si>
+  <si>
+    <t>https://cbu01.alicdn.com/img/ibank/O1CN01eiVbia1RJiozMRG7g_!!3867142091-0-cib.400x400.jpg</t>
+  </si>
+  <si>
+    <t>https://cbu01.alicdn.com/img/ibank/O1CN01tmx6ik1RJioqwAFoa_!!3867142091-0-cib.400x400.jpg</t>
+  </si>
+  <si>
+    <t>https://cbu01.alicdn.com/img/ibank/O1CN01fNCTbz1RJip5YXoRa_!!3867142091-0-cib.400x400.jpg</t>
+  </si>
+  <si>
+    <t>https://cbu01.alicdn.com/img/ibank/O1CN01O4z7mI1RJip0UCkBp_!!3867142091-0-cib.400x400.jpg</t>
+  </si>
+  <si>
+    <t>https://cbu01.alicdn.com/img/ibank/O1CN011aPTAg1RJip2IL7Yp_!!3867142091-0-cib.400x400.jpg</t>
+  </si>
+  <si>
+    <t>https://cbu01.alicdn.com/img/ibank/O1CN01ZYe7yi1RJip2fTRsj_!!3867142091-0-cib.400x400.jpg</t>
+  </si>
+  <si>
+    <t>https://cbu01.alicdn.com/img/ibank/O1CN01F0Y0CY1RJiozAK1rD_!!3867142091-0-cib.400x400.jpg</t>
+  </si>
+  <si>
+    <t>https://cbu01.alicdn.com/img/ibank/O1CN01APXwa71kmYS7dt2AB_!!6000000004726-0-cib.400x400.jpg</t>
+  </si>
+  <si>
+    <t>https://cbu01.alicdn.com/img/ibank/O1CN01zGOUDz1NddZxy4BJG_!!6000000001593-0-cib.400x400.jpg</t>
+  </si>
+  <si>
+    <t>https://cbu01.alicdn.com/img/ibank/O1CN01J2qfLi1VJxU6aaTnk_!!6000000002633-0-cib.400x400.jpg</t>
+  </si>
+  <si>
+    <t>https://cbu01.alicdn.com/img/ibank/O1CN016ZsDw51VO53IXm9Nk_!!6000000002642-0-cib.400x400.jpg</t>
+  </si>
+  <si>
+    <t>https://cbu01.alicdn.com/img/ibank/O1CN01pAIUI31Dn7cgHs2sC_!!6000000000260-0-cib.400x400.jpg</t>
+  </si>
+  <si>
+    <t>https://cbu01.alicdn.com/img/ibank/O1CN01Htusgf1PxRwb1GZ4D_!!6000000001907-0-cib.400x400.jpg</t>
+  </si>
+  <si>
+    <t>https://cbu01.alicdn.com/img/ibank/O1CN01rrnI4D1lYBdwPpr5H_!!6000000004830-0-cib.400x400.jpg</t>
+  </si>
+  <si>
+    <t>https://cbu01.alicdn.com/img/ibank/O1CN01oT6YvT1px9hPj0Obc_!!6000000005426-0-cib.400x400.jpg</t>
+  </si>
+  <si>
+    <t>https://cbu01.alicdn.com/img/ibank/2020/160/668/23578866061_2042580445.400x400.jpg</t>
+  </si>
+  <si>
+    <t>https://cbu01.alicdn.com/img/ibank/2020/874/521/23666125478_2042580445.400x400.jpg</t>
+  </si>
+  <si>
+    <t>https://cbu01.alicdn.com/img/ibank/2020/464/639/23765936464_2042580445.400x400.jpg</t>
+  </si>
+  <si>
+    <t>https://cbu01.alicdn.com/img/ibank/2020/542/129/23765921245_2042580445.400x400.jpg</t>
+  </si>
+  <si>
+    <t>https://cbu01.alicdn.com/img/ibank/2020/475/378/23765873574_2042580445.400x400.jpg</t>
+  </si>
+  <si>
+    <t>https://cbu01.alicdn.com/img/ibank/2020/972/288/23765882279_2042580445.400x400.jpg</t>
+  </si>
+  <si>
+    <t>https://cbu01.alicdn.com/img/ibank/2020/199/858/23765858991_2042580445.400x400.jpg</t>
+  </si>
+  <si>
+    <t>https://cbu01.alicdn.com/img/ibank/2020/564/041/23666140465_2042580445.400x400.jpg</t>
+  </si>
+  <si>
+    <t>https://cbu01.alicdn.com/img/ibank/2020/008/479/16154974800_1718159750.400x400.jpg</t>
+  </si>
+  <si>
+    <t>https://cbu01.alicdn.com/img/ibank/2020/587/345/16104543785_1718159750.400x400.jpg</t>
+  </si>
+  <si>
+    <t>https://cbu01.alicdn.com/img/ibank/2020/539/843/16220348935_1718159750.400x400.jpg</t>
+  </si>
+  <si>
+    <t>https://cbu01.alicdn.com/img/ibank/2020/234/663/16220366432_1718159750.400x400.jpg</t>
+  </si>
+  <si>
+    <t>https://cbu01.alicdn.com/img/ibank/2020/674/239/16154932476_1718159750.400x400.jpg</t>
+  </si>
+  <si>
+    <t>https://cbu01.alicdn.com/img/ibank/2020/581/749/16154947185_1718159750.400x400.jpg</t>
+  </si>
+  <si>
+    <t>https://cbu01.alicdn.com/img/ibank/2020/864/075/16104570468_1718159750.400x400.jpg</t>
+  </si>
+  <si>
+    <t>https://cbu01.alicdn.com/img/ibank/2020/124/273/16220372421_1718159750.400x400.jpg</t>
+  </si>
+  <si>
+    <t>https://cbu01.alicdn.com/img/ibank/2020/287/075/14783570782_1718159750.360x360.jpg</t>
+  </si>
+  <si>
+    <t>https://cbu01.alicdn.com/img/ibank/2020/046/375/14783573640_1718159750.360x360.jpg</t>
+  </si>
+  <si>
+    <t>https://cbu01.alicdn.com/img/ibank/2020/406/974/14689479604_1718159750.360x360.jpg</t>
+  </si>
+  <si>
+    <t>https://cbu01.alicdn.com/img/ibank/2020/669/506/14729605966_1718159750.360x360.jpg</t>
+  </si>
+  <si>
+    <t>https://cbu01.alicdn.com/img/ibank/2020/339/584/14689485933_1718159750.360x360.jpg</t>
+  </si>
+  <si>
+    <t>https://cbu01.alicdn.com/img/ibank/2020/647/215/14689512746_1718159750.360x360.jpg</t>
+  </si>
+  <si>
+    <t>https://cbu01.alicdn.com/img/ibank/2020/894/006/14783600498_1718159750.360x360.jpg</t>
+  </si>
+  <si>
+    <t>https://cbu01.alicdn.com/img/ibank/2020/885/284/14689482588_1718159750.360x360.jpg</t>
+  </si>
+  <si>
+    <t>https://cbu01.alicdn.com/img/ibank/2020/699/755/14791557996_1718159750.360x360.jpg</t>
+  </si>
+  <si>
+    <t>https://cbu01.alicdn.com/img/ibank/2020/062/836/14791638260_1718159750.360x360.jpg</t>
+  </si>
+  <si>
+    <t>https://cbu01.alicdn.com/img/ibank/2020/339/277/14832772933_1718159750.360x360.jpg</t>
+  </si>
+  <si>
+    <t>https://cbu01.alicdn.com/img/ibank/2020/521/604/14887406125_1718159750.360x360.jpg</t>
+  </si>
+  <si>
+    <t>https://cbu01.alicdn.com/img/ibank/2020/587/686/14791686785_1718159750.360x360.jpg</t>
+  </si>
+  <si>
+    <t>https://cbu01.alicdn.com/img/ibank/2020/307/724/14887427703_1718159750.360x360.jpg</t>
+  </si>
+  <si>
+    <t>https://cbu01.alicdn.com/img/ibank/2020/692/934/14887439296_1718159750.360x360.jpg</t>
+  </si>
+  <si>
+    <t>https://cbu01.alicdn.com/img/ibank/2020/774/493/14887394477_1718159750.360x360.jpg</t>
+  </si>
+  <si>
     <t>color</t>
   </si>
   <si>
@@ -184,6 +676,123 @@
     <t>shang xin Crocodile Marriage Bed with Its Bright Red Curtains</t>
   </si>
   <si>
+    <t>Powder Altar tao hua jiu 500ml</t>
+  </si>
+  <si>
+    <t>F bao yin Shoulder Black</t>
+  </si>
+  <si>
+    <t>F bao yin Shoulder Wine</t>
+  </si>
+  <si>
+    <t>F bao yin Shoulder Gray</t>
+  </si>
+  <si>
+    <t>F bao yin Shoulder Beige</t>
+  </si>
+  <si>
+    <t>F bao yin Shoulder Rubber Powder</t>
+  </si>
+  <si>
+    <t>nai cha se</t>
+  </si>
+  <si>
+    <t>Milk Color</t>
+  </si>
+  <si>
+    <t>Black</t>
+  </si>
+  <si>
+    <t>Off-White</t>
+  </si>
+  <si>
+    <t>Coffee</t>
+  </si>
+  <si>
+    <t>Pink</t>
+  </si>
+  <si>
+    <t>Yellow</t>
+  </si>
+  <si>
+    <t>Light Blue</t>
+  </si>
+  <si>
+    <t>The Queen a Paragraph</t>
+  </si>
+  <si>
+    <t>The King (B)</t>
+  </si>
+  <si>
+    <t>Black (Four Cute Badge and Dinosaur Pendant)</t>
+  </si>
+  <si>
+    <t>White (Four Cute Badge and Bear Pendant)</t>
+  </si>
+  <si>
+    <t>Black (Four Cute Badgeand Snapper Pendant)</t>
+  </si>
+  <si>
+    <t>White (No Badge and No Add-Ons)</t>
+  </si>
+  <si>
+    <t>Black (Four Cute Badge)</t>
+  </si>
+  <si>
+    <t>Black (Four Cute Badge and Frog Pendant)</t>
+  </si>
+  <si>
+    <t>White (Four Cute Badgeand Frog Pendant)</t>
+  </si>
+  <si>
+    <t>White (Four Cute Badge and Snapper Pendant)</t>
+  </si>
+  <si>
+    <t>Black (No Badge and No Add-Ons)</t>
+  </si>
+  <si>
+    <t>White (Four Lovely Badge and Dinosaur Pendant)</t>
+  </si>
+  <si>
+    <t>Black (Four Cute Badge and Bear Pendant)</t>
+  </si>
+  <si>
+    <t>White (Four Cute Badge)</t>
+  </si>
+  <si>
+    <t>Red</t>
+  </si>
+  <si>
+    <t>Brown</t>
+  </si>
+  <si>
+    <t>Black Versions b</t>
+  </si>
+  <si>
+    <t>Black Versions a</t>
+  </si>
+  <si>
+    <t>Blue</t>
+  </si>
+  <si>
+    <t>Khaki</t>
+  </si>
+  <si>
+    <t>White</t>
+  </si>
+  <si>
+    <t>Wine Red</t>
+  </si>
+  <si>
+    <t>Dark Brown</t>
+  </si>
+  <si>
+    <t>Light Brown</t>
+  </si>
+  <si>
+    <t>Green</t>
+  </si>
+  <si>
     <t>size</t>
   </si>
   <si>
@@ -194,6 +803,21 @@
   </si>
   <si>
     <t>manual</t>
+  </si>
+  <si>
+    <t>499</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>229.0</t>
+  </si>
+  <si>
+    <t>199.0</t>
+  </si>
+  <si>
+    <t>active</t>
   </si>
 </sst>
 </file>
@@ -567,42 +1191,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD21"/>
+  <dimension ref="A1:AD228"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="143.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="50.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="143.7109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="12.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="85.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="18.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="16.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="65.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="16.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="17.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="17.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="29.7109375" style="1" customWidth="1"/>
-    <col min="16" max="16" width="25.7109375" style="1" customWidth="1"/>
-    <col min="17" max="17" width="28.7109375" style="1" customWidth="1"/>
-    <col min="18" max="18" width="31.7109375" style="1" customWidth="1"/>
-    <col min="19" max="19" width="17.7109375" style="1" customWidth="1"/>
-    <col min="20" max="20" width="28.7109375" style="1" customWidth="1"/>
-    <col min="21" max="21" width="29.7109375" style="1" customWidth="1"/>
-    <col min="22" max="22" width="19.7109375" style="1" customWidth="1"/>
-    <col min="23" max="23" width="85.7109375" style="1" customWidth="1"/>
-    <col min="24" max="24" width="17.7109375" style="1" customWidth="1"/>
-    <col min="25" max="25" width="10.7109375" style="1" customWidth="1"/>
-    <col min="26" max="26" width="19.7109375" style="1" customWidth="1"/>
-    <col min="27" max="27" width="13.7109375" style="1" customWidth="1"/>
-    <col min="28" max="28" width="13.7109375" style="1" customWidth="1"/>
-    <col min="29" max="29" width="19.7109375" style="1" customWidth="1"/>
-    <col min="30" max="30" width="18.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="7.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="95.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="17.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="15.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="64.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="33.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="16.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="28.7109375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="24.7109375" style="1" customWidth="1"/>
+    <col min="17" max="17" width="27.7109375" style="1" customWidth="1"/>
+    <col min="18" max="18" width="30.7109375" style="1" customWidth="1"/>
+    <col min="19" max="19" width="16.7109375" style="1" customWidth="1"/>
+    <col min="20" max="20" width="27.7109375" style="1" customWidth="1"/>
+    <col min="21" max="21" width="28.7109375" style="1" customWidth="1"/>
+    <col min="22" max="22" width="18.7109375" style="1" customWidth="1"/>
+    <col min="23" max="23" width="95.7109375" style="1" customWidth="1"/>
+    <col min="24" max="24" width="16.7109375" style="1" customWidth="1"/>
+    <col min="25" max="25" width="9.7109375" style="1" customWidth="1"/>
+    <col min="26" max="26" width="18.7109375" style="1" customWidth="1"/>
+    <col min="27" max="27" width="12.7109375" style="1" customWidth="1"/>
+    <col min="28" max="28" width="12.7109375" style="1" customWidth="1"/>
+    <col min="29" max="29" width="18.7109375" style="1" customWidth="1"/>
+    <col min="30" max="30" width="17.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30">
@@ -702,61 +1326,61 @@
         <v>2208796954</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>34</v>
+        <v>79</v>
       </c>
       <c r="I2" s="1">
         <v>1</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>42</v>
+        <v>206</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>43</v>
+        <v>207</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>56</v>
+        <v>259</v>
       </c>
       <c r="N2" s="1">
         <v>1000</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>57</v>
+        <v>260</v>
       </c>
       <c r="P2" s="1">
         <v>9964</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>58</v>
+        <v>261</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>59</v>
+        <v>262</v>
       </c>
       <c r="S2" s="1">
         <v>333</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="W2" s="3" t="s">
-        <v>34</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:30">
@@ -764,40 +1388,40 @@
         <v>2208796954</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>42</v>
+        <v>206</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>44</v>
+        <v>208</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>56</v>
+        <v>259</v>
       </c>
       <c r="N3" s="1">
         <v>1000</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>57</v>
+        <v>260</v>
       </c>
       <c r="P3" s="1">
         <v>9827</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>58</v>
+        <v>261</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>59</v>
+        <v>262</v>
       </c>
       <c r="S3" s="1">
         <v>333</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="W3" s="3" t="s">
-        <v>34</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:30">
@@ -805,40 +1429,40 @@
         <v>2208796954</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>42</v>
+        <v>206</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>45</v>
+        <v>209</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>56</v>
+        <v>259</v>
       </c>
       <c r="N4" s="1">
         <v>1000</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>57</v>
+        <v>260</v>
       </c>
       <c r="P4" s="1">
         <v>9947</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>58</v>
+        <v>261</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>59</v>
+        <v>262</v>
       </c>
       <c r="S4" s="1">
         <v>333</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="W4" s="3" t="s">
-        <v>34</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:30">
@@ -846,40 +1470,40 @@
         <v>2208796954</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>42</v>
+        <v>206</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>46</v>
+        <v>210</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>56</v>
+        <v>259</v>
       </c>
       <c r="N5" s="1">
         <v>1000</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>57</v>
+        <v>260</v>
       </c>
       <c r="P5" s="1">
         <v>9992</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>58</v>
+        <v>261</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>59</v>
+        <v>262</v>
       </c>
       <c r="S5" s="1">
         <v>333</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="W5" s="3" t="s">
-        <v>34</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:30">
@@ -887,40 +1511,40 @@
         <v>2208796954</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>42</v>
+        <v>206</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>47</v>
+        <v>211</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>56</v>
+        <v>259</v>
       </c>
       <c r="N6" s="1">
         <v>1000</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>57</v>
+        <v>260</v>
       </c>
       <c r="P6" s="1">
         <v>9824</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>58</v>
+        <v>261</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>59</v>
+        <v>262</v>
       </c>
       <c r="S6" s="1">
         <v>333</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="W6" s="3" t="s">
-        <v>34</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:30">
@@ -928,40 +1552,40 @@
         <v>2208796954</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>42</v>
+        <v>206</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>48</v>
+        <v>212</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>56</v>
+        <v>259</v>
       </c>
       <c r="N7" s="1">
         <v>1000</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>57</v>
+        <v>260</v>
       </c>
       <c r="P7" s="1">
         <v>9783</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>58</v>
+        <v>261</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>59</v>
+        <v>262</v>
       </c>
       <c r="S7" s="1">
         <v>333</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="W7" s="3" t="s">
-        <v>34</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:30">
@@ -969,40 +1593,40 @@
         <v>2208796954</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>42</v>
+        <v>206</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>49</v>
+        <v>213</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>56</v>
+        <v>259</v>
       </c>
       <c r="N8" s="1">
         <v>1000</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>57</v>
+        <v>260</v>
       </c>
       <c r="P8" s="1">
         <v>9641</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>58</v>
+        <v>261</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>59</v>
+        <v>262</v>
       </c>
       <c r="S8" s="1">
         <v>333</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="V8" s="1" t="s">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="W8" s="3" t="s">
-        <v>34</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:30">
@@ -1010,40 +1634,40 @@
         <v>2208796954</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>42</v>
+        <v>206</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>50</v>
+        <v>214</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>56</v>
+        <v>259</v>
       </c>
       <c r="N9" s="1">
         <v>1000</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>57</v>
+        <v>260</v>
       </c>
       <c r="P9" s="1">
         <v>9971</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>58</v>
+        <v>261</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>59</v>
+        <v>262</v>
       </c>
       <c r="S9" s="1">
         <v>333</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="V9" s="1" t="s">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="W9" s="3" t="s">
-        <v>34</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:30">
@@ -1051,40 +1675,40 @@
         <v>2208796954</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>42</v>
+        <v>206</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>51</v>
+        <v>215</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>56</v>
+        <v>259</v>
       </c>
       <c r="N10" s="1">
         <v>1000</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>57</v>
+        <v>260</v>
       </c>
       <c r="P10" s="1">
         <v>9985</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>58</v>
+        <v>261</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>59</v>
+        <v>262</v>
       </c>
       <c r="S10" s="1">
         <v>333</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="V10" s="1" t="s">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="W10" s="3" t="s">
-        <v>34</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:30">
@@ -1092,40 +1716,40 @@
         <v>2208796954</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>42</v>
+        <v>206</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>52</v>
+        <v>216</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>56</v>
+        <v>259</v>
       </c>
       <c r="N11" s="1">
         <v>1000</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>57</v>
+        <v>260</v>
       </c>
       <c r="P11" s="1">
         <v>9970</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>58</v>
+        <v>261</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>59</v>
+        <v>262</v>
       </c>
       <c r="S11" s="1">
         <v>333</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="V11" s="1" t="s">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="W11" s="3" t="s">
-        <v>34</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:30">
@@ -1133,40 +1757,40 @@
         <v>2208796954</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>42</v>
+        <v>206</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>53</v>
+        <v>217</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>56</v>
+        <v>259</v>
       </c>
       <c r="N12" s="1">
         <v>1000</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>57</v>
+        <v>260</v>
       </c>
       <c r="P12" s="1">
         <v>9988</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>58</v>
+        <v>261</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>59</v>
+        <v>262</v>
       </c>
       <c r="S12" s="1">
         <v>333</v>
       </c>
       <c r="U12" s="1" t="s">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="V12" s="1" t="s">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="W12" s="3" t="s">
-        <v>34</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:30">
@@ -1174,40 +1798,40 @@
         <v>2208796954</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>42</v>
+        <v>206</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>54</v>
+        <v>218</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>56</v>
+        <v>259</v>
       </c>
       <c r="N13" s="1">
         <v>1000</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>57</v>
+        <v>260</v>
       </c>
       <c r="P13" s="1">
         <v>9857</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>58</v>
+        <v>261</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>59</v>
+        <v>262</v>
       </c>
       <c r="S13" s="1">
         <v>333</v>
       </c>
       <c r="U13" s="1" t="s">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="V13" s="1" t="s">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="W13" s="3" t="s">
-        <v>34</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:30">
@@ -1215,40 +1839,40 @@
         <v>2208796954</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>42</v>
+        <v>206</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>55</v>
+        <v>219</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>56</v>
+        <v>259</v>
       </c>
       <c r="N14" s="1">
         <v>1000</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>57</v>
+        <v>260</v>
       </c>
       <c r="P14" s="1">
         <v>9883</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>58</v>
+        <v>261</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>59</v>
+        <v>262</v>
       </c>
       <c r="S14" s="1">
         <v>333</v>
       </c>
       <c r="U14" s="1" t="s">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="V14" s="1" t="s">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="W14" s="3" t="s">
-        <v>34</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:30">
@@ -1256,7 +1880,7 @@
         <v>2208796954</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="I15" s="1">
         <v>2</v>
@@ -1267,64 +1891,5587 @@
         <v>2208796954</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>36</v>
+        <v>81</v>
       </c>
       <c r="I16" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:23">
       <c r="A17" s="1">
         <v>2208796954</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>37</v>
+        <v>82</v>
       </c>
       <c r="I17" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:23">
       <c r="A18" s="1">
         <v>2208796954</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="I18" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:23">
       <c r="A19" s="1">
         <v>2208796954</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>39</v>
+        <v>84</v>
       </c>
       <c r="I19" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:23">
       <c r="A20" s="1">
         <v>2208796954</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="I20" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:23">
       <c r="A21" s="1">
         <v>2208796954</v>
       </c>
       <c r="H21" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="I21" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="A22" s="1">
+        <v>2208908061</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="I21" s="1">
+      <c r="C22" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="I22" s="1">
+        <v>1</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="N22" s="1">
+        <v>123000</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="P22" s="1">
+        <v>9964</v>
+      </c>
+      <c r="Q22" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="R22" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="S22" s="1">
+        <v>32</v>
+      </c>
+      <c r="U22" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="V22" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="W22" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
+      <c r="A23" s="1">
+        <v>2208908061</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="N23" s="1">
+        <v>123000</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="P23" s="1">
+        <v>9827</v>
+      </c>
+      <c r="Q23" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="R23" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="S23" s="1">
+        <v>32</v>
+      </c>
+      <c r="U23" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="V23" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="W23" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="A24" s="1">
+        <v>2208908061</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="N24" s="1">
+        <v>123000</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="P24" s="1">
+        <v>9947</v>
+      </c>
+      <c r="Q24" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="R24" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="S24" s="1">
+        <v>32</v>
+      </c>
+      <c r="U24" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="V24" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="W24" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="A25" s="1">
+        <v>2208908061</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="N25" s="1">
+        <v>123000</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="P25" s="1">
+        <v>9992</v>
+      </c>
+      <c r="Q25" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="R25" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="S25" s="1">
+        <v>32</v>
+      </c>
+      <c r="U25" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="V25" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="W25" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
+      <c r="A26" s="1">
+        <v>2208908061</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="N26" s="1">
+        <v>123000</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="P26" s="1">
+        <v>9824</v>
+      </c>
+      <c r="Q26" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="R26" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="S26" s="1">
+        <v>32</v>
+      </c>
+      <c r="U26" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="V26" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="W26" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
+      <c r="A27" s="1">
+        <v>2208908061</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="N27" s="1">
+        <v>123000</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="P27" s="1">
+        <v>9783</v>
+      </c>
+      <c r="Q27" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="R27" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="S27" s="1">
+        <v>32</v>
+      </c>
+      <c r="U27" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="V27" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="W27" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="A28" s="1">
+        <v>2208908061</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="N28" s="1">
+        <v>123000</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="P28" s="1">
+        <v>9641</v>
+      </c>
+      <c r="Q28" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="R28" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="S28" s="1">
+        <v>32</v>
+      </c>
+      <c r="U28" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="V28" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="W28" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
+      <c r="A29" s="1">
+        <v>2208908061</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="N29" s="1">
+        <v>123000</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="P29" s="1">
+        <v>9971</v>
+      </c>
+      <c r="Q29" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="R29" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="S29" s="1">
+        <v>32</v>
+      </c>
+      <c r="U29" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="V29" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="W29" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
+      <c r="A30" s="1">
+        <v>2208908061</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="N30" s="1">
+        <v>123000</v>
+      </c>
+      <c r="O30" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="P30" s="1">
+        <v>9985</v>
+      </c>
+      <c r="Q30" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="R30" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="S30" s="1">
+        <v>32</v>
+      </c>
+      <c r="U30" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="V30" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="W30" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
+      <c r="A31" s="1">
+        <v>2208908061</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="N31" s="1">
+        <v>123000</v>
+      </c>
+      <c r="O31" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="P31" s="1">
+        <v>9970</v>
+      </c>
+      <c r="Q31" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="R31" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="S31" s="1">
+        <v>32</v>
+      </c>
+      <c r="U31" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="V31" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="W31" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23">
+      <c r="A32" s="1">
+        <v>2208908061</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="N32" s="1">
+        <v>123000</v>
+      </c>
+      <c r="O32" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="P32" s="1">
+        <v>9988</v>
+      </c>
+      <c r="Q32" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="R32" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="S32" s="1">
+        <v>32</v>
+      </c>
+      <c r="U32" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="V32" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="W32" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23">
+      <c r="A33" s="1">
+        <v>2208908061</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="N33" s="1">
+        <v>123000</v>
+      </c>
+      <c r="O33" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="P33" s="1">
+        <v>9857</v>
+      </c>
+      <c r="Q33" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="R33" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="S33" s="1">
+        <v>32</v>
+      </c>
+      <c r="U33" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="V33" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="W33" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23">
+      <c r="A34" s="1">
+        <v>2208908061</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="N34" s="1">
+        <v>123000</v>
+      </c>
+      <c r="O34" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="P34" s="1">
+        <v>9883</v>
+      </c>
+      <c r="Q34" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="R34" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="S34" s="1">
+        <v>32</v>
+      </c>
+      <c r="U34" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="V34" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="W34" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23">
+      <c r="A35" s="1">
+        <v>2208908061</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="I35" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23">
+      <c r="A36" s="1">
+        <v>2208908061</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="I36" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23">
+      <c r="A37" s="1">
+        <v>2208908061</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="I37" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23">
+      <c r="A38" s="1">
+        <v>2208908061</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="I38" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23">
+      <c r="A39" s="1">
+        <v>2208908061</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="I39" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23">
+      <c r="A40" s="1">
+        <v>2208908061</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="I40" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23">
+      <c r="A41" s="1">
+        <v>2208908061</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="I41" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23">
+      <c r="A42" s="1">
+        <v>2208888369</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="I42" s="1">
+        <v>1</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="N42" s="1">
+        <v>21000</v>
+      </c>
+      <c r="O42" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="P42" s="1">
+        <v>9964</v>
+      </c>
+      <c r="Q42" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="R42" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="S42" s="1">
+        <v>123</v>
+      </c>
+      <c r="U42" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="V42" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="W42" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23">
+      <c r="A43" s="1">
+        <v>2208888369</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="N43" s="1">
+        <v>21000</v>
+      </c>
+      <c r="O43" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="P43" s="1">
+        <v>9827</v>
+      </c>
+      <c r="Q43" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="R43" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="S43" s="1">
+        <v>123</v>
+      </c>
+      <c r="U43" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="V43" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="W43" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23">
+      <c r="A44" s="1">
+        <v>2208888369</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="N44" s="1">
+        <v>21000</v>
+      </c>
+      <c r="O44" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="P44" s="1">
+        <v>9947</v>
+      </c>
+      <c r="Q44" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="R44" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="S44" s="1">
+        <v>123</v>
+      </c>
+      <c r="U44" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="V44" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="W44" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23">
+      <c r="A45" s="1">
+        <v>2208888369</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="N45" s="1">
+        <v>21000</v>
+      </c>
+      <c r="O45" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="P45" s="1">
+        <v>9992</v>
+      </c>
+      <c r="Q45" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="R45" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="S45" s="1">
+        <v>123</v>
+      </c>
+      <c r="U45" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="V45" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="W45" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23">
+      <c r="A46" s="1">
+        <v>2208888369</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="L46" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="N46" s="1">
+        <v>21000</v>
+      </c>
+      <c r="O46" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="P46" s="1">
+        <v>9824</v>
+      </c>
+      <c r="Q46" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="R46" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="S46" s="1">
+        <v>123</v>
+      </c>
+      <c r="U46" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="V46" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="W46" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23">
+      <c r="A47" s="1">
+        <v>2208888369</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="L47" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="N47" s="1">
+        <v>21000</v>
+      </c>
+      <c r="O47" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="P47" s="1">
+        <v>9783</v>
+      </c>
+      <c r="Q47" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="R47" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="S47" s="1">
+        <v>123</v>
+      </c>
+      <c r="U47" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="V47" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="W47" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23">
+      <c r="A48" s="1">
+        <v>2208888369</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="L48" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="N48" s="1">
+        <v>21000</v>
+      </c>
+      <c r="O48" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="P48" s="1">
+        <v>9641</v>
+      </c>
+      <c r="Q48" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="R48" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="S48" s="1">
+        <v>123</v>
+      </c>
+      <c r="U48" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="V48" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="W48" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23">
+      <c r="A49" s="1">
+        <v>2208888369</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="L49" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="N49" s="1">
+        <v>21000</v>
+      </c>
+      <c r="O49" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="P49" s="1">
+        <v>9971</v>
+      </c>
+      <c r="Q49" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="R49" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="S49" s="1">
+        <v>123</v>
+      </c>
+      <c r="U49" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="V49" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="W49" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23">
+      <c r="A50" s="1">
+        <v>2208888369</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="L50" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="N50" s="1">
+        <v>21000</v>
+      </c>
+      <c r="O50" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="P50" s="1">
+        <v>9985</v>
+      </c>
+      <c r="Q50" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="R50" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="S50" s="1">
+        <v>123</v>
+      </c>
+      <c r="U50" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="V50" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="W50" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23">
+      <c r="A51" s="1">
+        <v>2208888369</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="L51" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="N51" s="1">
+        <v>21000</v>
+      </c>
+      <c r="O51" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="P51" s="1">
+        <v>9970</v>
+      </c>
+      <c r="Q51" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="R51" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="S51" s="1">
+        <v>123</v>
+      </c>
+      <c r="U51" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="V51" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="W51" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23">
+      <c r="A52" s="1">
+        <v>2208888369</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="L52" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="N52" s="1">
+        <v>21000</v>
+      </c>
+      <c r="O52" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="P52" s="1">
+        <v>9988</v>
+      </c>
+      <c r="Q52" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="R52" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="S52" s="1">
+        <v>123</v>
+      </c>
+      <c r="U52" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="V52" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="W52" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23">
+      <c r="A53" s="1">
+        <v>2208888369</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="K53" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="L53" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="N53" s="1">
+        <v>21000</v>
+      </c>
+      <c r="O53" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="P53" s="1">
+        <v>9857</v>
+      </c>
+      <c r="Q53" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="R53" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="S53" s="1">
+        <v>123</v>
+      </c>
+      <c r="U53" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="V53" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="W53" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23">
+      <c r="A54" s="1">
+        <v>2208888369</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="K54" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="L54" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="N54" s="1">
+        <v>21000</v>
+      </c>
+      <c r="O54" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="P54" s="1">
+        <v>9883</v>
+      </c>
+      <c r="Q54" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="R54" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="S54" s="1">
+        <v>123</v>
+      </c>
+      <c r="U54" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="V54" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="W54" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23">
+      <c r="A55" s="1">
+        <v>2208888369</v>
+      </c>
+      <c r="H55" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="I55" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23">
+      <c r="A56" s="1">
+        <v>2208888369</v>
+      </c>
+      <c r="H56" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="I56" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23">
+      <c r="A57" s="1">
+        <v>2208888369</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="I57" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23">
+      <c r="A58" s="1">
+        <v>2208888369</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="I58" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23">
+      <c r="A59" s="1">
+        <v>2208888369</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="I59" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23">
+      <c r="A60" s="1">
+        <v>2208888369</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="I60" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23">
+      <c r="A61" s="1">
+        <v>2208888369</v>
+      </c>
+      <c r="H61" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="I61" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23">
+      <c r="B62" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="I62" s="1">
+        <v>1</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="K62" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="L62" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="M62" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="N62" s="1">
+        <v>1000</v>
+      </c>
+      <c r="O62" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="P62" s="1">
+        <v>99924</v>
+      </c>
+      <c r="Q62" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="R62" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="S62" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="U62" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="V62" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="W62" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23">
+      <c r="H63" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="I63" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23">
+      <c r="H64" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="I64" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:25">
+      <c r="H65" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I65" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:25">
+      <c r="H66" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="I66" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:25">
+      <c r="A67" s="1">
+        <v>2208905215</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H67" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="I67" s="1">
+        <v>1</v>
+      </c>
+      <c r="J67" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="L67" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="N67" s="1">
+        <v>1000</v>
+      </c>
+      <c r="O67" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="P67" s="1">
+        <v>435</v>
+      </c>
+      <c r="Q67" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="R67" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="S67" s="1">
+        <v>5454</v>
+      </c>
+      <c r="U67" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="V67" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="W67" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y67" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="68" spans="1:25">
+      <c r="A68" s="1">
+        <v>2208905215</v>
+      </c>
+      <c r="J68" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="L68" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="N68" s="1">
+        <v>1000</v>
+      </c>
+      <c r="O68" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="P68" s="1">
+        <v>435</v>
+      </c>
+      <c r="Q68" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="R68" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="S68" s="1">
+        <v>5454</v>
+      </c>
+      <c r="U68" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="V68" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y68" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="69" spans="1:25">
+      <c r="A69" s="1">
+        <v>2209278604</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H69" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="I69" s="1">
+        <v>1</v>
+      </c>
+      <c r="J69" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="K69" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="L69" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="N69" s="1">
+        <v>123000</v>
+      </c>
+      <c r="O69" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="P69" s="1">
+        <v>2449</v>
+      </c>
+      <c r="Q69" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="R69" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="S69" s="1">
+        <v>123</v>
+      </c>
+      <c r="U69" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="V69" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="W69" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="70" spans="1:25">
+      <c r="A70" s="1">
+        <v>2209278604</v>
+      </c>
+      <c r="J70" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="K70" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="L70" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="N70" s="1">
+        <v>123000</v>
+      </c>
+      <c r="O70" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="P70" s="1">
+        <v>2742</v>
+      </c>
+      <c r="Q70" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="R70" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="S70" s="1">
+        <v>123</v>
+      </c>
+      <c r="U70" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="V70" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="W70" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="71" spans="1:25">
+      <c r="A71" s="1">
+        <v>2209278604</v>
+      </c>
+      <c r="J71" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="K71" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="L71" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="N71" s="1">
+        <v>123000</v>
+      </c>
+      <c r="O71" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="P71" s="1">
+        <v>2499</v>
+      </c>
+      <c r="Q71" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="R71" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="S71" s="1">
+        <v>123</v>
+      </c>
+      <c r="U71" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="V71" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="W71" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="72" spans="1:25">
+      <c r="A72" s="1">
+        <v>2209278604</v>
+      </c>
+      <c r="J72" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="K72" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="L72" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="N72" s="1">
+        <v>123000</v>
+      </c>
+      <c r="O72" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="P72" s="1">
+        <v>1841</v>
+      </c>
+      <c r="Q72" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="R72" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="S72" s="1">
+        <v>123</v>
+      </c>
+      <c r="U72" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="V72" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="W72" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="73" spans="1:25">
+      <c r="A73" s="1">
+        <v>2209278604</v>
+      </c>
+      <c r="J73" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="K73" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="L73" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="N73" s="1">
+        <v>123000</v>
+      </c>
+      <c r="O73" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="P73" s="1">
+        <v>2644</v>
+      </c>
+      <c r="Q73" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="R73" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="S73" s="1">
+        <v>123</v>
+      </c>
+      <c r="U73" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="V73" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="W73" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="74" spans="1:25">
+      <c r="A74" s="1">
+        <v>2209278604</v>
+      </c>
+      <c r="H74" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="I74" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:25">
+      <c r="A75" s="1">
+        <v>2209278604</v>
+      </c>
+      <c r="H75" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="I75" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:25">
+      <c r="A76" s="1">
+        <v>2209278604</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="I76" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:25">
+      <c r="A77" s="1">
+        <v>2209278604</v>
+      </c>
+      <c r="H77" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="I77" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:25">
+      <c r="A78" s="1">
+        <v>2209746022</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H78" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="I78" s="1">
+        <v>1</v>
+      </c>
+      <c r="J78" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="K78" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="L78" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="N78" s="1">
+        <v>123000</v>
+      </c>
+      <c r="O78" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="P78" s="1">
+        <v>12</v>
+      </c>
+      <c r="Q78" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="R78" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="S78" s="1">
+        <v>1234</v>
+      </c>
+      <c r="U78" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="V78" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="W78" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="79" spans="1:25">
+      <c r="A79" s="1">
+        <v>2209746022</v>
+      </c>
+      <c r="J79" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="K79" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="L79" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="N79" s="1">
+        <v>123000</v>
+      </c>
+      <c r="O79" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="P79" s="1">
+        <v>219</v>
+      </c>
+      <c r="Q79" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="R79" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="S79" s="1">
+        <v>1234</v>
+      </c>
+      <c r="U79" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="V79" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="W79" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="80" spans="1:25">
+      <c r="A80" s="1">
+        <v>2209746022</v>
+      </c>
+      <c r="H80" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="I80" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:25">
+      <c r="A81" s="1">
+        <v>2209746022</v>
+      </c>
+      <c r="H81" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="I81" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:25">
+      <c r="A82" s="1">
+        <v>2209746022</v>
+      </c>
+      <c r="H82" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="I82" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:25">
+      <c r="A83" s="1">
+        <v>2209746022</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="I83" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:25">
+      <c r="A84" s="1">
+        <v>2209746022</v>
+      </c>
+      <c r="H84" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="I84" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85" spans="1:25">
+      <c r="A85" s="1">
+        <v>2209746022</v>
+      </c>
+      <c r="H85" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="I85" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86" spans="1:25">
+      <c r="A86" s="1">
+        <v>2210288738</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H86" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="I86" s="1">
+        <v>1</v>
+      </c>
+      <c r="J86" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="K86" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="L86" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="N86" s="1">
+        <v>1000</v>
+      </c>
+      <c r="O86" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="P86" s="1">
+        <v>468</v>
+      </c>
+      <c r="Q86" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="R86" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="S86" s="1">
+        <v>344</v>
+      </c>
+      <c r="U86" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="V86" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="W86" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="87" spans="1:25">
+      <c r="A87" s="1">
+        <v>2210288738</v>
+      </c>
+      <c r="J87" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="K87" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="L87" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="N87" s="1">
+        <v>1000</v>
+      </c>
+      <c r="O87" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="P87" s="1">
+        <v>468</v>
+      </c>
+      <c r="Q87" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="R87" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="S87" s="1">
+        <v>344</v>
+      </c>
+      <c r="U87" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="V87" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="W87" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="88" spans="1:25">
+      <c r="A88" s="1">
+        <v>2210288738</v>
+      </c>
+      <c r="H88" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="I88" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:25">
+      <c r="A89" s="1">
+        <v>2210288738</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="I89" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:25">
+      <c r="A90" s="1">
+        <v>2210288738</v>
+      </c>
+      <c r="H90" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="I90" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:25">
+      <c r="A91" s="1">
+        <v>2210288738</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="I91" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:25">
+      <c r="A92" s="1">
+        <v>2210288738</v>
+      </c>
+      <c r="H92" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="I92" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93" spans="1:25">
+      <c r="A93" s="1">
+        <v>2210288738</v>
+      </c>
+      <c r="H93" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="I93" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94" spans="1:25">
+      <c r="A94" s="1">
+        <v>2210304640</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="I94" s="1">
+        <v>1</v>
+      </c>
+      <c r="J94" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="K94" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="L94" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="N94" s="1">
+        <v>1000</v>
+      </c>
+      <c r="O94" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="P94" s="1">
+        <v>34</v>
+      </c>
+      <c r="Q94" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="R94" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="S94" s="1">
+        <v>333</v>
+      </c>
+      <c r="U94" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="V94" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="W94" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y94" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="95" spans="1:25">
+      <c r="A95" s="1">
+        <v>2210304640</v>
+      </c>
+      <c r="J95" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="K95" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="L95" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="N95" s="1">
+        <v>1000</v>
+      </c>
+      <c r="O95" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="P95" s="1">
+        <v>34</v>
+      </c>
+      <c r="Q95" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="R95" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="S95" s="1">
+        <v>333</v>
+      </c>
+      <c r="U95" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="V95" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="W95" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y95" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="96" spans="1:25">
+      <c r="A96" s="1">
+        <v>2210304640</v>
+      </c>
+      <c r="J96" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="K96" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="L96" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="N96" s="1">
+        <v>1000</v>
+      </c>
+      <c r="O96" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="P96" s="1">
+        <v>34</v>
+      </c>
+      <c r="Q96" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="R96" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="S96" s="1">
+        <v>333</v>
+      </c>
+      <c r="U96" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="V96" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="W96" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y96" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="97" spans="1:25">
+      <c r="A97" s="1">
+        <v>2210304640</v>
+      </c>
+      <c r="J97" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="K97" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="L97" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="N97" s="1">
+        <v>1000</v>
+      </c>
+      <c r="O97" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="P97" s="1">
+        <v>34</v>
+      </c>
+      <c r="Q97" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="R97" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="S97" s="1">
+        <v>333</v>
+      </c>
+      <c r="U97" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="V97" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="W97" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y97" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="98" spans="1:25">
+      <c r="A98" s="1">
+        <v>2210304640</v>
+      </c>
+      <c r="J98" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="K98" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="L98" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="N98" s="1">
+        <v>1000</v>
+      </c>
+      <c r="O98" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="P98" s="1">
+        <v>34</v>
+      </c>
+      <c r="Q98" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="R98" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="S98" s="1">
+        <v>333</v>
+      </c>
+      <c r="U98" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="V98" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="W98" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y98" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="99" spans="1:25">
+      <c r="A99" s="1">
+        <v>2210304640</v>
+      </c>
+      <c r="H99" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="I99" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:25">
+      <c r="A100" s="1">
+        <v>2210304640</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="I100" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:25">
+      <c r="A101" s="1">
+        <v>2210304640</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="I101" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:25">
+      <c r="A102" s="1">
+        <v>2210304640</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="I102" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103" spans="1:25">
+      <c r="A103" s="1">
+        <v>2210304640</v>
+      </c>
+      <c r="H103" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="I103" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="104" spans="1:25">
+      <c r="A104" s="1">
+        <v>2210304640</v>
+      </c>
+      <c r="H104" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="I104" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="105" spans="1:25">
+      <c r="A105" s="1">
+        <v>2210304640</v>
+      </c>
+      <c r="H105" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="I105" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="106" spans="1:25">
+      <c r="B106" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H106" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="I106" s="1">
+        <v>1</v>
+      </c>
+      <c r="J106" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="K106" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="L106" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="N106" s="1">
+        <v>1500</v>
+      </c>
+      <c r="O106" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="P106" s="1">
+        <v>844</v>
+      </c>
+      <c r="Q106" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="R106" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="S106" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="U106" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="V106" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="W106" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="107" spans="1:25">
+      <c r="J107" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="K107" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="L107" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="N107" s="1">
+        <v>1500</v>
+      </c>
+      <c r="O107" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="P107" s="1">
+        <v>792</v>
+      </c>
+      <c r="Q107" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="R107" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="S107" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="U107" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="V107" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="W107" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="108" spans="1:25">
+      <c r="H108" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="I108" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:25">
+      <c r="H109" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="I109" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:25">
+      <c r="H110" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="I110" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111" spans="1:25">
+      <c r="H111" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="I111" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112" spans="1:25">
+      <c r="H112" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="I112" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="113" spans="1:25">
+      <c r="A113" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G113" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H113" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="I113" s="1">
+        <v>1</v>
+      </c>
+      <c r="J113" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="K113" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="L113" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="N113" s="1">
+        <v>400</v>
+      </c>
+      <c r="O113" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="P113" s="1">
+        <v>5937</v>
+      </c>
+      <c r="Q113" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="R113" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="S113" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="U113" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="V113" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="W113" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="Y113" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="114" spans="1:25">
+      <c r="A114" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J114" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="K114" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="L114" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="N114" s="1">
+        <v>400</v>
+      </c>
+      <c r="O114" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="P114" s="1">
+        <v>5899</v>
+      </c>
+      <c r="Q114" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="R114" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="S114" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="U114" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="V114" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="W114" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="Y114" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="115" spans="1:25">
+      <c r="A115" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J115" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="K115" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="L115" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="N115" s="1">
+        <v>400</v>
+      </c>
+      <c r="O115" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="P115" s="1">
+        <v>5930</v>
+      </c>
+      <c r="Q115" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="R115" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="S115" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="U115" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="V115" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="W115" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="Y115" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="116" spans="1:25">
+      <c r="A116" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J116" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="K116" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="L116" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="N116" s="1">
+        <v>400</v>
+      </c>
+      <c r="O116" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="P116" s="1">
+        <v>5900</v>
+      </c>
+      <c r="Q116" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="R116" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="S116" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="U116" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="V116" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="W116" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="Y116" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="117" spans="1:25">
+      <c r="A117" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J117" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="K117" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="L117" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="N117" s="1">
+        <v>400</v>
+      </c>
+      <c r="O117" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="P117" s="1">
+        <v>5945</v>
+      </c>
+      <c r="Q117" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="R117" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="S117" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="U117" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="V117" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="W117" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="Y117" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="118" spans="1:25">
+      <c r="A118" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J118" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="K118" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="L118" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="N118" s="1">
+        <v>400</v>
+      </c>
+      <c r="O118" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="P118" s="1">
+        <v>5939</v>
+      </c>
+      <c r="Q118" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="R118" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="S118" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="U118" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="V118" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="W118" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="Y118" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="119" spans="1:25">
+      <c r="A119" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J119" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="K119" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="L119" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="N119" s="1">
+        <v>400</v>
+      </c>
+      <c r="O119" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="P119" s="1">
+        <v>5976</v>
+      </c>
+      <c r="Q119" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="R119" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="S119" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="U119" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="V119" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="W119" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="Y119" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="120" spans="1:25">
+      <c r="A120" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J120" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="K120" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="L120" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="N120" s="1">
+        <v>400</v>
+      </c>
+      <c r="O120" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="P120" s="1">
+        <v>5952</v>
+      </c>
+      <c r="Q120" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="R120" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="S120" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="U120" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="V120" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="W120" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="Y120" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="121" spans="1:25">
+      <c r="A121" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J121" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="K121" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="L121" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="N121" s="1">
+        <v>400</v>
+      </c>
+      <c r="O121" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="P121" s="1">
+        <v>5900</v>
+      </c>
+      <c r="Q121" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="R121" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="S121" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="U121" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="V121" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="W121" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="Y121" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="122" spans="1:25">
+      <c r="A122" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J122" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="K122" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="L122" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="N122" s="1">
+        <v>400</v>
+      </c>
+      <c r="O122" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="P122" s="1">
+        <v>5975</v>
+      </c>
+      <c r="Q122" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="R122" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="S122" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="U122" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="V122" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="W122" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="Y122" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="123" spans="1:25">
+      <c r="A123" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J123" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="K123" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="L123" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="N123" s="1">
+        <v>400</v>
+      </c>
+      <c r="O123" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="P123" s="1">
+        <v>5909</v>
+      </c>
+      <c r="Q123" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="R123" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="S123" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="U123" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="V123" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="W123" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="Y123" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="124" spans="1:25">
+      <c r="A124" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J124" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="K124" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="L124" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="N124" s="1">
+        <v>400</v>
+      </c>
+      <c r="O124" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="P124" s="1">
+        <v>5965</v>
+      </c>
+      <c r="Q124" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="R124" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="S124" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="U124" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="V124" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="W124" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="Y124" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="125" spans="1:25">
+      <c r="A125" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H125" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="I125" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:25">
+      <c r="A126" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H126" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="I126" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="127" spans="1:25">
+      <c r="A127" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H127" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="I127" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="128" spans="1:25">
+      <c r="A128" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H128" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="I128" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="129" spans="1:25">
+      <c r="A129" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H129" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="I129" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="130" spans="1:25">
+      <c r="A130" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H130" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="I130" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="131" spans="1:25">
+      <c r="A131" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H131" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="I131" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="132" spans="1:25">
+      <c r="A132" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G132" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H132" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="I132" s="1">
+        <v>1</v>
+      </c>
+      <c r="J132" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="K132" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="L132" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="N132" s="1">
+        <v>500</v>
+      </c>
+      <c r="O132" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="P132" s="1">
+        <v>4994</v>
+      </c>
+      <c r="Q132" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="R132" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="S132" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="U132" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="V132" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="W132" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y132" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="133" spans="1:25">
+      <c r="A133" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J133" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="K133" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="L133" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="N133" s="1">
+        <v>500</v>
+      </c>
+      <c r="O133" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="P133" s="1">
+        <v>4972</v>
+      </c>
+      <c r="Q133" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="R133" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="S133" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="U133" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="V133" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="W133" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y133" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="134" spans="1:25">
+      <c r="A134" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J134" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="K134" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="L134" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="N134" s="1">
+        <v>500</v>
+      </c>
+      <c r="O134" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="P134" s="1">
+        <v>4989</v>
+      </c>
+      <c r="Q134" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="R134" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="S134" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="U134" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="V134" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="W134" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y134" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="135" spans="1:25">
+      <c r="A135" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H135" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="I135" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:25">
+      <c r="A136" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H136" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="I136" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="137" spans="1:25">
+      <c r="A137" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H137" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="I137" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="138" spans="1:25">
+      <c r="A138" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H138" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="I138" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="139" spans="1:25">
+      <c r="A139" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H139" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="I139" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="140" spans="1:25">
+      <c r="A140" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H140" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="I140" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="141" spans="1:25">
+      <c r="A141" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H141" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="I141" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="142" spans="1:25">
+      <c r="A142" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G142" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H142" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="I142" s="1">
+        <v>1</v>
+      </c>
+      <c r="J142" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="K142" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="L142" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="N142" s="1">
+        <v>500</v>
+      </c>
+      <c r="O142" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="P142" s="1">
+        <v>9999</v>
+      </c>
+      <c r="Q142" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="R142" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="S142" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="U142" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="V142" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="W142" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y142" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="143" spans="1:25">
+      <c r="A143" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J143" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="K143" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="L143" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="N143" s="1">
+        <v>500</v>
+      </c>
+      <c r="O143" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="P143" s="1">
+        <v>9995</v>
+      </c>
+      <c r="Q143" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="R143" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="S143" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="U143" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="V143" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="W143" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y143" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="144" spans="1:25">
+      <c r="A144" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J144" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="K144" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="L144" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="N144" s="1">
+        <v>500</v>
+      </c>
+      <c r="O144" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="P144" s="1">
+        <v>9994</v>
+      </c>
+      <c r="Q144" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="R144" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="S144" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="U144" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="V144" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="W144" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y144" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="145" spans="1:25">
+      <c r="A145" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J145" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="K145" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="L145" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="N145" s="1">
+        <v>500</v>
+      </c>
+      <c r="O145" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="P145" s="1">
+        <v>10000</v>
+      </c>
+      <c r="Q145" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="R145" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="S145" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="U145" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="V145" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="W145" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y145" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="146" spans="1:25">
+      <c r="A146" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H146" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="I146" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:25">
+      <c r="A147" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H147" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="I147" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="148" spans="1:25">
+      <c r="A148" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H148" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="I148" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="149" spans="1:25">
+      <c r="A149" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H149" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="I149" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="150" spans="1:25">
+      <c r="A150" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H150" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="I150" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="151" spans="1:25">
+      <c r="A151" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H151" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="I151" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="152" spans="1:25">
+      <c r="A152" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H152" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="I152" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="153" spans="1:25">
+      <c r="A153" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G153" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H153" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="I153" s="1">
+        <v>1</v>
+      </c>
+      <c r="J153" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="K153" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="L153" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="N153" s="1">
+        <v>500</v>
+      </c>
+      <c r="O153" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="P153" s="1">
+        <v>2000</v>
+      </c>
+      <c r="Q153" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="R153" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="S153" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="U153" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="V153" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="W153" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="Y153" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="154" spans="1:25">
+      <c r="A154" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J154" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="K154" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="L154" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="N154" s="1">
+        <v>500</v>
+      </c>
+      <c r="O154" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="P154" s="1">
+        <v>2000</v>
+      </c>
+      <c r="Q154" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="R154" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="S154" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="U154" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="V154" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="W154" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="Y154" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="155" spans="1:25">
+      <c r="A155" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J155" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="K155" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="L155" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="N155" s="1">
+        <v>500</v>
+      </c>
+      <c r="O155" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="P155" s="1">
+        <v>1995</v>
+      </c>
+      <c r="Q155" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="R155" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="S155" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="U155" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="V155" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="W155" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="Y155" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="156" spans="1:25">
+      <c r="A156" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J156" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="K156" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="L156" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="N156" s="1">
+        <v>500</v>
+      </c>
+      <c r="O156" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="P156" s="1">
+        <v>1999</v>
+      </c>
+      <c r="Q156" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="R156" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="S156" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="U156" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="V156" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="W156" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="Y156" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="157" spans="1:25">
+      <c r="A157" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J157" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="K157" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="L157" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="N157" s="1">
+        <v>500</v>
+      </c>
+      <c r="O157" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="P157" s="1">
+        <v>1993</v>
+      </c>
+      <c r="Q157" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="R157" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="S157" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="U157" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="V157" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="W157" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="Y157" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="158" spans="1:25">
+      <c r="A158" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H158" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="I158" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:25">
+      <c r="A159" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H159" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="I159" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="160" spans="1:25">
+      <c r="A160" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H160" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="I160" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="161" spans="1:25">
+      <c r="A161" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H161" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="I161" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="162" spans="1:25">
+      <c r="A162" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H162" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="I162" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="163" spans="1:25">
+      <c r="A163" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H163" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="I163" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="164" spans="1:25">
+      <c r="A164" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H164" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="I164" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="165" spans="1:25">
+      <c r="A165" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D165" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E165" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G165" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H165" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="I165" s="1">
+        <v>1</v>
+      </c>
+      <c r="J165" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="K165" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="L165" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="N165" s="1">
+        <v>500</v>
+      </c>
+      <c r="O165" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="P165" s="1">
+        <v>4985</v>
+      </c>
+      <c r="Q165" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="R165" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="S165" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="U165" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="V165" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="W165" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="Y165" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="166" spans="1:25">
+      <c r="A166" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J166" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="K166" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="L166" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="N166" s="1">
+        <v>500</v>
+      </c>
+      <c r="O166" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="P166" s="1">
+        <v>4983</v>
+      </c>
+      <c r="Q166" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="R166" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="S166" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="U166" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="V166" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="W166" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="Y166" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="167" spans="1:25">
+      <c r="A167" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J167" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="K167" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="L167" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="N167" s="1">
+        <v>500</v>
+      </c>
+      <c r="O167" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="P167" s="1">
+        <v>4983</v>
+      </c>
+      <c r="Q167" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="R167" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="S167" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="U167" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="V167" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="W167" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="Y167" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="168" spans="1:25">
+      <c r="A168" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H168" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="I168" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:25">
+      <c r="A169" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H169" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="I169" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="170" spans="1:25">
+      <c r="A170" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H170" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="I170" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="171" spans="1:25">
+      <c r="A171" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H171" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="I171" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="172" spans="1:25">
+      <c r="A172" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H172" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="I172" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="173" spans="1:25">
+      <c r="A173" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H173" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="I173" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="174" spans="1:25">
+      <c r="A174" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H174" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="I174" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="175" spans="1:25">
+      <c r="A175" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D175" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E175" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G175" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H175" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="I175" s="1">
+        <v>1</v>
+      </c>
+      <c r="J175" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="K175" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="L175" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="N175" s="1">
+        <v>500</v>
+      </c>
+      <c r="O175" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="P175" s="1">
+        <v>4939</v>
+      </c>
+      <c r="Q175" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="R175" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="S175" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="U175" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="V175" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="W175" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="Y175" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="176" spans="1:25">
+      <c r="A176" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J176" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="K176" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="L176" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="N176" s="1">
+        <v>500</v>
+      </c>
+      <c r="O176" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="P176" s="1">
+        <v>5000</v>
+      </c>
+      <c r="Q176" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="R176" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="S176" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="U176" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="V176" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="W176" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="Y176" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="177" spans="1:25">
+      <c r="A177" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J177" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="K177" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="L177" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="N177" s="1">
+        <v>500</v>
+      </c>
+      <c r="O177" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="P177" s="1">
+        <v>5000</v>
+      </c>
+      <c r="Q177" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="R177" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="S177" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="U177" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="V177" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="W177" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="Y177" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="178" spans="1:25">
+      <c r="A178" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H178" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="I178" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:25">
+      <c r="A179" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H179" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="I179" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="180" spans="1:25">
+      <c r="A180" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H180" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="I180" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="181" spans="1:25">
+      <c r="A181" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H181" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="I181" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="182" spans="1:25">
+      <c r="A182" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H182" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="I182" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="183" spans="1:25">
+      <c r="A183" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H183" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="I183" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="184" spans="1:25">
+      <c r="A184" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H184" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="I184" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="185" spans="1:25">
+      <c r="A185" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D185" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E185" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G185" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H185" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="I185" s="1">
+        <v>1</v>
+      </c>
+      <c r="J185" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="K185" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="L185" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="N185" s="1">
+        <v>400</v>
+      </c>
+      <c r="O185" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="P185" s="1">
+        <v>1000</v>
+      </c>
+      <c r="Q185" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="R185" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="S185" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="U185" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="V185" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="W185" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="Y185" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="186" spans="1:25">
+      <c r="A186" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J186" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="K186" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="L186" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="N186" s="1">
+        <v>400</v>
+      </c>
+      <c r="O186" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="P186" s="1">
+        <v>994</v>
+      </c>
+      <c r="Q186" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="R186" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="S186" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="U186" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="V186" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="W186" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="Y186" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="187" spans="1:25">
+      <c r="A187" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J187" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="K187" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="L187" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="N187" s="1">
+        <v>400</v>
+      </c>
+      <c r="O187" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="P187" s="1">
+        <v>994</v>
+      </c>
+      <c r="Q187" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="R187" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="S187" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="U187" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="V187" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="W187" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="Y187" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="188" spans="1:25">
+      <c r="A188" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J188" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="K188" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="L188" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="N188" s="1">
+        <v>400</v>
+      </c>
+      <c r="O188" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="P188" s="1">
+        <v>1000</v>
+      </c>
+      <c r="Q188" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="R188" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="S188" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="U188" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="V188" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="W188" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="Y188" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="189" spans="1:25">
+      <c r="A189" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H189" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="I189" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="190" spans="1:25">
+      <c r="A190" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H190" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="I190" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="191" spans="1:25">
+      <c r="A191" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H191" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="I191" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="192" spans="1:25">
+      <c r="A192" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H192" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="I192" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="193" spans="1:25">
+      <c r="A193" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H193" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="I193" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="194" spans="1:25">
+      <c r="A194" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H194" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="I194" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="195" spans="1:25">
+      <c r="A195" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H195" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="I195" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="196" spans="1:25">
+      <c r="A196" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D196" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E196" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G196" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H196" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="I196" s="1">
+        <v>1</v>
+      </c>
+      <c r="J196" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="K196" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="L196" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="N196" s="1">
+        <v>400</v>
+      </c>
+      <c r="O196" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="P196" s="1">
+        <v>99905</v>
+      </c>
+      <c r="Q196" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="R196" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="S196" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="U196" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="V196" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="W196" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="Y196" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="197" spans="1:25">
+      <c r="A197" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J197" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="K197" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="L197" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="N197" s="1">
+        <v>400</v>
+      </c>
+      <c r="O197" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="P197" s="1">
+        <v>99944</v>
+      </c>
+      <c r="Q197" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="R197" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="S197" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="U197" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="V197" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="W197" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="Y197" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="198" spans="1:25">
+      <c r="A198" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J198" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="K198" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="L198" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="N198" s="1">
+        <v>400</v>
+      </c>
+      <c r="O198" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="P198" s="1">
+        <v>99956</v>
+      </c>
+      <c r="Q198" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="R198" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="S198" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="U198" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="V198" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="W198" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="Y198" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="199" spans="1:25">
+      <c r="A199" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J199" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="K199" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="L199" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="N199" s="1">
+        <v>400</v>
+      </c>
+      <c r="O199" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="P199" s="1">
+        <v>99952</v>
+      </c>
+      <c r="Q199" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="R199" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="S199" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="U199" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="V199" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="W199" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="Y199" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="200" spans="1:25">
+      <c r="A200" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H200" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="I200" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="201" spans="1:25">
+      <c r="A201" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H201" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="I201" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="202" spans="1:25">
+      <c r="A202" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H202" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="I202" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="203" spans="1:25">
+      <c r="A203" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H203" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="I203" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="204" spans="1:25">
+      <c r="A204" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H204" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="I204" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="205" spans="1:25">
+      <c r="A205" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H205" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="I205" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="206" spans="1:25">
+      <c r="A206" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H206" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="I206" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="207" spans="1:25">
+      <c r="A207" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C207" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D207" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E207" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G207" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H207" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="I207" s="1">
+        <v>1</v>
+      </c>
+      <c r="J207" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="K207" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="L207" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="N207" s="1">
+        <v>500</v>
+      </c>
+      <c r="O207" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="P207" s="1">
+        <v>9169</v>
+      </c>
+      <c r="Q207" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="R207" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="S207" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="U207" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="V207" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="W207" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="Y207" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="208" spans="1:25">
+      <c r="A208" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J208" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="K208" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="L208" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="N208" s="1">
+        <v>500</v>
+      </c>
+      <c r="O208" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="P208" s="1">
+        <v>8862</v>
+      </c>
+      <c r="Q208" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="R208" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="S208" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="U208" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="V208" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="W208" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="Y208" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="209" spans="1:25">
+      <c r="A209" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J209" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="K209" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="L209" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="N209" s="1">
+        <v>500</v>
+      </c>
+      <c r="O209" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="P209" s="1">
+        <v>8778</v>
+      </c>
+      <c r="Q209" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="R209" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="S209" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="U209" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="V209" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="W209" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="Y209" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="210" spans="1:25">
+      <c r="A210" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J210" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="K210" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="L210" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="N210" s="1">
+        <v>500</v>
+      </c>
+      <c r="O210" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="P210" s="1">
+        <v>9090</v>
+      </c>
+      <c r="Q210" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="R210" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="S210" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="U210" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="V210" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="W210" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="Y210" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="211" spans="1:25">
+      <c r="A211" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H211" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="I211" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="212" spans="1:25">
+      <c r="A212" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H212" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="I212" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="213" spans="1:25">
+      <c r="A213" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H213" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="I213" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="214" spans="1:25">
+      <c r="A214" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H214" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="I214" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="215" spans="1:25">
+      <c r="A215" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H215" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="I215" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="216" spans="1:25">
+      <c r="A216" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H216" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="I216" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="217" spans="1:25">
+      <c r="A217" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H217" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="I217" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="218" spans="1:25">
+      <c r="A218" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C218" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D218" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E218" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G218" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H218" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="I218" s="1">
+        <v>1</v>
+      </c>
+      <c r="J218" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="K218" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="L218" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="N218" s="1">
+        <v>400</v>
+      </c>
+      <c r="O218" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="P218" s="1">
+        <v>1499363</v>
+      </c>
+      <c r="Q218" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="R218" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="S218" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="U218" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="V218" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="W218" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y218" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="219" spans="1:25">
+      <c r="A219" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J219" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="K219" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="L219" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="N219" s="1">
+        <v>400</v>
+      </c>
+      <c r="O219" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="P219" s="1">
+        <v>1499449</v>
+      </c>
+      <c r="Q219" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="R219" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="S219" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="U219" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="V219" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="W219" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y219" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="220" spans="1:25">
+      <c r="A220" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J220" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="K220" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="L220" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="N220" s="1">
+        <v>400</v>
+      </c>
+      <c r="O220" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="P220" s="1">
+        <v>1499606</v>
+      </c>
+      <c r="Q220" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="R220" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="S220" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="U220" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="V220" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="W220" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y220" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="221" spans="1:25">
+      <c r="A221" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J221" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="K221" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="L221" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="N221" s="1">
+        <v>400</v>
+      </c>
+      <c r="O221" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="P221" s="1">
+        <v>1499534</v>
+      </c>
+      <c r="Q221" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="R221" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="S221" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="U221" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="V221" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="W221" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y221" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="222" spans="1:25">
+      <c r="A222" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H222" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="I222" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="223" spans="1:25">
+      <c r="A223" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H223" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="I223" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="224" spans="1:25">
+      <c r="A224" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H224" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="I224" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9">
+      <c r="A225" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H225" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="I225" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9">
+      <c r="A226" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H226" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="I226" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9">
+      <c r="A227" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H227" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="I227" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9">
+      <c r="A228" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H228" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="I228" s="1">
         <v>8</v>
       </c>
     </row>
@@ -1351,6 +7498,231 @@
     <hyperlink ref="H19" r:id="rId19"/>
     <hyperlink ref="H20" r:id="rId20"/>
     <hyperlink ref="H21" r:id="rId21"/>
+    <hyperlink ref="H22" r:id="rId22"/>
+    <hyperlink ref="W22" r:id="rId23"/>
+    <hyperlink ref="W23" r:id="rId24"/>
+    <hyperlink ref="W24" r:id="rId25"/>
+    <hyperlink ref="W25" r:id="rId26"/>
+    <hyperlink ref="W26" r:id="rId27"/>
+    <hyperlink ref="W27" r:id="rId28"/>
+    <hyperlink ref="W28" r:id="rId29"/>
+    <hyperlink ref="W29" r:id="rId30"/>
+    <hyperlink ref="W30" r:id="rId31"/>
+    <hyperlink ref="W31" r:id="rId32"/>
+    <hyperlink ref="W32" r:id="rId33"/>
+    <hyperlink ref="W33" r:id="rId34"/>
+    <hyperlink ref="W34" r:id="rId35"/>
+    <hyperlink ref="H35" r:id="rId36"/>
+    <hyperlink ref="H36" r:id="rId37"/>
+    <hyperlink ref="H37" r:id="rId38"/>
+    <hyperlink ref="H38" r:id="rId39"/>
+    <hyperlink ref="H39" r:id="rId40"/>
+    <hyperlink ref="H40" r:id="rId41"/>
+    <hyperlink ref="H41" r:id="rId42"/>
+    <hyperlink ref="H42" r:id="rId43"/>
+    <hyperlink ref="W42" r:id="rId44"/>
+    <hyperlink ref="W43" r:id="rId45"/>
+    <hyperlink ref="W44" r:id="rId46"/>
+    <hyperlink ref="W45" r:id="rId47"/>
+    <hyperlink ref="W46" r:id="rId48"/>
+    <hyperlink ref="W47" r:id="rId49"/>
+    <hyperlink ref="W48" r:id="rId50"/>
+    <hyperlink ref="W49" r:id="rId51"/>
+    <hyperlink ref="W50" r:id="rId52"/>
+    <hyperlink ref="W51" r:id="rId53"/>
+    <hyperlink ref="W52" r:id="rId54"/>
+    <hyperlink ref="W53" r:id="rId55"/>
+    <hyperlink ref="W54" r:id="rId56"/>
+    <hyperlink ref="H55" r:id="rId57"/>
+    <hyperlink ref="H56" r:id="rId58"/>
+    <hyperlink ref="H57" r:id="rId59"/>
+    <hyperlink ref="H58" r:id="rId60"/>
+    <hyperlink ref="H59" r:id="rId61"/>
+    <hyperlink ref="H60" r:id="rId62"/>
+    <hyperlink ref="H61" r:id="rId63"/>
+    <hyperlink ref="H62" r:id="rId64"/>
+    <hyperlink ref="W62" r:id="rId65"/>
+    <hyperlink ref="H63" r:id="rId66"/>
+    <hyperlink ref="H64" r:id="rId67"/>
+    <hyperlink ref="H65" r:id="rId68"/>
+    <hyperlink ref="H66" r:id="rId69"/>
+    <hyperlink ref="H67" r:id="rId70"/>
+    <hyperlink ref="W67" r:id="rId71"/>
+    <hyperlink ref="H69" r:id="rId72"/>
+    <hyperlink ref="W69" r:id="rId73"/>
+    <hyperlink ref="W70" r:id="rId74"/>
+    <hyperlink ref="W71" r:id="rId75"/>
+    <hyperlink ref="W72" r:id="rId76"/>
+    <hyperlink ref="W73" r:id="rId77"/>
+    <hyperlink ref="H74" r:id="rId78"/>
+    <hyperlink ref="H75" r:id="rId79"/>
+    <hyperlink ref="H76" r:id="rId80"/>
+    <hyperlink ref="H77" r:id="rId81"/>
+    <hyperlink ref="H78" r:id="rId82"/>
+    <hyperlink ref="W78" r:id="rId83"/>
+    <hyperlink ref="W79" r:id="rId84"/>
+    <hyperlink ref="H80" r:id="rId85"/>
+    <hyperlink ref="H81" r:id="rId86"/>
+    <hyperlink ref="H82" r:id="rId87"/>
+    <hyperlink ref="H83" r:id="rId88"/>
+    <hyperlink ref="H84" r:id="rId89"/>
+    <hyperlink ref="H85" r:id="rId90"/>
+    <hyperlink ref="H86" r:id="rId91"/>
+    <hyperlink ref="W86" r:id="rId92"/>
+    <hyperlink ref="W87" r:id="rId93"/>
+    <hyperlink ref="H88" r:id="rId94"/>
+    <hyperlink ref="H89" r:id="rId95"/>
+    <hyperlink ref="H90" r:id="rId96"/>
+    <hyperlink ref="H91" r:id="rId97"/>
+    <hyperlink ref="H92" r:id="rId98"/>
+    <hyperlink ref="H93" r:id="rId99"/>
+    <hyperlink ref="H94" r:id="rId100"/>
+    <hyperlink ref="W94" r:id="rId101"/>
+    <hyperlink ref="W95" r:id="rId102"/>
+    <hyperlink ref="W96" r:id="rId103"/>
+    <hyperlink ref="W97" r:id="rId104"/>
+    <hyperlink ref="W98" r:id="rId105"/>
+    <hyperlink ref="H99" r:id="rId106"/>
+    <hyperlink ref="H100" r:id="rId107"/>
+    <hyperlink ref="H101" r:id="rId108"/>
+    <hyperlink ref="H102" r:id="rId109"/>
+    <hyperlink ref="H103" r:id="rId110"/>
+    <hyperlink ref="H104" r:id="rId111"/>
+    <hyperlink ref="H105" r:id="rId112"/>
+    <hyperlink ref="H106" r:id="rId113"/>
+    <hyperlink ref="W106" r:id="rId114"/>
+    <hyperlink ref="W107" r:id="rId115"/>
+    <hyperlink ref="H108" r:id="rId116"/>
+    <hyperlink ref="H109" r:id="rId117"/>
+    <hyperlink ref="H110" r:id="rId118"/>
+    <hyperlink ref="H111" r:id="rId119"/>
+    <hyperlink ref="H112" r:id="rId120"/>
+    <hyperlink ref="H113" r:id="rId121"/>
+    <hyperlink ref="W113" r:id="rId122"/>
+    <hyperlink ref="W114" r:id="rId123"/>
+    <hyperlink ref="W115" r:id="rId124"/>
+    <hyperlink ref="W116" r:id="rId125"/>
+    <hyperlink ref="W117" r:id="rId126"/>
+    <hyperlink ref="W118" r:id="rId127"/>
+    <hyperlink ref="W119" r:id="rId128"/>
+    <hyperlink ref="W120" r:id="rId129"/>
+    <hyperlink ref="W121" r:id="rId130"/>
+    <hyperlink ref="W122" r:id="rId131"/>
+    <hyperlink ref="W123" r:id="rId132"/>
+    <hyperlink ref="W124" r:id="rId133"/>
+    <hyperlink ref="H125" r:id="rId134"/>
+    <hyperlink ref="H126" r:id="rId135"/>
+    <hyperlink ref="H127" r:id="rId136"/>
+    <hyperlink ref="H128" r:id="rId137"/>
+    <hyperlink ref="H129" r:id="rId138"/>
+    <hyperlink ref="H130" r:id="rId139"/>
+    <hyperlink ref="H131" r:id="rId140"/>
+    <hyperlink ref="H132" r:id="rId141"/>
+    <hyperlink ref="W132" r:id="rId142"/>
+    <hyperlink ref="W133" r:id="rId143"/>
+    <hyperlink ref="W134" r:id="rId144"/>
+    <hyperlink ref="H135" r:id="rId145"/>
+    <hyperlink ref="H136" r:id="rId146"/>
+    <hyperlink ref="H137" r:id="rId147"/>
+    <hyperlink ref="H138" r:id="rId148"/>
+    <hyperlink ref="H139" r:id="rId149"/>
+    <hyperlink ref="H140" r:id="rId150"/>
+    <hyperlink ref="H141" r:id="rId151"/>
+    <hyperlink ref="H142" r:id="rId152"/>
+    <hyperlink ref="W142" r:id="rId153"/>
+    <hyperlink ref="W143" r:id="rId154"/>
+    <hyperlink ref="W144" r:id="rId155"/>
+    <hyperlink ref="W145" r:id="rId156"/>
+    <hyperlink ref="H146" r:id="rId157"/>
+    <hyperlink ref="H147" r:id="rId158"/>
+    <hyperlink ref="H148" r:id="rId159"/>
+    <hyperlink ref="H149" r:id="rId160"/>
+    <hyperlink ref="H150" r:id="rId161"/>
+    <hyperlink ref="H151" r:id="rId162"/>
+    <hyperlink ref="H152" r:id="rId163"/>
+    <hyperlink ref="H153" r:id="rId164"/>
+    <hyperlink ref="W153" r:id="rId165"/>
+    <hyperlink ref="W154" r:id="rId166"/>
+    <hyperlink ref="W155" r:id="rId167"/>
+    <hyperlink ref="W156" r:id="rId168"/>
+    <hyperlink ref="W157" r:id="rId169"/>
+    <hyperlink ref="H158" r:id="rId170"/>
+    <hyperlink ref="H159" r:id="rId171"/>
+    <hyperlink ref="H160" r:id="rId172"/>
+    <hyperlink ref="H161" r:id="rId173"/>
+    <hyperlink ref="H162" r:id="rId174"/>
+    <hyperlink ref="H163" r:id="rId175"/>
+    <hyperlink ref="H164" r:id="rId176"/>
+    <hyperlink ref="H165" r:id="rId177"/>
+    <hyperlink ref="W165" r:id="rId178"/>
+    <hyperlink ref="W166" r:id="rId179"/>
+    <hyperlink ref="W167" r:id="rId180"/>
+    <hyperlink ref="H168" r:id="rId181"/>
+    <hyperlink ref="H169" r:id="rId182"/>
+    <hyperlink ref="H170" r:id="rId183"/>
+    <hyperlink ref="H171" r:id="rId184"/>
+    <hyperlink ref="H172" r:id="rId185"/>
+    <hyperlink ref="H173" r:id="rId186"/>
+    <hyperlink ref="H174" r:id="rId187"/>
+    <hyperlink ref="H175" r:id="rId188"/>
+    <hyperlink ref="W175" r:id="rId189"/>
+    <hyperlink ref="W176" r:id="rId190"/>
+    <hyperlink ref="W177" r:id="rId191"/>
+    <hyperlink ref="H178" r:id="rId192"/>
+    <hyperlink ref="H179" r:id="rId193"/>
+    <hyperlink ref="H180" r:id="rId194"/>
+    <hyperlink ref="H181" r:id="rId195"/>
+    <hyperlink ref="H182" r:id="rId196"/>
+    <hyperlink ref="H183" r:id="rId197"/>
+    <hyperlink ref="H184" r:id="rId198"/>
+    <hyperlink ref="H185" r:id="rId199"/>
+    <hyperlink ref="W185" r:id="rId200"/>
+    <hyperlink ref="W186" r:id="rId201"/>
+    <hyperlink ref="W187" r:id="rId202"/>
+    <hyperlink ref="W188" r:id="rId203"/>
+    <hyperlink ref="H189" r:id="rId204"/>
+    <hyperlink ref="H190" r:id="rId205"/>
+    <hyperlink ref="H191" r:id="rId206"/>
+    <hyperlink ref="H192" r:id="rId207"/>
+    <hyperlink ref="H193" r:id="rId208"/>
+    <hyperlink ref="H194" r:id="rId209"/>
+    <hyperlink ref="H195" r:id="rId210"/>
+    <hyperlink ref="H196" r:id="rId211"/>
+    <hyperlink ref="W196" r:id="rId212"/>
+    <hyperlink ref="W197" r:id="rId213"/>
+    <hyperlink ref="W198" r:id="rId214"/>
+    <hyperlink ref="W199" r:id="rId215"/>
+    <hyperlink ref="H200" r:id="rId216"/>
+    <hyperlink ref="H201" r:id="rId217"/>
+    <hyperlink ref="H202" r:id="rId218"/>
+    <hyperlink ref="H203" r:id="rId219"/>
+    <hyperlink ref="H204" r:id="rId220"/>
+    <hyperlink ref="H205" r:id="rId221"/>
+    <hyperlink ref="H206" r:id="rId222"/>
+    <hyperlink ref="H207" r:id="rId223"/>
+    <hyperlink ref="W207" r:id="rId224"/>
+    <hyperlink ref="W208" r:id="rId225"/>
+    <hyperlink ref="W209" r:id="rId226"/>
+    <hyperlink ref="W210" r:id="rId227"/>
+    <hyperlink ref="H211" r:id="rId228"/>
+    <hyperlink ref="H212" r:id="rId229"/>
+    <hyperlink ref="H213" r:id="rId230"/>
+    <hyperlink ref="H214" r:id="rId231"/>
+    <hyperlink ref="H215" r:id="rId232"/>
+    <hyperlink ref="H216" r:id="rId233"/>
+    <hyperlink ref="H217" r:id="rId234"/>
+    <hyperlink ref="H218" r:id="rId235"/>
+    <hyperlink ref="W218" r:id="rId236"/>
+    <hyperlink ref="W219" r:id="rId237"/>
+    <hyperlink ref="W220" r:id="rId238"/>
+    <hyperlink ref="W221" r:id="rId239"/>
+    <hyperlink ref="H222" r:id="rId240"/>
+    <hyperlink ref="H223" r:id="rId241"/>
+    <hyperlink ref="H224" r:id="rId242"/>
+    <hyperlink ref="H225" r:id="rId243"/>
+    <hyperlink ref="H226" r:id="rId244"/>
+    <hyperlink ref="H227" r:id="rId245"/>
+    <hyperlink ref="H228" r:id="rId246"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
